--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A080181-0E76-4DFB-890D-D0DBB9E31922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9041BB9A-9E87-4536-B2BA-36F96EAADE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="3525" windowWidth="21600" windowHeight="11445" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="14655" yWindow="2700" windowWidth="21600" windowHeight="8820" activeTab="3" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="166">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -216,9 +216,6 @@
     <t xml:space="preserve">git commit - m </t>
   </si>
   <si>
-    <t>GitHub fájlok kommittolása üzenettel (" ")</t>
-  </si>
-  <si>
     <t>git pull</t>
   </si>
   <si>
@@ -271,16 +268,307 @@
   </si>
   <si>
     <t>Címkézéshez</t>
+  </si>
+  <si>
+    <t>git clone</t>
+  </si>
+  <si>
+    <t>Github repo lemásolása</t>
+  </si>
+  <si>
+    <t>code .</t>
+  </si>
+  <si>
+    <t>Új abkalk megnyitása a letöltött fájlokhoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git add</t>
+  </si>
+  <si>
+    <t>Untracked</t>
+  </si>
+  <si>
+    <t>Unmodified</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Staged</t>
+  </si>
+  <si>
+    <t>A Git nem törődik a fájllal. Ez újonnan létrehozott fájloknál jellemző.</t>
+  </si>
+  <si>
+    <t>A Git követi a fájlt, és mi nem módosítottuk azt. Ez az újonnan letöltött fájlok állapota.</t>
+  </si>
+  <si>
+    <t>A Git követi a fájlt, és mi módosítottuk.</t>
+  </si>
+  <si>
+    <t>A Git követi a fájlt, mi módosítottuk, és a módosítás be fog kerülni az adatbázisba.</t>
+  </si>
+  <si>
+    <t>Fájlok hozzáadása a Staged-re követetlenről</t>
+  </si>
+  <si>
+    <t>Staged fájlok hozzáadása az adatbázisunkhoz</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>Munkaterület ellenörzése</t>
+  </si>
+  <si>
+    <t>kifejezés &gt;&gt; fájl megnevezése</t>
+  </si>
+  <si>
+    <t>Tartalom beillesztése &gt;&gt; jelekkel a megnevezett fájlba</t>
+  </si>
+  <si>
+    <t>@font-face</t>
+  </si>
+  <si>
+    <t>Új betűtípus hozzáadása</t>
+  </si>
+  <si>
+    <t>ha gyökérkönyvtárból indulunk kell, ha fájlhoz viszonyítva keresünk akkor nem</t>
+  </si>
+  <si>
+    <t>/&lt;elérési út&gt;</t>
+  </si>
+  <si>
+    <t>Betűtípus elnevezése</t>
+  </si>
+  <si>
+    <t>font-family: ""</t>
+  </si>
+  <si>
+    <t>scr: url("&lt;elérési útvonal&gt;")</t>
+  </si>
+  <si>
+    <t>Font elérési útvonala</t>
+  </si>
+  <si>
+    <t>font-weight:</t>
+  </si>
+  <si>
+    <t>betűtípus vastagságának definálása</t>
+  </si>
+  <si>
+    <t>&lt;link&gt;</t>
+  </si>
+  <si>
+    <t>elérési útvonal megadása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rel= </t>
+  </si>
+  <si>
+    <t>href=</t>
+  </si>
+  <si>
+    <t>Stílus elérési útvonala</t>
+  </si>
+  <si>
+    <t>Típus megnevezése</t>
+  </si>
+  <si>
+    <t>text-align</t>
+  </si>
+  <si>
+    <t>Szöveg igazítása</t>
+  </si>
+  <si>
+    <t>justify</t>
+  </si>
+  <si>
+    <t>Sorkizár</t>
+  </si>
+  <si>
+    <t>text-transform</t>
+  </si>
+  <si>
+    <t>Beállítás, hogy kis vagy nagy betűket használjon</t>
+  </si>
+  <si>
+    <t>line-height</t>
+  </si>
+  <si>
+    <t>Sormagasság</t>
+  </si>
+  <si>
+    <t>font-weight</t>
+  </si>
+  <si>
+    <t>Betűvastagság</t>
+  </si>
+  <si>
+    <t>@import</t>
+  </si>
+  <si>
+    <t>Google Fontsból online linkelhető fontok</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>ID beazonosításához</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>elemek osztályokba szedése</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>csoportok beazonosításához, osztály neve elé kell írni, amivel dolgozni szeretnék</t>
+  </si>
+  <si>
+    <t>id atribútom beazonosításához, id név elé kell írni, amivel dolgozni szeretnék</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>Mindenre vonatkozik</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>A ﻿&lt;div&gt;﻿ egy osztást (division) hoz létre az oldalon. Blokk szintű elem, és alapból nagyon kevés beállítása van, ezért a designerek is szeretnek vele dolgozni.</t>
+  </si>
+  <si>
+    <t>A div-től eltérően nem blokk, hanem inline elem. Leginkább akkor hasznos, ha egy szövegből egy részletet szeretnél másképp megformázni.</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>padding</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/css/css_margin.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/css/css_border.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/css/css_padding.asp</t>
+  </si>
+  <si>
+    <t>elemen kívüli tér
+oldalankénti megadás:  margin-top﻿, ﻿margin-righ ﻿margin-bottom ﻿margin-left﻿
+megadás egyben: ﻿margin: top right bottom left
+megadás páronként: ﻿margin:top-bottom   right-left</t>
+  </si>
+  <si>
+    <t>elemet körülvevő elem
+egy utasítással:  ﻿border:style   width color
+sarkak kerekítése:  ﻿border-radius:10px
+oldalanként: ﻿border-left:style ﻿﻿width color
+tulajdonságonként:  ﻿border-style ﻿border-width ﻿border-color</t>
+  </si>
+  <si>
+    <t>border-radius</t>
+  </si>
+  <si>
+    <t>kerektítéshez</t>
+  </si>
+  <si>
+    <t>display:</t>
+  </si>
+  <si>
+    <t>Hogyan jelenjen meg az elem</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>Megjelenjen-e az elem? (helyét megörzi)</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/css/css_display_visibility.asp</t>
+  </si>
+  <si>
+    <t>max-width</t>
+  </si>
+  <si>
+    <t>Maximális szélesség</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Elemek poziciója</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>ez az alapértelmezett, a helyzet a többi elemtől függ.</t>
+  </si>
+  <si>
+    <t>a  helyzet a saját normál pozíciótól függ.</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>a böngészőablakhoz képest helyezkedik el.</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>a helyzet az első nem static elemtől függ</t>
+  </si>
+  <si>
+    <t>Javasolt értékek</t>
+  </si>
+  <si>
+    <t>Ctrl+Space</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF252628"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -304,14 +592,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -332,15 +636,81 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>153572</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>125015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2C331F-BE07-4597-AC12-9B4D121E4B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4667250" y="125015"/>
+          <a:ext cx="4476750" cy="1846659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>115472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -370,7 +740,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2867026" y="534572"/>
+          <a:off x="2867026" y="305972"/>
           <a:ext cx="4457700" cy="932278"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -690,16 +1060,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC350798-7711-4A1C-A883-6ABC74B33182}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +1201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -838,7 +1209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -846,7 +1217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -854,7 +1225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -862,7 +1233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -870,7 +1241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -878,12 +1249,60 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
-        <v>77</v>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -894,16 +1313,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01868413-D70B-4C24-843C-8215A52F7768}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,82 +1330,79 @@
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB668233-3DBF-4B7F-9F7C-E8D2A76AFBBB}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -995,18 +1411,337 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB668233-3DBF-4B7F-9F7C-E8D2A76AFBBB}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B27:E27"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C30" r:id="rId1" xr:uid="{18C46674-9CE9-411B-B68E-7005D24B92B2}"/>
+    <hyperlink ref="C31" r:id="rId2" xr:uid="{71C5435D-E6B6-40B1-A3EF-D25001EE3AA1}"/>
+    <hyperlink ref="C32" r:id="rId3" xr:uid="{DBBAA1BA-604C-49E5-83E5-568C22A3E2AC}"/>
+    <hyperlink ref="C35" r:id="rId4" xr:uid="{4C50D500-EDA8-443B-901D-94EC96245BE0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37B706B-AF5C-42E1-8D04-E63F396DB679}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1065,12 +1800,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s">
-        <v>65</v>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9041BB9A-9E87-4536-B2BA-36F96EAADE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FF801A-01F0-4A7B-B00C-982978942FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14655" yWindow="2700" windowWidth="21600" windowHeight="8820" activeTab="3" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>

--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FF801A-01F0-4A7B-B00C-982978942FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D22DC2F-AF58-41ED-9D60-1E93F922CC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="2700" windowWidth="21600" windowHeight="8820" activeTab="3" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="324" yWindow="540" windowWidth="18948" windowHeight="12336" activeTab="2" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -23,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="180">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -543,12 +534,68 @@
   <si>
     <t>Ctrl+Space</t>
   </si>
+  <si>
+    <t>&lt;szóköz&gt;</t>
+  </si>
+  <si>
+    <t>Egymásba ágyazásnál az osztály után elválasztással használható az osztályba lépés</t>
+  </si>
+  <si>
+    <t>Egyben írva osztállyal együtt</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Learn/CSS/Building_blocks/Selectors</t>
+  </si>
+  <si>
+    <t>Attribute szelektor</t>
+  </si>
+  <si>
+    <t>Az elemet valamilyen tulajdonsága alapján választja ki.
+Jele: ﻿[ ]
+Előnye: külön formázást adhatunk meg egy elemnek - eltérő tulajdonságok esetén.
+Hátránya: böngésző támogatása nem teljesen egységes.</t>
+  </si>
+  <si>
+    <t>[attribute^=value]</t>
+  </si>
+  <si>
+    <t>példa: a[href^="https"]
+Kiválasztja az összes olyan elemet, aminek az adott attribútuma a megadott szöveggel kezdődik.</t>
+  </si>
+  <si>
+    <t>[attribute$=value]</t>
+  </si>
+  <si>
+    <t>példa: a[href$=".pdf"]
+Kiválasztja az összes olyan elemet, aminek az adott attribútuma a megadott szöveggel végződik.</t>
+  </si>
+  <si>
+    <t>[attribute*=value]</t>
+  </si>
+  <si>
+    <t>példa: a[href*="training360"]
+Kiválasztja az összes olyan elemet, aminek az adott attribútuma a megadott szöveget bárhol tartalmazza.</t>
+  </si>
+  <si>
+    <t>Fontosabb pszeudo osztályok:</t>
+  </si>
+  <si>
+    <t>:hover﻿ (ha az elem fölé viszik az egeret),
+:visited﻿ (azok a linkek, amelyekre már kattintottak),
+:active﻿ (ha a felhasználó használ egy elemet, mondjuk rákattint),
+:focus﻿ (elsősorban input mezőknél, ha éppen használjuk),
+:first-child﻿ / :last-child﻿ (a szülő elem első, illetve utolsó gyereke),
+:nth-child(n)﻿ (az n-edik gyereke a szülő elemnek),
+:empty﻿ (olyan elem, aminek nincs gyereke, azaz nem tartalmaz beágyazott elemet),
+:checked﻿ (a kiválasztott checkbox),
+:disabled﻿ (letiltott elem).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +615,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF252628"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF252628"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -596,12 +651,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -613,6 +665,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1062,18 +1123,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC350798-7711-4A1C-A883-6ABC74B33182}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1081,7 +1142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1097,7 +1158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1137,7 +1198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,7 +1206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1153,7 +1214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1161,7 +1222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1169,7 +1230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1185,7 +1246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1193,7 +1254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1201,7 +1262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1209,7 +1270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1217,7 +1278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1225,7 +1286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1241,7 +1302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1249,7 +1310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -1257,7 +1318,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -1265,7 +1326,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1273,7 +1334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -1281,7 +1342,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>108</v>
       </c>
@@ -1289,7 +1350,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>109</v>
       </c>
@@ -1297,7 +1358,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -1319,13 +1380,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1333,7 +1394,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1341,7 +1402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1349,7 +1410,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1357,7 +1418,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1365,7 +1426,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -1373,7 +1434,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1381,7 +1442,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1389,7 +1450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -1397,7 +1458,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -1413,68 +1474,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB668233-3DBF-4B7F-9F7C-E8D2A76AFBBB}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>101</v>
       </c>
@@ -1482,7 +1543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>102</v>
       </c>
@@ -1490,7 +1551,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>104</v>
       </c>
@@ -1498,15 +1559,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>114</v>
       </c>
@@ -1514,183 +1575,183 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B34" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B35" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B36" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>154</v>
       </c>
       <c r="B38" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>156</v>
       </c>
@@ -1698,7 +1759,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>160</v>
       </c>
@@ -1706,12 +1767,68 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>162</v>
       </c>
       <c r="C42" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1724,9 +1841,10 @@
     <hyperlink ref="C31" r:id="rId2" xr:uid="{71C5435D-E6B6-40B1-A3EF-D25001EE3AA1}"/>
     <hyperlink ref="C32" r:id="rId3" xr:uid="{DBBAA1BA-604C-49E5-83E5-568C22A3E2AC}"/>
     <hyperlink ref="C35" r:id="rId4" xr:uid="{4C50D500-EDA8-443B-901D-94EC96245BE0}"/>
+    <hyperlink ref="C44" r:id="rId5" xr:uid="{F504D005-F3E3-464F-9A43-A90ABC917290}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1734,17 +1852,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37B706B-AF5C-42E1-8D04-E63F396DB679}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1752,7 +1870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1760,7 +1878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1768,7 +1886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1776,7 +1894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1784,7 +1902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1792,7 +1910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1800,7 +1918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -1808,7 +1926,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1816,7 +1934,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1824,7 +1942,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>94</v>
       </c>

--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\Adanos93-main\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D22DC2F-AF58-41ED-9D60-1E93F922CC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98B8442-A316-45BC-AE83-9C33F194F715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="540" windowWidth="18948" windowHeight="12336" activeTab="2" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="3810" yWindow="3705" windowWidth="21600" windowHeight="8820" activeTab="4" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
     <sheet name="GitHub" sheetId="3" r:id="rId2"/>
     <sheet name="CSS" sheetId="4" r:id="rId3"/>
-    <sheet name="Visual Studio Code" sheetId="2" r:id="rId4"/>
+    <sheet name="HTML Űrlapok" sheetId="5" r:id="rId4"/>
+    <sheet name="Bootstrap" sheetId="6" r:id="rId5"/>
+    <sheet name="Visual Studio Code" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="212">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -589,6 +591,107 @@
 :empty﻿ (olyan elem, aminek nincs gyereke, azaz nem tartalmaz beágyazott elemet),
 :checked﻿ (a kiválasztott checkbox),
 :disabled﻿ (letiltott elem).</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_forms.asp</t>
+  </si>
+  <si>
+    <t>&lt;form&gt;</t>
+  </si>
+  <si>
+    <t>Űrlap létrehozásához. Az űrlapon belül vannak a beviteli mezők, listák.</t>
+  </si>
+  <si>
+    <t>&lt;input&gt;</t>
+  </si>
+  <si>
+    <t>&lt;label&gt;</t>
+  </si>
+  <si>
+    <t>Adatok kézi beviteléhez a honlapon.</t>
+  </si>
+  <si>
+    <t>Az input elemek elláthatóak labellel
+name: az adat neve, későbbi azonosításhoz kell
+type: az adat típusa, lehet text, password, etc…</t>
+  </si>
+  <si>
+    <t>input type="radio"</t>
+  </si>
+  <si>
+    <t>input type="checkbox"</t>
+  </si>
+  <si>
+    <t>minden input névnek meg kell egyeznie, több lehetőség, 1 kiválaszható</t>
+  </si>
+  <si>
+    <t>input név nem egyezik meg, több lehetőség, több kiválasztható</t>
+  </si>
+  <si>
+    <t>&lt;fieldset&gt;</t>
+  </si>
+  <si>
+    <t>Területekre osztható vele az űrlap</t>
+  </si>
+  <si>
+    <t>https://getbootstrap.com</t>
+  </si>
+  <si>
+    <t>Reszponzív CSS</t>
+  </si>
+  <si>
+    <t>Grid kialakításánál</t>
+  </si>
+  <si>
+    <t>col-x</t>
+  </si>
+  <si>
+    <t>1 mező x mező széles</t>
+  </si>
+  <si>
+    <t>-sm, -md, -lg, -xl, -xxl</t>
+  </si>
+  <si>
+    <t>Megjelölt képernyőméretek</t>
+  </si>
+  <si>
+    <t>alert alert-figyelmeztetés típusa</t>
+  </si>
+  <si>
+    <t>Bootstrap táblázatok</t>
+  </si>
+  <si>
+    <t>Csíkozott (minden második sor kicsit sötétebb): ﻿table-striped
+Szegélyezett (látszanak a cellák szegélyei): ﻿table-bordered
+Hovered (a sor beszürkül, ha fölé viszed az egeret): ﻿table-hover
+Tömör (kisebb paddingot hagy a cellákon): ﻿table-sm</t>
+  </si>
+  <si>
+    <t>&lt;thead&gt;&lt;/thead&gt;﻿ és ﻿&lt;tbody&gt;&lt;/tbody&gt; közé kell beírni</t>
+  </si>
+  <si>
+    <t>Bootstrap gombok</t>
+  </si>
+  <si>
+    <t>mobile first</t>
+  </si>
+  <si>
+    <t>kisebb méretű beállítások elsődlegesek</t>
+  </si>
+  <si>
+    <t>12 oszlopból áll</t>
+  </si>
+  <si>
+    <t>&lt;button class="btw btw-gombneve"&gt;</t>
+  </si>
+  <si>
+    <t>ikonok &lt;head&gt;-be</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="https://use.fontawesome.com/releases/v5.8.1/css/all.css"&gt;</t>
+  </si>
+  <si>
+    <t>fontawesome.com</t>
   </si>
 </sst>
 </file>
@@ -651,7 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -665,14 +768,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1123,18 +1230,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC350798-7711-4A1C-A883-6ABC74B33182}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1142,7 +1249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1166,7 +1273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1190,7 +1297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1206,7 +1313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1214,7 +1321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1222,7 +1329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1230,7 +1337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1238,7 +1345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1246,7 +1353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1254,7 +1361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1262,7 +1369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +1377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1278,7 +1385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1286,7 +1393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1294,7 +1401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1302,7 +1409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1310,7 +1417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -1318,7 +1425,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -1326,7 +1433,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1334,7 +1441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -1342,7 +1449,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>108</v>
       </c>
@@ -1350,7 +1457,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>109</v>
       </c>
@@ -1358,7 +1465,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -1380,13 +1487,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1394,7 +1501,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1402,7 +1509,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1410,7 +1517,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1418,7 +1525,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1426,7 +1533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -1434,7 +1541,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1442,7 +1549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1450,7 +1557,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -1458,7 +1565,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -1476,18 +1583,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB668233-3DBF-4B7F-9F7C-E8D2A76AFBBB}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
@@ -1495,7 +1602,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>66</v>
       </c>
@@ -1503,7 +1610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
@@ -1511,7 +1618,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
@@ -1519,7 +1626,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -1527,7 +1634,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>96</v>
       </c>
@@ -1535,7 +1642,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>101</v>
       </c>
@@ -1543,7 +1650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>102</v>
       </c>
@@ -1551,7 +1658,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>104</v>
       </c>
@@ -1559,7 +1666,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>112</v>
       </c>
@@ -1567,7 +1674,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>114</v>
       </c>
@@ -1575,7 +1682,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>116</v>
       </c>
@@ -1583,7 +1690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>118</v>
       </c>
@@ -1591,7 +1698,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
@@ -1599,7 +1706,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>122</v>
       </c>
@@ -1607,7 +1714,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>132</v>
       </c>
@@ -1615,7 +1722,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
@@ -1623,7 +1730,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>124</v>
       </c>
@@ -1631,7 +1738,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>126</v>
       </c>
@@ -1639,7 +1746,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>128</v>
       </c>
@@ -1647,30 +1754,30 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>137</v>
       </c>
@@ -1681,7 +1788,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>138</v>
       </c>
@@ -1692,7 +1799,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>139</v>
       </c>
@@ -1700,7 +1807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>145</v>
       </c>
@@ -1708,7 +1815,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>147</v>
       </c>
@@ -1716,7 +1823,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>149</v>
       </c>
@@ -1727,7 +1834,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>152</v>
       </c>
@@ -1735,7 +1842,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>154</v>
       </c>
@@ -1743,7 +1850,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>157</v>
       </c>
@@ -1751,7 +1858,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>156</v>
       </c>
@@ -1759,7 +1866,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>160</v>
       </c>
@@ -1767,7 +1874,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>162</v>
       </c>
@@ -1775,7 +1882,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>166</v>
       </c>
@@ -1786,20 +1893,20 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>172</v>
       </c>
@@ -1807,7 +1914,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>174</v>
       </c>
@@ -1815,7 +1922,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>176</v>
       </c>
@@ -1823,8 +1930,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -1849,20 +1956,201 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DC3297-2FF5-4F13-A7F5-D9785A69B897}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CC2D60-58BC-4E88-A164-49D42285BA72}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37B706B-AF5C-42E1-8D04-E63F396DB679}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1870,7 +2158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1878,7 +2166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1886,7 +2174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1894,7 +2182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1902,7 +2190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1910,7 +2198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1918,7 +2206,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -1926,7 +2214,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1934,7 +2222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1942,7 +2230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>94</v>
       </c>

--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\Adanos93-main\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98B8442-A316-45BC-AE83-9C33F194F715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D27F1F-1AA3-43F1-BBFA-5ECF660B1F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3705" windowWidth="21600" windowHeight="8820" activeTab="4" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="7200" yWindow="465" windowWidth="21600" windowHeight="8820" activeTab="4" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="214">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -692,6 +692,12 @@
   </si>
   <si>
     <t>fontawesome.com</t>
+  </si>
+  <si>
+    <t>form-control</t>
+  </si>
+  <si>
+    <t>forok input és select elemek formázása</t>
   </si>
 </sst>
 </file>
@@ -774,12 +780,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1758,24 +1764,24 @@
       <c r="A27" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1971,14 +1977,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2038,97 +2044,105 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CC2D60-58BC-4E88-A164-49D42285BA72}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\Adanos93-main\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D27F1F-1AA3-43F1-BBFA-5ECF660B1F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298146BA-2786-432A-BD16-3F3FF0439B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="465" windowWidth="21600" windowHeight="8820" activeTab="4" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="3225" yWindow="2310" windowWidth="21600" windowHeight="8820" activeTab="5" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="CSS" sheetId="4" r:id="rId3"/>
     <sheet name="HTML Űrlapok" sheetId="5" r:id="rId4"/>
     <sheet name="Bootstrap" sheetId="6" r:id="rId5"/>
-    <sheet name="Visual Studio Code" sheetId="2" r:id="rId6"/>
+    <sheet name="JavaScript" sheetId="7" r:id="rId6"/>
+    <sheet name="Visual Studio Code" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="274">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -698,6 +699,198 @@
   </si>
   <si>
     <t>forok input és select elemek formázása</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;</t>
+  </si>
+  <si>
+    <t>script beillesztése a kódba</t>
+  </si>
+  <si>
+    <t>src ="script.js"</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/js/js_whereto.asp</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>deklaráció</t>
+  </si>
+  <si>
+    <t>érték nélküli változó létrehozása</t>
+  </si>
+  <si>
+    <t>definiálás</t>
+  </si>
+  <si>
+    <t>értékkel rendelkező változó létrehozása</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>értékadó operátor</t>
+  </si>
+  <si>
+    <t>Utasítom a böngészőt, hogy egy változót fogok létrehozni</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>Olyan változót lehet létrehozni vele, aminek értéke nem változtatható</t>
+  </si>
+  <si>
+    <t>Egyszerre</t>
+  </si>
+  <si>
+    <t>Amikor a deklarálást és a definiálást egyszerre hajtod végre, azt inicializálásnak is szokták nevezni, de ez programnyelvenként eltérő lehet. Ekkor egy lépésben létrejön a változó és értéket is kap.</t>
+  </si>
+  <si>
+    <t>Változó</t>
+  </si>
+  <si>
+    <t>Nem kezdődhez számmal és speciális karakterrel
+Nem tartalmazhat szóközt
+Kifejezőnek kell lennie</t>
+  </si>
+  <si>
+    <t>minden objektum, ami nem primitívbe tartozik</t>
+  </si>
+  <si>
+    <t>Primitív típusok</t>
+  </si>
+  <si>
+    <t>boolean
+number
+string
+null
+undefined
+symbol</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>Egy-egy objektumon nem végezhető módosítás, helyette a műveletek egy új, módosított objektumot adnak vissza.</t>
+  </si>
+  <si>
+    <t>Dot operator, objektumok property-jeit és methodjait mutatja</t>
+  </si>
+  <si>
+    <t>typeof</t>
+  </si>
+  <si>
+    <t>változó típusa kérhető le</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Számok tárolására alkalmas.</t>
+  </si>
+  <si>
+    <t>NaN - Not a Number (nem szám)</t>
+  </si>
+  <si>
+    <t>A NaN a JavaScript nyelvben egy úgynevezett lefoglalt szó.
+Ezt az értéket akkor veszi fel egy változó, ha érvénytelen számot tartalmaz. Például, ha számot szöveggel akarunk osztani, vagy rossz formában adtuk meg a Number típusú változót.</t>
+  </si>
+  <si>
+    <t>Maradékos osztás</t>
+  </si>
+  <si>
+    <t>Hatványozás</t>
+  </si>
+  <si>
+    <t>** (3**3, azaz 3*3*3 eredménye 27)</t>
+  </si>
+  <si>
+    <t>% (az osztás utáni maradékot adja vissza, pl.: 10 % 3 művelet eredménye 1)</t>
+  </si>
+  <si>
+    <t>Precedencia szabályok</t>
+  </si>
+  <si>
+    <t>Matematika műveletek elvégzésének sorrendje (rangsorolás)</t>
+  </si>
+  <si>
+    <t>Végtelen - Infinity</t>
+  </si>
+  <si>
+    <t>number.positive_infinity
+number.negative_infinity
+number.isfinite(value)</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Karakterláncokat tárol. Ezeket szövegnek is szokták nevezni köznapi nyelven, de ez nem pontos meghatározás. Később, amikor a tömböket megismerjük, visszatérünk rá, hogy pontosan mit is jelent a karakterek tömbje.
+Segítségével hosszabb szövegeket is tárolhatsz a memóriában. Amikor el akarsz tárolni egy email címet vagy egy nevet, az tipikusan String típusú lesz.</t>
+  </si>
+  <si>
+    <t>Összefűzés</t>
+  </si>
+  <si>
+    <t>+ 2 összefűzendő string közé</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>Egészen addig, amíg egy változót nem definiálsz, az értéke undefined lesz, ha pedig a típusát lekéred, azt fogod kapni, hogy "undefined".</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Hasonlóan az undefined-hoz, ez egy speciális típus. Az a különbség, hogy nem azt jelzi, hogy még nincs definiálva a változó, ezt az értéket szándékosan szokták egy változónak adni, úgymond kinullázzák.</t>
+  </si>
+  <si>
+    <t>Implicit típuskonverzió</t>
+  </si>
+  <si>
+    <t>Az implicit típuskonverzió olyan típuskonverzió, amelyet a fordítóprogram automatikusan alkalmazhat, amikor szükségét érzi. Ha ezt az átalakítást nem tudja a program automatikusan elvégezni, akkor általában valamilyen hibaüzenetet kapsz.</t>
+  </si>
+  <si>
+    <t>Explicit típuskonverzió</t>
+  </si>
+  <si>
+    <t>Itt mi erőltetjük a konverziót, és nem az értelmező motor hajtja végre automatikusan. A típusoknak a js-ben van úgynevezett konstruktora, amivel egy adott típusú változót létre lehet hozni.
+Kívánt típus(érték) -&gt; Number("2") -&gt; string 2-ből lett szám 2</t>
+  </si>
+  <si>
+    <t>kifejezés.toFixed()</t>
+  </si>
+  <si>
+    <t>kifejezés.toString()</t>
+  </si>
+  <si>
+    <t>kifejezés.toPrecision</t>
+  </si>
+  <si>
+    <t>érték stringgé alakítása</t>
+  </si>
+  <si>
+    <t>érték stringgé alakítása és tizedes jegyek levágása megjelölt hosszúságúra</t>
+  </si>
+  <si>
+    <t>érték stringgé alakítása és a számjegyek levágása a megadott hosszúságúra</t>
+  </si>
+  <si>
+    <t>parseInt("")</t>
+  </si>
+  <si>
+    <t>parseFloat("")</t>
+  </si>
+  <si>
+    <t>String egész számmá alakítása. Első nem szám karakterig alakítja át.</t>
+  </si>
+  <si>
+    <t>String tört számmá alakítása. Első nem szám karakterig (kivétel a pont) alakítja át</t>
   </si>
 </sst>
 </file>
@@ -760,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -786,6 +979,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2046,7 +2248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CC2D60-58BC-4E88-A164-49D42285BA72}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2151,6 +2353,285 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350190BB-23B1-450E-A8E4-5073E81203DD}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{A08E9D8B-C09E-4450-8B45-66DB621ADBD1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37B706B-AF5C-42E1-8D04-E63F396DB679}">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\Adanos93-main\Adanos93\!Tanulnivaló\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298146BA-2786-432A-BD16-3F3FF0439B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4DABCC-8CA0-49BA-BB75-F99B9008D773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="2310" windowWidth="21600" windowHeight="8820" activeTab="5" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="9936" yWindow="1524" windowWidth="18948" windowHeight="12336" activeTab="5" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="284">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -891,6 +891,36 @@
   </si>
   <si>
     <t>String tört számmá alakítása. Első nem szám karakterig (kivétel a pont) alakítja át</t>
+  </si>
+  <si>
+    <t>querySelector</t>
+  </si>
+  <si>
+    <t>elemek kiválasztása</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Az elembe bevitt aktuális érték</t>
+  </si>
+  <si>
+    <t>﻿onClick﻿ attribútum</t>
+  </si>
+  <si>
+    <t>A nevéből is látszik, hogy akkor következik be ez az esemény, amikor rákattintanak egy HTML elemre. Ez lehet gomb, div vagy gyakorlatilag bármilyen látható elem, amire lehet kattintani.</t>
+  </si>
+  <si>
+    <t>innerHTML﻿</t>
+  </si>
+  <si>
+    <t>Azoknak a HTML elemeknek, amelyeknek van lezáró tag-je (azaz nem self-closed elemek) lehet tartalma. Az ﻿innerHTML﻿ tulajdonság js alól elérhető, és ki lehet vele olvasni, vagy módosítani is lehet az elemek tartalmát, azaz a bennük található HTML kódot.</t>
+  </si>
+  <si>
+    <t>Accessor</t>
+  </si>
+  <si>
+    <t>Az ﻿innerHTML egy accessor, mert el lehet érni vele egy bizonyos tulajdonságot olvasásra és írásra is.</t>
   </si>
 </sst>
 </file>
@@ -977,17 +1007,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1438,18 +1468,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC350798-7711-4A1C-A883-6ABC74B33182}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1457,7 +1487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1513,7 +1543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1521,7 +1551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1529,7 +1559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,7 +1567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,7 +1575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1553,7 +1583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1561,7 +1591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1569,7 +1599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1577,7 +1607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1585,7 +1615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1593,7 +1623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1601,7 +1631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1609,7 +1639,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1617,7 +1647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1625,7 +1655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -1633,7 +1663,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -1641,7 +1671,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1649,7 +1679,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -1657,7 +1687,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>108</v>
       </c>
@@ -1665,7 +1695,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>109</v>
       </c>
@@ -1673,7 +1703,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -1692,16 +1722,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1709,7 +1739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1717,7 +1747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1725,7 +1755,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1733,7 +1763,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1741,7 +1771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -1749,7 +1779,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1757,7 +1787,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1765,7 +1795,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -1773,7 +1803,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -1791,18 +1821,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB668233-3DBF-4B7F-9F7C-E8D2A76AFBBB}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
@@ -1810,7 +1840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>66</v>
       </c>
@@ -1818,7 +1848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
@@ -1826,7 +1856,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
@@ -1834,7 +1864,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -1842,7 +1872,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>96</v>
       </c>
@@ -1850,7 +1880,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>101</v>
       </c>
@@ -1858,7 +1888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>102</v>
       </c>
@@ -1866,7 +1896,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>104</v>
       </c>
@@ -1874,7 +1904,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>112</v>
       </c>
@@ -1882,7 +1912,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>114</v>
       </c>
@@ -1890,7 +1920,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>116</v>
       </c>
@@ -1898,7 +1928,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>118</v>
       </c>
@@ -1906,7 +1936,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
@@ -1914,7 +1944,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>122</v>
       </c>
@@ -1922,7 +1952,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>132</v>
       </c>
@@ -1930,7 +1960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
@@ -1938,7 +1968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>124</v>
       </c>
@@ -1946,7 +1976,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>126</v>
       </c>
@@ -1954,7 +1984,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>128</v>
       </c>
@@ -1962,30 +1992,30 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>137</v>
       </c>
@@ -1996,7 +2026,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>138</v>
       </c>
@@ -2007,7 +2037,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>139</v>
       </c>
@@ -2015,7 +2045,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>145</v>
       </c>
@@ -2023,7 +2053,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>147</v>
       </c>
@@ -2031,7 +2061,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>149</v>
       </c>
@@ -2042,7 +2072,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>152</v>
       </c>
@@ -2050,7 +2080,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>154</v>
       </c>
@@ -2058,7 +2088,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>157</v>
       </c>
@@ -2066,7 +2096,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>156</v>
       </c>
@@ -2074,7 +2104,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>160</v>
       </c>
@@ -2082,7 +2112,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>162</v>
       </c>
@@ -2090,7 +2120,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>166</v>
       </c>
@@ -2101,12 +2131,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>170</v>
       </c>
@@ -2114,7 +2144,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>172</v>
       </c>
@@ -2122,7 +2152,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>174</v>
       </c>
@@ -2130,7 +2160,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>176</v>
       </c>
@@ -2138,7 +2168,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>178</v>
       </c>
@@ -2167,28 +2197,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DC3297-2FF5-4F13-A7F5-D9785A69B897}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>181</v>
       </c>
@@ -2196,7 +2226,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>183</v>
       </c>
@@ -2204,7 +2234,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>184</v>
       </c>
@@ -2212,7 +2242,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>187</v>
       </c>
@@ -2220,7 +2250,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>188</v>
       </c>
@@ -2228,7 +2258,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>191</v>
       </c>
@@ -2252,23 +2282,23 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.44140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>195</v>
       </c>
@@ -2276,7 +2306,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>196</v>
       </c>
@@ -2284,7 +2314,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>198</v>
       </c>
@@ -2292,12 +2322,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>201</v>
       </c>
@@ -2305,12 +2335,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>204</v>
       </c>
@@ -2318,7 +2348,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>205</v>
       </c>
@@ -2326,7 +2356,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>209</v>
       </c>
@@ -2334,12 +2364,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>212</v>
       </c>
@@ -2354,271 +2384,311 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350190BB-23B1-450E-A8E4-5073E81203DD}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
+    <col min="1" max="1" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>283</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2639,13 +2709,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2653,7 +2723,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2661,7 +2731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2669,7 +2739,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2677,7 +2747,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2685,7 +2755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -2693,7 +2763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2701,7 +2771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -2709,7 +2779,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2717,7 +2787,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -2725,7 +2795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>94</v>
       </c>

--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\Adanos93-main\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4DABCC-8CA0-49BA-BB75-F99B9008D773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE4EB9F-3C45-4193-A059-F584E1F766F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9936" yWindow="1524" windowWidth="18948" windowHeight="12336" activeTab="5" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="10785" yWindow="2385" windowWidth="14670" windowHeight="10680" firstSheet="3" activeTab="5" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
     <sheet name="GitHub" sheetId="3" r:id="rId2"/>
-    <sheet name="CSS" sheetId="4" r:id="rId3"/>
-    <sheet name="HTML Űrlapok" sheetId="5" r:id="rId4"/>
+    <sheet name="HTML Űrlapok" sheetId="5" r:id="rId3"/>
+    <sheet name="CSS" sheetId="4" r:id="rId4"/>
     <sheet name="Bootstrap" sheetId="6" r:id="rId5"/>
     <sheet name="JavaScript" sheetId="7" r:id="rId6"/>
-    <sheet name="Visual Studio Code" sheetId="2" r:id="rId7"/>
+    <sheet name="Tiszta kód" sheetId="8" r:id="rId7"/>
+    <sheet name="Visual Studio Code" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="323">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -921,6 +922,152 @@
   </si>
   <si>
     <t>Az ﻿innerHTML egy accessor, mert el lehet érni vele egy bizonyos tulajdonságot olvasásra és írásra is.</t>
+  </si>
+  <si>
+    <t>Stringek metódusai</t>
+  </si>
+  <si>
+    <t>﻿trim() - szóközök levágása
+﻿concat() - string hozzáfűzése
+﻿toLowerCase() - minden kis betű
+﻿toUpperCase() - minden nagy betű
+etc…</t>
+  </si>
+  <si>
+    <t>Keresés és módosítás egy Stringen belül</t>
+  </si>
+  <si>
+    <t>Megkeresi a Stringen belül egy adott szövegrész kezdetét.
+A kezdő karakter indexét adja vissza, amely 0-tól kezdődik, azaz az első karakter a 0 sorszámú és így tovább.</t>
+  </si>
+  <si>
+    <t>﻿indexOf()</t>
+  </si>
+  <si>
+    <t>﻿replace()</t>
+  </si>
+  <si>
+    <t>Kicseréli a megadott szövegrészt a Stringen belül. Ahogy a példában is látni fogod, ennek a metódusnak kettő darab úgynevezett paramétere van, tehát két adatot kell a zárójelek között megadni</t>
+  </si>
+  <si>
+    <t>﻿Boolean﻿ típus</t>
+  </si>
+  <si>
+    <t>Igaz - hamis értékeket tárol.
+Minden 0 false, minden más szám true
+Üres string false, tartalommal true 
+== megegyezik-e a 2 érték?
+=== megegyezik-e a 2 érték + típus? ("0" === 0 - false)
+&amp;&amp; és kapcsolat
+|| vagy - alt gr + W</t>
+  </si>
+  <si>
+    <t>Három operandusos kifejezés:</t>
+  </si>
+  <si>
+    <t>Általában értékadáskor használható jól, ha mondjuk megnézed, hogy létezik-e egy bizonyos változó. Ha a kifejezés igaz, akkor a kérdőjel utáni értéket adja vissza, ha hamis, akkor a kettőspont utánit.
+amountNumber = isNaN(amountNumber) ? 0 : amountNumber;</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>string összefűzéshez, ` kell (alt gr + 7)
+`Dr. ${name}`</t>
+  </si>
+  <si>
+    <t>Declaration</t>
+  </si>
+  <si>
+    <t>Invocation</t>
+  </si>
+  <si>
+    <t>megadom a függvény nevét, és leírom a működését.</t>
+  </si>
+  <si>
+    <t>a kód megfelelő helyén meghívom (elindítom) a függvényt.</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>Függvény létrehozása
+Function testFunction(){...}﻿: ez a függvény deklaráció
+﻿let testFunction(){...}﻿: ez a függvény expression (úgy adod meg, mint egy változót)</t>
+  </si>
+  <si>
+    <t>Eljárás</t>
+  </si>
+  <si>
+    <t>Olyan függvény, ami nem ad vissz értéket</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>Normál függvény</t>
+  </si>
+  <si>
+    <t>Új értéket ad vissza.</t>
+  </si>
+  <si>
+    <t>Függvény része, hogy ha értéket szeretnék visszakapni
+function adder(x, y) {
+  return x + y;
+}
+adder(4, 6);
+10</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>Egysoros komment
+Ha kiderül a kódból kiderül, hogy mit csinál fölösleges használni</t>
+  </si>
+  <si>
+    <t>Mi számít a formázásnál?</t>
+  </si>
+  <si>
+    <t>Fájlméret
+Függőleges formázás
+Vízszintes formázás
+ Indentáció</t>
+  </si>
+  <si>
+    <t>Fájlméret</t>
+  </si>
+  <si>
+    <t>A statisztikák arra mutatnak rá, hogy a modern szoftverek átlagosan 50-60 soros fájlokat tartalmaznak, míg más szoftverek 200-at.</t>
+  </si>
+  <si>
+    <t>Indentáció</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A szóköz használata jobb, mert minden szerkesztőben ugyanakkora lesz, függetlenül a tab méretétől.
+2 vagy 4 szóköz is lehet.
+De: használja mindenki ugyanazt az indentációs stílust a csapatban!</t>
+  </si>
+  <si>
+    <t>Függvények</t>
+  </si>
+  <si>
+    <t>Akkor jó a függvény, ha már nem lehet értelmesen több másik függvénybe kiszervezni a működését.
+4 - 6 sor az ideális hosszúság, 10 már sok.
+A függvények nevénél igét vagy ige szerkezetet válassz.
+A függvénynek maximum 3 argumentuma - paramétere legyen.</t>
+  </si>
+  <si>
+    <t>Camel Case</t>
+  </si>
+  <si>
+    <t>Új szavak nagy kezdőbetűvel kezdődnek</t>
+  </si>
+  <si>
+    <t>paraméter - argumentum</t>
+  </si>
+  <si>
+    <t>Bemenő adat, amellyel a függvény műveleteket végez.</t>
   </si>
 </sst>
 </file>
@@ -1468,18 +1615,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC350798-7711-4A1C-A883-6ABC74B33182}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1487,7 +1634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1503,7 +1650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1519,7 +1666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1527,7 +1674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1543,7 +1690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1567,7 +1714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1575,7 +1722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1583,7 +1730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1591,7 +1738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1599,7 +1746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1615,7 +1762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,7 +1778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1639,7 +1786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1647,7 +1794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1655,7 +1802,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -1663,7 +1810,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -1671,7 +1818,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1679,7 +1826,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -1687,7 +1834,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>108</v>
       </c>
@@ -1695,7 +1842,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>109</v>
       </c>
@@ -1703,7 +1850,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -1725,13 +1872,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1739,7 +1886,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1747,7 +1894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1755,7 +1902,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1763,7 +1910,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1771,7 +1918,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -1779,7 +1926,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1787,7 +1934,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1795,7 +1942,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -1803,7 +1950,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -1818,21 +1965,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DC3297-2FF5-4F13-A7F5-D9785A69B897}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB668233-3DBF-4B7F-9F7C-E8D2A76AFBBB}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
@@ -1840,7 +2068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>66</v>
       </c>
@@ -1848,7 +2076,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
@@ -1856,7 +2084,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
@@ -1864,7 +2092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -1872,7 +2100,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>96</v>
       </c>
@@ -1880,7 +2108,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>101</v>
       </c>
@@ -1888,7 +2116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>102</v>
       </c>
@@ -1896,7 +2124,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>104</v>
       </c>
@@ -1904,7 +2132,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>112</v>
       </c>
@@ -1912,7 +2140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>114</v>
       </c>
@@ -1920,7 +2148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>116</v>
       </c>
@@ -1928,7 +2156,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>118</v>
       </c>
@@ -1936,7 +2164,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
@@ -1944,7 +2172,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>122</v>
       </c>
@@ -1952,7 +2180,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>132</v>
       </c>
@@ -1960,7 +2188,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
@@ -1968,7 +2196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>124</v>
       </c>
@@ -1976,7 +2204,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>126</v>
       </c>
@@ -1984,7 +2212,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>128</v>
       </c>
@@ -1992,7 +2220,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>131</v>
       </c>
@@ -2003,7 +2231,7 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>134</v>
       </c>
@@ -2015,7 +2243,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>137</v>
       </c>
@@ -2026,7 +2254,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>138</v>
       </c>
@@ -2037,7 +2265,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>139</v>
       </c>
@@ -2045,7 +2273,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>145</v>
       </c>
@@ -2053,7 +2281,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>147</v>
       </c>
@@ -2061,7 +2289,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>149</v>
       </c>
@@ -2072,7 +2300,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>152</v>
       </c>
@@ -2080,7 +2308,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>154</v>
       </c>
@@ -2088,7 +2316,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>157</v>
       </c>
@@ -2096,7 +2324,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>156</v>
       </c>
@@ -2104,7 +2332,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>160</v>
       </c>
@@ -2112,7 +2340,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>162</v>
       </c>
@@ -2120,7 +2348,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>166</v>
       </c>
@@ -2131,12 +2359,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>170</v>
       </c>
@@ -2144,7 +2372,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>172</v>
       </c>
@@ -2152,7 +2380,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>174</v>
       </c>
@@ -2160,7 +2388,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>176</v>
       </c>
@@ -2168,7 +2396,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>178</v>
       </c>
@@ -2193,87 +2421,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DC3297-2FF5-4F13-A7F5-D9785A69B897}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CC2D60-58BC-4E88-A164-49D42285BA72}">
   <dimension ref="A1:B15"/>
@@ -2282,23 +2429,23 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>195</v>
       </c>
@@ -2306,7 +2453,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>196</v>
       </c>
@@ -2314,7 +2461,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>198</v>
       </c>
@@ -2322,12 +2469,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>201</v>
       </c>
@@ -2335,12 +2482,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>204</v>
       </c>
@@ -2348,7 +2495,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>205</v>
       </c>
@@ -2356,7 +2503,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>209</v>
       </c>
@@ -2364,12 +2511,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>212</v>
       </c>
@@ -2384,20 +2531,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350190BB-23B1-450E-A8E4-5073E81203DD}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="1" max="1" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>217</v>
       </c>
@@ -2405,7 +2552,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>214</v>
       </c>
@@ -2413,12 +2560,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>218</v>
       </c>
@@ -2426,7 +2573,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>219</v>
       </c>
@@ -2434,7 +2581,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>221</v>
       </c>
@@ -2442,7 +2589,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>223</v>
       </c>
@@ -2450,7 +2597,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>226</v>
       </c>
@@ -2458,7 +2605,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>228</v>
       </c>
@@ -2466,7 +2613,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>230</v>
       </c>
@@ -2474,12 +2621,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>233</v>
       </c>
@@ -2487,7 +2634,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>235</v>
       </c>
@@ -2495,7 +2642,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>128</v>
       </c>
@@ -2503,7 +2650,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>238</v>
       </c>
@@ -2511,7 +2658,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>240</v>
       </c>
@@ -2519,7 +2666,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>242</v>
       </c>
@@ -2527,7 +2674,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>244</v>
       </c>
@@ -2535,7 +2682,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>245</v>
       </c>
@@ -2543,7 +2690,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>248</v>
       </c>
@@ -2551,7 +2698,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>250</v>
       </c>
@@ -2559,7 +2706,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>252</v>
       </c>
@@ -2567,7 +2714,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>254</v>
       </c>
@@ -2575,7 +2722,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>256</v>
       </c>
@@ -2583,7 +2730,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>258</v>
       </c>
@@ -2591,7 +2738,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>260</v>
       </c>
@@ -2599,7 +2746,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>262</v>
       </c>
@@ -2607,7 +2754,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>265</v>
       </c>
@@ -2615,7 +2762,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>264</v>
       </c>
@@ -2623,7 +2770,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>266</v>
       </c>
@@ -2631,7 +2778,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>270</v>
       </c>
@@ -2639,7 +2786,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>271</v>
       </c>
@@ -2647,10 +2794,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>274</v>
       </c>
@@ -2658,7 +2805,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>276</v>
       </c>
@@ -2666,7 +2813,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>278</v>
       </c>
@@ -2674,7 +2821,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>280</v>
       </c>
@@ -2682,12 +2829,121 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>282</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2698,10 +2954,78 @@
     <hyperlink ref="A1" r:id="rId1" xr:uid="{A08E9D8B-C09E-4450-8B45-66DB621ADBD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75715CCD-D8C2-43B8-926B-9EC6481DD96B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37B706B-AF5C-42E1-8D04-E63F396DB679}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2709,13 +3033,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2723,7 +3047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2731,7 +3055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2739,7 +3063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2747,7 +3071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2755,7 +3079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -2763,7 +3087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2771,7 +3095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -2779,7 +3103,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2787,7 +3111,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -2795,7 +3119,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>94</v>
       </c>

--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\Adanos93-main\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE4EB9F-3C45-4193-A059-F584E1F766F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01BA79B-0D3A-4680-94AC-4DE670AAD643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="2385" windowWidth="14670" windowHeight="10680" firstSheet="3" activeTab="5" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="12180" yWindow="1980" windowWidth="14670" windowHeight="10680" firstSheet="3" activeTab="5" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="CSS" sheetId="4" r:id="rId4"/>
     <sheet name="Bootstrap" sheetId="6" r:id="rId5"/>
     <sheet name="JavaScript" sheetId="7" r:id="rId6"/>
-    <sheet name="Tiszta kód" sheetId="8" r:id="rId7"/>
-    <sheet name="Visual Studio Code" sheetId="2" r:id="rId8"/>
+    <sheet name="Visual Studio Code" sheetId="2" r:id="rId7"/>
+    <sheet name="Tiszta kód" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="333">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -1068,6 +1068,36 @@
   </si>
   <si>
     <t>Bemenő adat, amellyel a függvény műveleteket végez.</t>
+  </si>
+  <si>
+    <t>A js 2015 előtti verziójában egyféleképpen lehetett változókat létrehozni: a ﻿var﻿, azaz variable kulcsszóval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var﻿ scope </t>
+  </si>
+  <si>
+    <t>function scope</t>
+  </si>
+  <si>
+    <t>A ﻿var paranccsal létrehozott változó függvény hatáskörű volt. Ez azt jelenti, hogy vagy a kód gyökerében, vagy abban a függvényben lehetett csak használni, ahol létrehozták. Ha máshonnan akartad elérni, akkor hibát kaptál. Tehát a függvényekben létrehozott változóid nem voltak elérhetőek (láthatóak) a függvényen kívül.</t>
+  </si>
+  <si>
+    <t>local scope</t>
+  </si>
+  <si>
+    <t>A függvény saját scope-ját lokális scope-nak is nevezzük.</t>
+  </si>
+  <si>
+    <t>global scope</t>
+  </si>
+  <si>
+    <t>A függvényen kívül eső területet pedig globális scope-nak hívjuk. Az, hogy egy scope globális vagy lokális ugye attól függ, hogy honnan nézed. Erre hozok most néhány példát.</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azt jelenti angolul, hogy terület, hatáskör, esetleg kiterjedés. A változók scope-ja az a része a programkódnak, ahol a változóval lehet dolgozni, el lehet érni. Azaz egy változó nem használható a teljes programban, csak a scope-jában. </t>
   </si>
 </sst>
 </file>
@@ -2531,10 +2561,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350190BB-23B1-450E-A8E4-5073E81203DD}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,6 +2974,46 @@
       </c>
       <c r="B63" s="12" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2959,10 +3029,117 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37B706B-AF5C-42E1-8D04-E63F396DB679}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75715CCD-D8C2-43B8-926B-9EC6481DD96B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3023,111 +3200,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37B706B-AF5C-42E1-8D04-E63F396DB679}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4DABCC-8CA0-49BA-BB75-F99B9008D773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8171696-C6EB-4EAA-93A9-33FB456E3A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9936" yWindow="1524" windowWidth="18948" windowHeight="12336" activeTab="5" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="11364" yWindow="3552" windowWidth="18240" windowHeight="12672" firstSheet="5" activeTab="8" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="CSS" sheetId="4" r:id="rId3"/>
     <sheet name="HTML Űrlapok" sheetId="5" r:id="rId4"/>
     <sheet name="Bootstrap" sheetId="6" r:id="rId5"/>
-    <sheet name="JavaScript" sheetId="7" r:id="rId6"/>
-    <sheet name="Visual Studio Code" sheetId="2" r:id="rId7"/>
+    <sheet name="Visual Studio Code" sheetId="2" r:id="rId6"/>
+    <sheet name="Tiszta kód" sheetId="8" r:id="rId7"/>
+    <sheet name="JavaScript" sheetId="7" r:id="rId8"/>
+    <sheet name="DOM" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="584">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -274,9 +276,6 @@
   </si>
   <si>
     <t>Új abkalk megnyitása a letöltött fájlokhoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> git add</t>
   </si>
   <si>
     <t>Untracked</t>
@@ -922,12 +921,1412 @@
   <si>
     <t>Az ﻿innerHTML egy accessor, mert el lehet érni vele egy bizonyos tulajdonságot olvasásra és írásra is.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let﻿ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF252628"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">scope </t>
+    </r>
+  </si>
+  <si>
+    <t>A ﻿let kulcsszóval létrehozott változók block scope-úak, azaz egy blokkon belül lehet elérni őket. Ez fontos különbség, mivel így a változó kisebb kódrészben érhető el. Viszont amikor az adott blokk lefut, hamarabb is törlődik a memóriából, így takarékosabb tud lenni a program.</t>
+  </si>
+  <si>
+    <t>block scope</t>
+  </si>
+  <si>
+    <t>A js kód blokkokból épül fel. Ezeket kapcsos zárójelekkel ﻿{}﻿ jelölik. 
+Blokkon belül nem lehet újradeklarálni
+Blokkon belül lokális változó jön létre</t>
+  </si>
+  <si>
+    <t>Blokk</t>
+  </si>
+  <si>
+    <t>const﻿ keyword</t>
+  </si>
+  <si>
+    <t>Ha egy változót a ﻿const kulcsszóval hozol létre, akkor nem adhatsz neki új értéket.
+Mindig nagybetűvel írjuk: ﻿PI, START,  BASE_COLOR﻿ stb…
+Mindig értéket is kell neki adni, amikor létrehozzuk: ﻿const  BASE_COLOR=255;</t>
+  </si>
+  <si>
+    <t>const﻿ redeclare</t>
+  </si>
+  <si>
+    <t>Ha egyszer egy blokkon belül létrehoztál egy ﻿const \tt constconst﻿ változót, akkor azt semmilyen formában nem tudod újra létrehozni, sem újra definiálni, azaz új értéket adni neki.</t>
+  </si>
+  <si>
+    <t>Arrey/tömbök</t>
+  </si>
+  <si>
+    <t>A tömbökbe szabadon elhelyezhetsz ﻿Number, String, Boolean, Object,﻿ sőt akár ﻿Array﻿ típusú elemeket is. Ha tömbbe tömböt teszel, akkor azt többdimenziós tömbnek is nevezik.</t>
+  </si>
+  <si>
+    <t>Dinamikus</t>
+  </si>
+  <si>
+    <t>JavaScript esetén a tömb dinamikus, ami azt jelenti, hogy bármikor vehetsz fel új elemet, vagy törölhetsz meglévőket. Ez nem minden programnyelv esetén van így, a legtöbbször előre meg kell adnod a tömböd hosszát. De szerencsére mi js-ben dolgozunk, úgyhogy ez legyen a Java-sok és a C#-osok gondja :)</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Másik különbség például a Java nyelvvel szemben, hogy lehet mixelt a tömb, azaz egy tömbön belül különböző típusú elemeket is tárolhatsz.</t>
+  </si>
+  <si>
+    <t>Tömböt [] szögletes zárójellel hozunk létre, az értékeket vesszővel választjuk el
+A tömb első elemének indexe 0 lesz</t>
+  </si>
+  <si>
+    <t>﻿isArray()</t>
+  </si>
+  <si>
+    <t>A ﻿typeof utasítás a tömböket ﻿Objec típusúnak ismeri fel, ezért nem alkalmas az azonosításukra. Erre a célra az ﻿Array objektum ﻿isArray metódusa szolgál. Ha megadsz neki egy változót, akkor megállapítja, hogy tömb-e.</t>
+  </si>
+  <si>
+    <t>git add</t>
+  </si>
+  <si>
+    <t>Arrey metódusok</t>
+  </si>
+  <si>
+    <t>push()</t>
+  </si>
+  <si>
+    <t>Elemet lehet a tömb végére beszúrni, mindig módosítja azt.</t>
+  </si>
+  <si>
+    <t>pop()</t>
+  </si>
+  <si>
+    <t>Utolsó értéket kiveszi, módosítja a tömböt is</t>
+  </si>
+  <si>
+    <t>unshift()</t>
+  </si>
+  <si>
+    <t>Új elemet szúr be a tömb elejére, módosítva azt</t>
+  </si>
+  <si>
+    <t>shift()</t>
+  </si>
+  <si>
+    <t>Kiveszi az első elemet, módosítja a tömböt is</t>
+  </si>
+  <si>
+    <t>unshift és shift lassú műveletek, mivel a blokk indexeit újra kell számozni</t>
+  </si>
+  <si>
+    <t>slice()</t>
+  </si>
+  <si>
+    <t>2 értéket kell beírni a zárójelbe, a kezdő és záró index számát (zárót nem tartalmazza)
+Nem módosítja az eredeti tömböt, új értékeket hoz létre</t>
+  </si>
+  <si>
+    <t>splice()</t>
+  </si>
+  <si>
+    <t>Kezdő index száma, indexet követő törlendő elemek száma, beillesztendő értékek.
+Eredeti tömböt módosítja</t>
+  </si>
+  <si>
+    <t>join()</t>
+  </si>
+  <si>
+    <t>Elemek összefűzése a beírt elválasztással
+Eredeti tömböt nem módosítja, új stringet hoz létre</t>
+  </si>
+  <si>
+    <t>Paraméterek átadása</t>
+  </si>
+  <si>
+    <t>Amikor paramétereket adsz át egy függvénynek, akkor érdekes dolgok történnek a háttérben, ezért nem árt tisztában lenni azzal, hogy a függvények mit kezdenek a nekik átadott adatokkal.</t>
+  </si>
+  <si>
+    <t>Objektum</t>
+  </si>
+  <si>
+    <t>Olyan változó, amely nem primitív (pl tömbök)</t>
+  </si>
+  <si>
+    <t>Ciklusok</t>
+  </si>
+  <si>
+    <t>Folyamatosan ismétlődő programrészletek. Egy ciklus mindaddig ismétlődik, amíg a feltétele igaz.</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>Ciklusmag</t>
+  </si>
+  <si>
+    <t>Az az utasítás vagy utasítások, amelyek a feltétel teljesülése esetén lefutnak.</t>
+  </si>
+  <si>
+    <t>Elöltesztelős ciklus</t>
+  </si>
+  <si>
+    <t>Először megvizsgálod, hogy a feltételed igaz-e, és ha igen, akkor lefut a ciklusmag.</t>
+  </si>
+  <si>
+    <t>Tömb bejárása ciklussal</t>
+  </si>
+  <si>
+    <t>Ha szeretnéd egy kollekció összes elemét végigjárni, és valamilyen vizsgálatot vagy műveletet végezni velük, akkor általában az első elemtől indulsz, lefut a ciklusmag, és növeled az iterátort. Ezt mindaddig kell ismételned, amíg a kollekció végére nem érsz, tehát ismerned kell hozzá a hosszát.</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>ha valamiért úgy döntesz, hogy mégsem akarod lefuttatni a teljes ciklusmagot, akkor a continue﻿ utasítással tovább tudsz ugrani a következő iterációra.</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>A break﻿ utasítás nem a következő iterációra ugrik, hanem megszakítja a ciklust, azaz a ciklusmag többet nem kerül végrehajtásra, úgy is mondhatnánk, a program továbbmegy.</t>
+  </si>
+  <si>
+    <t>Három paramétere van:
+Ciklusváltozó: egy ﻿Number típusú változó, minden futás után módosítod az értékét.
+Feltétel: ﻿Boolean﻿, amíg ez a feltétel igaz (a ciklusváltozó értékvizsgálata), addig fut a ciklus.
+Léptetés: minden ciklus végén lefut, itt kell a ciklusváltozót növelni/csökkenteni.
+https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Statements/for</t>
+  </si>
+  <si>
+    <t>Compound operators</t>
+  </si>
+  <si>
+    <t>Ez azt jelenti, hogy összetett operátorok. Itt arra utalnak, hogy ha több operátort raksz egymás után és ezzel gyorsítod a kódolást.</t>
+  </si>
+  <si>
+    <t>Ternary operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ezt magyarul három operandusos kifejezésnek is szokták hívni.
+</t>
+  </si>
+  <si>
+    <t>változó neve</t>
+  </si>
+  <si>
+    <t>értékadás</t>
+  </si>
+  <si>
+    <t>feltétel</t>
+  </si>
+  <si>
+    <t>értéket adunk egy változónak</t>
+  </si>
+  <si>
+    <t>Szintaxis</t>
+  </si>
+  <si>
+    <t>let variablename = (condition) ? value1: value2﻿, szóval ha a kondíció igaz, akkor az első, ha nem, akkor a második érték kerül bele a változóba.</t>
+  </si>
+  <si>
+    <t>Az algoritmus jellemzői</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Véges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: véges számú lépésből áll.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Egyértelmű</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: a megoldáshoz vezető lépéssorozat tisztán, egyértelműen van megadva, és szigorúan követhető, nem hagy kétségeket.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elvégezhető</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: elvárjuk, hogy az algoritmust végre lehessen hajtani, vagyis a lépések elég egyszerűek legyenek, hogy pontosan végre lehessen hajtani.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 &gt; 5﻿ lehet bármilyen kifejezés, amit Boolean -ként ki lehet értékelni
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a kérdőjel után jön az az érték, ami a kifejezés ﻿true értékéhez tartozik
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a kettőspont után pedig az, ami a ﻿false értékhez tartozik</t>
+    </r>
+  </si>
+  <si>
+    <t>Algoritmusleíró eszközök</t>
+  </si>
+  <si>
+    <t>Szöveges
+Képes</t>
+  </si>
+  <si>
+    <t>Vezérlési szerkezetek</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elágazás (szelekció)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, amikor feltételtől függően más-más irányba halad tovább a vezérlés.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ismétlés (iteráció)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, amikor bizonyos esetben visszairányítjuk a vezérlést egy korábbi pontra, mint pl. amikor várakoztunk, amíg fel nem melegedett a gép.</t>
+    </r>
+  </si>
+  <si>
+    <t>Strukturált algoritmus</t>
+  </si>
+  <si>
+    <t>Strukturált az algoritmus, ha csak az alap 3 vezérlőszerkezetet (szekvencia, szelekció, iteráció) használod. Ezeket egymásba is ágyazhatod, de minden ilyen egységnek csak egy kimenete lehet. Vagyis nem húzhatod a nyilakat bárhova.</t>
+  </si>
+  <si>
+    <t>Pszeudo kód</t>
+  </si>
+  <si>
+    <t>szekvencia,
+szelekció,
+iteráció,
+ugrás</t>
+  </si>
+  <si>
+    <t>Mivel minden algoritmus felépíthető három vezérlési szerkezet használatával (+1)</t>
+  </si>
+  <si>
+    <t>Nem valódi algoritmus, annak csak egy vázlata, beszédnyelven leírt</t>
+  </si>
+  <si>
+    <t>Összegzés tétele</t>
+  </si>
+  <si>
+    <t>A feladat egyszerű, egy sorozat elemeit kell összesíteni.</t>
+  </si>
+  <si>
+    <t>Számlálás tétele</t>
+  </si>
+  <si>
+    <t>Itt össze kell számolni, hogy egy bizonyos feltétel hány elemre igaz.</t>
+  </si>
+  <si>
+    <t>Szélsőérték keresése (maximum vagy minimum)</t>
+  </si>
+  <si>
+    <t>A dolog egyszerű. Van mondjuk egy számsorozatod, és meg kell mondanod, hogy melyik a legkisebb vagy legnagyobb szám, azaz a szélsőértékeket keresed.</t>
+  </si>
+  <si>
+    <t>Eldöntés tétele</t>
+  </si>
+  <si>
+    <t>Megvizsgálod, szerepel-e olyan elem a sorozatban, melyre igaz a feltétel. Például: prímszám-e. Ahogy találsz egy osztót, ami nem önmaga és nem 1, tudod hogy nem az.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Az "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>akkumulátor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" változó az, amelyikben összegyűlik, akkumulálódik az eredmény, ezt most összeg néven tüntettük fel. Ezt először nulláznod kell, utána minden feldolgozott számot hozzá kell adnod. Minden iteráció végén az addig látott számok összegét fogja így tartalmazni. Ha esetleg egyszer sem hajtódott volna végre a ciklus, akkor pedig nullát.
+A ciklus ebben az esetben a teljes sorozaton végig kell hogy iteráljon, mivel az összes számot össze szeretnéd adni.
+A pszeudokódban külön kiemelheted a következő számot egy változóba szám néven, majd ezt adod hozzá az összeghez. Ez a konkrét implementációnál, azaz amikor valamilyen nyelven lekódolod a példát, már egy sorban is könnyen megoldható.</t>
+    </r>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Hibakereső</t>
+  </si>
+  <si>
+    <t>Az objektum - rugalmas adattárolás</t>
+  </si>
+  <si>
+    <t>Adatok tárolása kulcs-érték párok segítségével. Ez az objektum. Abban a tekintetben hasonlít a tömbökre, hogy egy kollekció, amiben bármilyen típusú adatot tárolhatsz, akár tömböket vagy másik objektumokat is. Más programnyelvekben nem így hívják ezt az adattípust, de mindegyikben van megfelelője.</t>
+  </si>
+  <si>
+    <t>key - kulcs</t>
+  </si>
+  <si>
+    <t>Az objektumok esetén nem automatikusan indexelődnek az elemek, mint a tömb esetén, hanem mi határozzuk meg a kulcs-érték párokat.
+A kulcsoknak minden esetben ﻿String\tt StringString﻿ típusúaknak kell lenniük.</t>
+  </si>
+  <si>
+    <t>value - érték</t>
+  </si>
+  <si>
+    <t>A kulcsokkal jelölt értékeket tulajdonságoknak is nevezik. Az alábbi példában egy egyszerű objektum létrehozását láthatod. Figyeld meg, hogy az objektumot kapcsos zárójelek határolják, a kulcs-érték párokat vesszők, a kulcsot pedig kettőspont választja el az értéktől:</t>
+  </si>
+  <si>
+    <t>tömb vs objemtum</t>
+  </si>
+  <si>
+    <t>Tömbnek indexe [1], mindig számmal, objektumnak kulcsa {name:} és értéke van</t>
+  </si>
+  <si>
+    <t>Object.values();</t>
+  </si>
+  <si>
+    <t>﻿Object.keys()﻿; - az objektum kulcsai</t>
+  </si>
+  <si>
+    <t>Object.entries()</t>
+  </si>
+  <si>
+    <t>objektum hossza</t>
+  </si>
+  <si>
+    <t>Az objektum kulcsszavait adja vissza</t>
+  </si>
+  <si>
+    <t>Az objektum értékeit adja vissza</t>
+  </si>
+  <si>
+    <t>Az objektum kulcsait is értékeit is visszaadja. [] segítségével kiválasztható a kívánt index.</t>
+  </si>
+  <si>
+    <t>Az objektumoknak nincs ﻿length tulajdonsága, mint a tömböknek, ezért más módszerhez kell folyamodnod, ha szeretnéd megtudni az elemeiknek a számát. Erre a legegyszerűbb módszer, ha nem az elemeiket, hanem a kulcsaikat számolod meg.
+Pl.: Object.keys().lenght</t>
+  </si>
+  <si>
+    <t>Mutable</t>
+  </si>
+  <si>
+    <t>az adott változó értéke meg tud változni, tud mutálódni.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">értelemszerűen az előbbi ellentéte. Tehát az ilyen változót vagy értéket lehet olvasni, de írni - változtatni nem. </t>
+  </si>
+  <si>
+    <t>pl: let</t>
+  </si>
+  <si>
+    <t>pl: const</t>
+  </si>
+  <si>
+    <t>A ﻿const kulcsszóval definiált objektumok és tömbök tulajdonságait / elemeit meg tudom változtatni!</t>
+  </si>
+  <si>
+    <t>Constant property change</t>
+  </si>
+  <si>
+    <t>For ... in ciklus</t>
+  </si>
+  <si>
+    <t>Tömbre és objektumra is</t>
+  </si>
+  <si>
+    <t>Nagy előnye az alap for ciklussal szemben, hogy tömbre és objektumra is alkalmazható, nem kell hozzá külön változó, hogy végig tudd járni az objektumok kulcsait.</t>
+  </si>
+  <si>
+    <t>for (let k in user) {
+console.log("Key: ", k, "value: ", user[k]);
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Előnyei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Tömbre és objektumra is működik.
+    Egyszerűbb szintaxis.c
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hátránya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Nehezebb a futását limitálni, mert nincs külön iterátora.</t>
+    </r>
+  </si>
+  <si>
+    <t>Több dologban különbözik a for ciklustól.
+    Nincs benne iterátor változó.
+    A megadott Array vagy objektum kulcsait járja be.
+A ﻿for﻿ ...  ﻿in ciklus esetén is használható a continue és break utasítás.</t>
+  </si>
+  <si>
+    <t>Stringek metódusai</t>
+  </si>
+  <si>
+    <t>﻿trim() - szóközök levágása
+﻿concat() - string hozzáfűzése
+﻿toLowerCase() - minden kis betű
+﻿toUpperCase() - minden nagy betű
+etc…</t>
+  </si>
+  <si>
+    <t>Keresés és módosítás egy Stringen belül</t>
+  </si>
+  <si>
+    <t>﻿indexOf()</t>
+  </si>
+  <si>
+    <t>Megkeresi a Stringen belül egy adott szövegrész kezdetét.
+A kezdő karakter indexét adja vissza, amely 0-tól kezdődik, azaz az első karakter a 0 sorszámú és így tovább.</t>
+  </si>
+  <si>
+    <t>﻿replace()</t>
+  </si>
+  <si>
+    <t>Kicseréli a megadott szövegrészt a Stringen belül. Ahogy a példában is látni fogod, ennek a metódusnak kettő darab úgynevezett paramétere van, tehát két adatot kell a zárójelek között megadni</t>
+  </si>
+  <si>
+    <t>﻿Boolean﻿ típus</t>
+  </si>
+  <si>
+    <t>Igaz - hamis értékeket tárol.
+Minden 0 false, minden más szám true
+Üres string false, tartalommal true 
+== megegyezik-e a 2 érték?
+=== megegyezik-e a 2 érték + típus? ("0" === 0 - false)
+&amp;&amp; és kapcsolat
+|| vagy - alt gr + W</t>
+  </si>
+  <si>
+    <t>Három operandusos kifejezés:</t>
+  </si>
+  <si>
+    <t>Általában értékadáskor használható jól, ha mondjuk megnézed, hogy létezik-e egy bizonyos változó. Ha a kifejezés igaz, akkor a kérdőjel utáni értéket adja vissza, ha hamis, akkor a kettőspont utánit.
+amountNumber = isNaN(amountNumber) ? 0 : amountNumber;</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>string összefűzéshez, ` kell (alt gr + 7)
+`Dr. ${name}`</t>
+  </si>
+  <si>
+    <t>Declaration</t>
+  </si>
+  <si>
+    <t>megadom a függvény nevét, és leírom a működését.</t>
+  </si>
+  <si>
+    <t>Invocation</t>
+  </si>
+  <si>
+    <t>a kód megfelelő helyén meghívom (elindítom) a függvényt.</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>Függvény létrehozása
+Function testFunction(){...}﻿: ez a függvény deklaráció
+﻿let testFunction(){...}﻿: ez a függvény expression (úgy adod meg, mint egy változót)</t>
+  </si>
+  <si>
+    <t>Eljárás</t>
+  </si>
+  <si>
+    <t>Olyan függvény, ami nem ad vissz értéket</t>
+  </si>
+  <si>
+    <t>Normál függvény</t>
+  </si>
+  <si>
+    <t>Új értéket ad vissza.</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>Függvény része, hogy ha értéket szeretnék visszakapni
+function adder(x, y) {
+  return x + y;
+}
+adder(4, 6);
+10</t>
+  </si>
+  <si>
+    <t>paraméter - argumentum</t>
+  </si>
+  <si>
+    <t>Bemenő adat, amellyel a függvény műveleteket végez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var﻿ scope </t>
+  </si>
+  <si>
+    <t>A js 2015 előtti verziójában egyféleképpen lehetett változókat létrehozni: a ﻿var﻿, azaz variable kulcsszóval.</t>
+  </si>
+  <si>
+    <t>function scope</t>
+  </si>
+  <si>
+    <t>A ﻿var paranccsal létrehozott változó függvény hatáskörű volt. Ez azt jelenti, hogy vagy a kód gyökerében, vagy abban a függvényben lehetett csak használni, ahol létrehozták. Ha máshonnan akartad elérni, akkor hibát kaptál. Tehát a függvényekben létrehozott változóid nem voltak elérhetőek (láthatóak) a függvényen kívül.</t>
+  </si>
+  <si>
+    <t>local scope</t>
+  </si>
+  <si>
+    <t>A függvény saját scope-ját lokális scope-nak is nevezzük.</t>
+  </si>
+  <si>
+    <t>global scope</t>
+  </si>
+  <si>
+    <t>A függvényen kívül eső területet pedig globális scope-nak hívjuk. Az, hogy egy scope globális vagy lokális ugye attól függ, hogy honnan nézed. Erre hozok most néhány példát.</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azt jelenti angolul, hogy terület, hatáskör, esetleg kiterjedés. A változók scope-ja az a része a programkódnak, ahol a változóval lehet dolgozni, el lehet érni. Azaz egy változó nem használható a teljes programban, csak a scope-jában. </t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>Egysoros komment
+Ha kiderül a kódból kiderül, hogy mit csinál fölösleges használni</t>
+  </si>
+  <si>
+    <t>Mi számít a formázásnál?</t>
+  </si>
+  <si>
+    <t>Fájlméret
+Függőleges formázás
+Vízszintes formázás
+ Indentáció</t>
+  </si>
+  <si>
+    <t>Fájlméret</t>
+  </si>
+  <si>
+    <t>A statisztikák arra mutatnak rá, hogy a modern szoftverek átlagosan 50-60 soros fájlokat tartalmaznak, míg más szoftverek 200-at.</t>
+  </si>
+  <si>
+    <t>Indentáció</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A szóköz használata jobb, mert minden szerkesztőben ugyanakkora lesz, függetlenül a tab méretétől.
+2 vagy 4 szóköz is lehet.
+De: használja mindenki ugyanazt az indentációs stílust a csapatban!</t>
+  </si>
+  <si>
+    <t>Függvények</t>
+  </si>
+  <si>
+    <t>Akkor jó a függvény, ha már nem lehet értelmesen több másik függvénybe kiszervezni a működését.
+4 - 6 sor az ideális hosszúság, 10 már sok.
+A függvények nevénél igét vagy ige szerkezetet válassz.
+A függvénynek maximum 3 argumentuma - paramétere legyen.</t>
+  </si>
+  <si>
+    <t>Camel Case</t>
+  </si>
+  <si>
+    <t>Új szavak nagy kezdőbetűvel kezdődnek</t>
+  </si>
+  <si>
+    <t>k = keys/kulcsok</t>
+  </si>
+  <si>
+    <t>for … of ciklus</t>
+  </si>
+  <si>
+    <t>Iteráció</t>
+  </si>
+  <si>
+    <t>Az iteráció egy függvény ismételt végrehajtása az előző függvényértéken. Magyarul, az iteráció azt jelenti, hogy egy sorozat elemeit végigjárom és mindegyiken végrehajtok egy műveletet, és ez a végigjárás valamilyen sorban történik, azaz nem összevissza ugrálok a sorban található elemeken.</t>
+  </si>
+  <si>
+    <t>1. Nem a kulcsokon, hanem az értékeken megy végig
+2. Array-like, tömb szerű változókon lehet alkalmazni</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String bejárása for...of ciklussal:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+let iterable = "boo";
+for (let value of iterable) { console.log(value);}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Objektum bejárása for...of ciklussal (ha kell a kulcs):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+let user = { name: "Valami", age: 22 };
+for ( let entry of Object.entries(user)) {
+console.log( `${entry[0]}: ${entry[1]}`);
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Beépített metódusok</t>
+  </si>
+  <si>
+    <t>Találkoztál már metódusokkal, amiket bizonyos objektumokra meg lehet hívni. (pl: Array.isArray(), Object.keys())
+A metódus gyakorlatilag egy függvény, ami egy objektumhoz van kötve és nem csak úgy "lóg a levegőben".</t>
+  </si>
+  <si>
+    <t>Meghíváshoz kellenek a zárójelek ()</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>Azt az objektumot jelenti, ahol lefut a függvény</t>
+  </si>
+  <si>
+    <t>a JS fájl gyökerében, függvényekben.
+A globális objektumot jelenti, ami általában a window.
+Console.log(this); // window
+Azt az elemet jelenti, amelyre végbement az esemény.
+az eseménykezelő függvényben.
+&lt;button onclick="this.style.display='none'"Click to Remove Me! &lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>Arrow Function</t>
+  </si>
+  <si>
+    <t>Az ﻿arrow function﻿ segítségével egyszerűbben tudsz létrehozni függvényeket, mint függvény kifejezéssel.
+elhagytuk a ﻿function﻿ kulcsszót
+az ﻿arrow function mindig anonim lesz
+A paraméter körüli zárójeleket töröltük (EZT CSAK AKKOR TEHETJÜK MEG HA 1 PARAMÉTER VAN!)
+Elhagytuk a kapcsos zárójeleket (NEM MINDIG!)
+Egy =&gt; jelet írunk a paramétere(k) után
+Elhagytuk a ﻿return﻿ kulcsszót</t>
+  </si>
+  <si>
+    <t>let infoMessage = () =&gt; console.log("Arrow Function");
+infoMessage()
+Arrow function</t>
+  </si>
+  <si>
+    <t>filter() metódus</t>
+  </si>
+  <si>
+    <t>Creates a new array with all elements that pass the test implemented by the provided function.</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>A JavaScript egyik fő célja a HTML dokumentumok dinamikus kezelése. Erre a célra a böngészőben az ún. Document Object Modelt (a továbbiakban DOM) tudod használni.</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>Az egész HTML fájl</t>
+  </si>
+  <si>
+    <t>id egyszer szerepelhet, name többször is</t>
+  </si>
+  <si>
+    <t>document.getElementById</t>
+  </si>
+  <si>
+    <t>document.getElementsByName</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName</t>
+  </si>
+  <si>
+    <t>id, name, class</t>
+  </si>
+  <si>
+    <t>document.getElementsByTagName</t>
+  </si>
+  <si>
+    <t>Az elemet az id attribútum alapján szeretném elérni. Mivel az id-nak egyedinek kell lennie egy oldalon, ezért ez a függvény az adott elemet adja vissza (egész pontosan egy objektumot ad vissza, amin keresztül tudod az elemet módosítani).</t>
+  </si>
+  <si>
+    <t>Hasonló a ﻿getElementById﻿ függvényhez, de itt a name attribútum alapján történik a keresés. Figyeljük meg az apró különbséget, az elements a függvény nevében többesszámban van. Ez a függvény egy tömböt fog visszaadni nekünk.</t>
+  </si>
+  <si>
+    <t>A class attribútum alapján visszakapjuk azokat a HTML elemeket egy tömbben.</t>
+  </si>
+  <si>
+    <t>Ez a függvény minden elemet visszaad nekünk, aminek a típusa a megadott tag.</t>
+  </si>
+  <si>
+    <t>document.querySelector</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll</t>
+  </si>
+  <si>
+    <t>Ez a függvény CSS selectorok alapján keres nekünk HTML elemeket, majd visszaadja az első találatot.</t>
+  </si>
+  <si>
+    <t>Szintén CSS selectorok alapján keres nekünk HTML elemeket, de minden egyező elemet visszaad nekünk.</t>
+  </si>
+  <si>
+    <t>h1, p, etc…</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/js/js_htmldom.asp</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Az Element objektumon keresztül érjük el az oldalon található HTML elemeket.
+Ha bármilyen módon kiválasztasz egy HTML elemet az oldalon, egy ﻿Elemen típusú JavaScript objektumot fogsz visszakapni. Például igaz ez a ﻿querySelector﻿ használata esetén is.</t>
+  </si>
+  <si>
+    <t>Element.prototype</t>
+  </si>
+  <si>
+    <t>let input = document.querySelector('input'); 
+Element.prototype.setDisabled = function() {
+  this.setAttribute('disabled', 'disabled');
+  this.classList.add('disabled'); 
+}
+input.setDisabled();</t>
+  </si>
+  <si>
+    <t>Az Elementekhez új tulajdonságokat rendelhetünk hozzá, melyeket a megadott kifejezésünkkel tudunk előhozni.</t>
+  </si>
+  <si>
+    <t>Attributes - a tulajdonságok</t>
+  </si>
+  <si>
+    <t>Ahogy már megmutattam, a HTML elemek tulajdonságait attribútumoknak is hívjuk.</t>
+  </si>
+  <si>
+    <t>﻿getAttribute﻿ - tulajdonságok lekérése</t>
+  </si>
+  <si>
+    <t>let classes = document.querySelector("H1").getAttribute("class");</t>
+  </si>
+  <si>
+    <t>Ez a metódus, a ﻿getAttribute﻿ függvény visszaadja egy adott HTML elem egy bizonyos attribútumának az értékét. Hogy mire vagy kíváncsi, azt neked kell megadnod.
+Emlékszel amikor a string változókat kellett vágni? Ott is megadtuk, hogy honnan kezdje a vágást és meddig vágjon? Tehát paraméterekkel láttuk el a metódust.
+Itt ugyanerről van szó, meg kell mondanunk a getAttribute﻿ függvénynek, hogy mire is vagyunk kíváncsiak, a sok tulajdonság közül konkrétan melyik is érdekel minket.</t>
+  </si>
+  <si>
+    <t>﻿setAttribute﻿ - tulajdonságok módosítása</t>
+  </si>
+  <si>
+    <t>document.querySelector("H1").setAttribute("class", "dark grey big"); 
+document.querySelector("H1").setAttribute("title", "Urgent message"); 
+document.querySelector("H1").setAttribute("id", "mainTitle");</t>
+  </si>
+  <si>
+    <t>Hasonlít a barátjához, de ezzel a HTML elem tulajdonságait nem lekérni, hanem módosítani tudod.
+Ebből fakad, hogy nem elég neki egy paraméter, meg kell adni az új értéket is a tulajdonság neve után. A példában egy HTML elem több tulajdonságát is módosítom.</t>
+  </si>
+  <si>
+    <t>Tömeges módosítás</t>
+  </si>
+  <si>
+    <t>Gyakran kell majd egyszerre több HTML elem tulajdonságait is módosítanod.
+Ehhez kombináljuk a lekérdezést és a megismert ciklusokat egymással.
+Tehát végig kell menned az összes elemen, és egyesével módosítani a tulajdonságaikat.</t>
+  </si>
+  <si>
+    <t>let myNodeList = document.querySelectorAll("input"); 
+for (let i = 0; i &lt; myNodeList.length; i++) {
+  myNodeList[i].style.backgroundColor = "red"; 
+}</t>
+  </si>
+  <si>
+    <t>let myNodeList = document.querySelectorAll("input"); 
+for (let k in myNodeList) {
+  if (myNodeList[k].style) {
+    myNodeList[k].style.color = "white";
+  }
+}</t>
+  </si>
+  <si>
+    <t>for … in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for </t>
+  </si>
+  <si>
+    <t>Láttuk, hogy a ﻿querySelectorAll metódus visszaadja az összes elemet egy tömbben. Igen ám, de nem minden tömb, ami annak látszik.
+NodeList: Ugyanis amit visszaad, az okosabb, mint egy tömb. Ezért vigyázni kell, ha végig akarsz menni az elemein, mert könnyen találkozhatsz olyannal, amelyikre nem működnek az ismert trükkök, mondjuk a ﻿setAttribute﻿.
+De a ﻿length tulajdonság a segítségünkre siet</t>
+  </si>
+  <si>
+    <t>Ha mégis ragaszkodsz a jó öreg for...in ciklushoz, azzal is dolgozhatsz, de ebben az esetben precízen ellenőrizd le, hogy helyes HTML elemet kaptál-e!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children </t>
+  </si>
+  <si>
+    <t>A HTML elemek között van egy képletes szülő-gyerek kapcsolat. A beágyazott elemeket, amelyek egy másik elemben vannak, annak gyerekeinek is szokás nevezni. A következő metódusok is innen kapták a nevüket.</t>
+  </si>
+  <si>
+    <t>﻿childElementCount﻿</t>
+  </si>
+  <si>
+    <t>Az ﻿Element.childElementCount tulajdonság megmondja, hány gyereke van a HTML elemednek. Ez akkor lehet hasznos, ha keresel benne valamit. Ha először lekéred, hogy egyáltalán vannak-e gyerekei, nem fogsz feleslegesen dolgozni.</t>
+  </si>
+  <si>
+    <t>﻿childNodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">children </t>
+  </si>
+  <si>
+    <t>﻿element.childNodes﻿ az összes gyerek, beleértve a kommentek és szövegek is.</t>
+  </si>
+  <si>
+    <t>element.children﻿ csak az ﻿Element﻿ típusú gyerekek, vagyis komment és szöveg nincs benne.</t>
+  </si>
+  <si>
+    <t>firstChild</t>
+  </si>
+  <si>
+    <t>lastChild</t>
+  </si>
+  <si>
+    <t>firstElementChild</t>
+  </si>
+  <si>
+    <t>lastElementChild</t>
+  </si>
+  <si>
+    <t>element.firstChild﻿ az első gyerek, komment vagy szöveg is.</t>
+  </si>
+  <si>
+    <t>﻿element.firstElementChild csak az Element﻿ típusú első gyerek.</t>
+  </si>
+  <si>
+    <t>﻿element.lastChild az utolsó gyerek, komment vagy szöveg is.</t>
+  </si>
+  <si>
+    <t>﻿element.lastElementChild﻿ csak az ﻿Element típusú utolsó gyerek.</t>
+  </si>
+  <si>
+    <t>:nth-child() Selector</t>
+  </si>
+  <si>
+    <t>﻿document.createElement()</t>
+  </si>
+  <si>
+    <t>﻿Element.appendChild()</t>
+  </si>
+  <si>
+    <t>﻿Element.removeChild()</t>
+  </si>
+  <si>
+    <t>Mielőtt hozzá akarsz adni egy elemet egy másikhoz, nyilván létre kellene hozni.
+Ezt szolgálja a ﻿createElement﻿ metódus. Használata nagyon egyszerű.
+  Megadod, hogy milyen elemet szeretnél létrehozni és elmented egy változóba</t>
+  </si>
+  <si>
+    <t>A neve alapján tehát hozzáfűz egy új elemet a meglévőhöz. Egészen pontosan nem is hozzá, hanem bele fűzi, mivel ezzel a metódussal abban az Element-ben hoz létre egy új gyerek Element-et, amelyre a metódust meghívod.
+Az új elem az utolsó lesz a szülő Element gyerekei között.</t>
+  </si>
+  <si>
+    <t>let helpText  = document.createElement("small");
+helpText.className = "form-text text-muted";
+helpText.innerHTML = "Adja meg a feltéteket";
+let parent = document.querySelector("div.form-group:nth-child(1)");
+parent.appendChild(helpText);</t>
+  </si>
+  <si>
+    <t>Egy kis szintaxis: ﻿node.removeChild(node) Nagyon hasonlít a testvérére az appendChild-ra, csak nem kell elemet létrehozni.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event </t>
+  </si>
+  <si>
+    <t>A JavaScriptben lehetőség van eseményeket figyelni, és a hatásukra valamilyen kódot futtatni. Ilyen esemény például amikor betöltődik az oldal, vagy a felhasználó rákattint egy elemre.</t>
+  </si>
+  <si>
+    <t>Element attribútummal: ﻿&lt;element  onclick=﻿﻿"myScript"&gt;﻿
+JavaScriptből hasonlóan: ﻿object.onclick=function()myScript;﻿
+addEventListenerrel: ﻿object.addEventListener﻿﻿("click",  myScript);</t>
+  </si>
+  <si>
+    <t>Az első kettőnél egy eseményre csak egy működést adhatsz meg, míg az addEventListener használatával többet is.
+Fontos: addEventListener esetén nem kell az on szócska az esemény neve elé.</t>
+  </si>
+  <si>
+    <t>= vs. addEventListener</t>
+  </si>
+  <si>
+    <t>window események</t>
+  </si>
+  <si>
+    <t>A közös bennük, hogy nem felhasználói beavatkozásra történnek meg, hanem a böngésző működése váltja ki őket. Nem csak a window-ra lehet őket megadni, a legtöbb elem esetén használhatóak.</t>
+  </si>
+  <si>
+    <t>onloadonload﻿ az objektum betöltődött
+onresizeonresize﻿ az objektumot átméretezték
+onscrollonscroll﻿ scrolloztak az objektumon</t>
+  </si>
+  <si>
+    <t>Mouse events</t>
+  </si>
+  <si>
+    <t>A leggyakrabban figyelt események az egér események. Itt bejönnek a képbe a mobil eszközök is, mert ott már nincs egér, hanem legtöbbször ujjal kezelik őket. Ezeknél a kattintás a ﻿tap-et, azaz a tapintást jelenti.</t>
+  </si>
+  <si>
+    <t>onclick﻿ kattintás vagy tappintás, ha mobileszközről van szó
+﻿onmouseover az elem fölé viszik az egérmutatót (mobilon értelmetlen)
+﻿onmouseout az elemről elhúzzák az egérmutatót (mobilon értelmetlen)</t>
+  </si>
+  <si>
+    <t>onchange és onsubmit - form elemek</t>
+  </si>
+  <si>
+    <t>onchange﻿ input elemek értékének változását figyelheted.
+﻿onsubmit a form (űrlap) elküldése előtt fut le, ezt figyelheted vele. Ha az eseménykezelő függvény visszatérési értéke ﻿false﻿, akkor az űrlap nem kerül elküldésre.</t>
+  </si>
+  <si>
+    <t>function massModify(selector, attribute, value) {
+  let nodeList = document.querySelectorAll(selector);
+    for (let i = 0; i &lt; nodeList.length; i++) {
+    nodeList[i][attribute] = value;
+  }
+}</t>
+  </si>
+  <si>
+    <t>Módosítás függvénnyel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch </t>
+  </si>
+  <si>
+    <t>Ahogy a neve is mutatja, a ﻿switch egy kapcsoló. Több állása is lehet, egy változót vagy kifejezést vizsgál, és annak az értéke alapján ugrik a megfelelő utasításhoz.
+Egy paramétere van, egy olyan változó vagy kifejezés, ami értéket ad vissza. Azután meg kell adni, hogy milyen érték hatására milyen utasítás fusson le.
+Előnye, hogy gyorsabb, mint az ﻿else...if, viszont csak konkrét értékeket lehet vele vizsgálni, azaz például kisebb-nagyobb logikai kifejezést nem tud értelmezni.</t>
+  </si>
+  <si>
+    <t>﻿switch(value)﻿</t>
+  </si>
+  <si>
+    <t>a value az az érték, amit figyel a switch.</t>
+  </si>
+  <si>
+    <t>case  value : ﻿﻿kifejezés break</t>
+  </si>
+  <si>
+    <t>ha a value megegyezik a vizsgált értékkel, lefut a kifejezés, utána ﻿break utasítást teszünk, hogy a többi ne fusson le.</t>
+  </si>
+  <si>
+    <t>﻿default : kifejezés</t>
+  </si>
+  <si>
+    <t>ha egyik case sem volt igaz, akkor ez fog lefutni.</t>
+  </si>
+  <si>
+    <t>switch(weekDay) {
+  case 0: dayName = "Vas";
+    break;
+  case 0: dayName = "Vas";
+    break;
+  case 1: dayName = "Hét";
+    break;
+  case 2: dayName = "Ked";
+    break;
+  case 3: dayName = "Sze";
+    break;
+  case 4: dayName = "Csü";
+    break;
+  case 5: dayName = "Pén";
+    break;
+  case 6: dayName = "Szo";
+    break;
+  default: dayName = "unknown"
+}</t>
+  </si>
+  <si>
+    <t>While ciklus</t>
+  </si>
+  <si>
+    <t>Ahogy a neve is mutatja, mindaddig fut amíg a megadott feltétel igaz.
+Egy paramétere van, ami egy logikai kifejezés, ennek kell igaznak lennie, hogy a ciklus újra lefusson.</t>
+  </si>
+  <si>
+    <t>Végtelen ciklus</t>
+  </si>
+  <si>
+    <t>A ﻿while﻿ ciklus használata esetén gyakran előfordul, hogy a feltételt nem figyeljük megfelelően. Ekkor fordul elő, hogy a feltétel mindig igaz marad,
+és a ciklus végtelen hurokba kerül.
+A különböző értelmezők általában bizonyos számú futás után hibát adnak és leállnak</t>
+  </si>
+  <si>
+    <t>Kollekciók bejárása</t>
+  </si>
+  <si>
+    <t>Természetesen a ﻿while﻿ ciklus is alkalmas arra, hogy tömböket vagy objektumokat járj be a segítségével. Itt viszont nem kapsz semmi segítséget ehhez, neked kell leprogramoznod a kulcsok léptetését.</t>
+  </si>
+  <si>
+    <t>let i = 0;
+while ( i &lt; 10) {
+  i++;
+	console.log(i);
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let animal = {name: "Cat", age: 3};
+let keys = Object.keys(animal);
+let i = 0;
+while (i &lt; keys.length) {
+  console.log(animal[keys[i]]);
+	i++;
+};
+</t>
+  </si>
+  <si>
+    <t>do {
+  console.log(i);
+    i++;
+}
+while(i &lt; 0);</t>
+  </si>
+  <si>
+    <t>do while</t>
+  </si>
+  <si>
+    <t>Az elöltesztelős ciklusoknál megfigyelhettük, hogy először a feltétel vizsgálata történik meg, majd utána a kiértékelés eredményétől függően a ciklusmag futtatása. Ezzel szemben a hátultesztelős ciklus először lefuttatja a ciklusmagot, és csak utána vizsgálja meg a feltételt.
+A hátultesztelős ciklus lényege, hogy akár igaz a feltétel, akár hamis, egy alkalommal biztosan le fog futni.</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Minden elemnek csak egyetlen közvetlen szülője lehet.</t>
+  </si>
+  <si>
+    <t>parentNode</t>
+  </si>
+  <si>
+    <t>parentElement</t>
+  </si>
+  <si>
+    <t>az adott elem szülő node-ját adja vissza , mely lehet ﻿Element﻿ vagy gyökérelem esetén a ﻿document.</t>
+  </si>
+  <si>
+    <t>az adott elem szülő elemét adja vissza, mely mindig egy ﻿Element﻿, vagy gyökérelem esetén ﻿null.</t>
+  </si>
+  <si>
+    <t>Fontos különbség van a ﻿node és az ﻿element﻿ között. A ﻿Node﻿ egy csomópont a dokumentumban, lehet egy egyszerű ﻿textNode﻿ is, ami nem valódi HTML ﻿Element﻿. Mert minden Element node, de nem minden node element.</t>
+  </si>
+  <si>
+    <t>Munka a szülőkkel</t>
+  </si>
+  <si>
+    <t>let alertCloseButtons = document.querySelectorAll('.btn-close[data-bs-dismiss="alert"]');
+let alertCloseEventHandlerFunction = function(ev) {
+    this.parentElement.style.display = "none";
+};
+for (let i = 0; i &lt; alertCloseButtons.length; i++) {
+    alertCloseButtons[i].addEventListener("click", alertCloseEventHandlerFunction);
+}</t>
+  </si>
+  <si>
+    <t>DOM manipuláció</t>
+  </si>
+  <si>
+    <t>Most összetett struktúrákat, listákat, táblázatokat fogunk generálni js-el. Izgalmas lesz.</t>
+  </si>
+  <si>
+    <t>Lista ﻿while ciklussal</t>
+  </si>
+  <si>
+    <t>//Select elem kitöltése.
+let toppings = [
+    "Kaja 1",
+    "Más kaja 2",
+    "Nem jut semmi az eszembe",
+    "Sok lesz már a választási lehetőség"
+];
+let toppingSelect = document.querySelector("#topInput");
+let index = 0;
+while(index &lt; toppings.length) {
+    let option = document.createElement("option");
+    option.value = toppings[index];
+    option.innerHTML = toppings[index];
+    toppingSelect.appendChild(option);
+    index++;
+};</t>
+  </si>
+  <si>
+    <t>Táblázat rajzolása objektumtömbből</t>
+  </si>
+  <si>
+    <t>Amikor egy szerverről megkapod mondjuk a felhasználókat, az a legtöbbször egy tömb lesz, ami az egyes felhasználókat objektumként tartalmazza. Erre szokták mondani, hogy objektumtömb, vagy objektumok tömbje.</t>
+  </si>
+  <si>
+    <t>let users = [
+ {adat1: "valami szöveg", adat2: "még több szöveg"},
+ {adat1: "valami szöveg", adat2: "még több szöveg"},
+ {adat1: "valami szöveg", adat2: "még több szöveg"}
+];</t>
+  </si>
+  <si>
+    <t>DOM manipuláció for ciklussal</t>
+  </si>
+  <si>
+    <t>A helyes táblázathoz két egymásba ágyazott ciklus kell. Az egyikben létrehozod a sorokat, a másikban a cellákat a sorokon belül.</t>
+  </si>
+  <si>
+    <t>//Táblázat legenerálása
+let tableBody = document.querySelector("#userTable tbody");
+let createTD = (html, parent) =&gt; {
+    let td = document.createElement("td");
+    td.innerHTML = html;
+    parent.appendChild(td);
+};
+for (let k in users) {
+    let tr = document.createElement("tr");
+    createTD(parseInt(k)+1, tr);
+    for(let value of Object.values(users[k])) {
+        createTD(value, tr);
+    }
+    tableBody.appendChild(tr);
+};</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,6 +2360,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF252628"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -983,7 +2400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1008,7 +2425,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1018,6 +2444,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1468,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC350798-7711-4A1C-A883-6ABC74B33182}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1665,50 +3100,50 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
         <v>124</v>
-      </c>
-      <c r="B25" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
         <v>106</v>
-      </c>
-      <c r="B29" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
         <v>109</v>
-      </c>
-      <c r="C31" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
         <v>126</v>
-      </c>
-      <c r="B33" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +3157,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1736,7 +3171,7 @@
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1765,50 +3200,50 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1821,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB668233-3DBF-4B7F-9F7C-E8D2A76AFBBB}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,90 +3309,90 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
         <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
         <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
         <v>104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
         <v>112</v>
-      </c>
-      <c r="B13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
         <v>114</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
         <v>116</v>
-      </c>
-      <c r="B16" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
         <v>118</v>
-      </c>
-      <c r="B17" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
         <v>120</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
         <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
         <v>132</v>
-      </c>
-      <c r="B21" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1970,210 +3405,210 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
         <v>126</v>
-      </c>
-      <c r="B25" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
         <v>128</v>
-      </c>
-      <c r="B26" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+        <v>130</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" t="s">
         <v>145</v>
-      </c>
-      <c r="B33" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
         <v>147</v>
-      </c>
-      <c r="B34" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" t="s">
         <v>149</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
         <v>152</v>
-      </c>
-      <c r="B36" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s">
         <v>154</v>
-      </c>
-      <c r="B38" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" t="s">
         <v>160</v>
-      </c>
-      <c r="C41" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
         <v>162</v>
-      </c>
-      <c r="C42" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" t="s">
         <v>166</v>
       </c>
-      <c r="B44" t="s">
-        <v>167</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2197,8 +3632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DC3297-2FF5-4F13-A7F5-D9785A69B897}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2209,61 +3644,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
         <v>181</v>
-      </c>
-      <c r="B3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" t="s">
         <v>191</v>
-      </c>
-      <c r="B9" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2278,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CC2D60-58BC-4E88-A164-49D42285BA72}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2290,91 +3725,91 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2383,329 +3818,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350190BB-23B1-450E-A8E4-5073E81203DD}">
-  <dimension ref="A1:D42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>274</v>
-      </c>
-      <c r="B36" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>276</v>
-      </c>
-      <c r="B37" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{A08E9D8B-C09E-4450-8B45-66DB621ADBD1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37B706B-AF5C-42E1-8D04-E63F396DB679}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2773,10 +3889,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
         <v>164</v>
-      </c>
-      <c r="B8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2797,13 +3913,2061 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
         <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4804D001-5A63-420F-89F4-A3E1C4726B82}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350190BB-23B1-450E-A8E4-5073E81203DD}">
+  <dimension ref="A1:D221"/>
+  <sheetViews>
+    <sheetView topLeftCell="A205" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="15"/>
+    </row>
+    <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="15"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="15"/>
+    </row>
+    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B78" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B79" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B80" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B88" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B89" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B90" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B107" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B108" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B149" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B150" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B151" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B155" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B156" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B157" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B159" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B160" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B161" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A173" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B176" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B177" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B178" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B179" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A182" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A185" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A189" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A192" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A197" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A198" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A210" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A211" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A215" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A217" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A219" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A221" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{A08E9D8B-C09E-4450-8B45-66DB621ADBD1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD87432E-A911-440C-94A4-5F5B5CF92783}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.109375" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C54" s="19"/>
+    </row>
+    <row r="55" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C53:C54"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{8EFCE396-C050-45EE-A58A-D177165446E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8171696-C6EB-4EAA-93A9-33FB456E3A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F0A17F-3FE8-4F77-8D97-681A2D54A933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11364" yWindow="3552" windowWidth="18240" windowHeight="12672" firstSheet="5" activeTab="8" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="13668" yWindow="2952" windowWidth="18240" windowHeight="12672" firstSheet="5" activeTab="8" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Visual Studio Code" sheetId="2" r:id="rId6"/>
     <sheet name="Tiszta kód" sheetId="8" r:id="rId7"/>
     <sheet name="JavaScript" sheetId="7" r:id="rId8"/>
-    <sheet name="DOM" sheetId="9" r:id="rId9"/>
+    <sheet name="NPM &amp; json" sheetId="10" r:id="rId9"/>
+    <sheet name="DOM" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="609">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -2320,6 +2321,93 @@
     }
     tableBody.appendChild(tr);
 };</t>
+  </si>
+  <si>
+    <t>npm alapok</t>
+  </si>
+  <si>
+    <t>Az npm betűszó a Node Pacakge Manager rövidítése. A fejlesztők készítenek egy modult, ami egy mini alkalmazás és bárki integrálhatja a saját munkájába. Ezek gyakorlatilag egyszerű folder modulok, azaz a modul egy mappában van megvalósítva. Egy parancssori alkalmazás segítségével tudjuk telepíteni, eltávolítani, keresni ezeket a csomagokat (modulokat). Az npm-et nem kell külön telepíteni, a Node.js-el együtt települ.</t>
+  </si>
+  <si>
+    <t>npm i</t>
+  </si>
+  <si>
+    <t>Packegek letöltése és telepítése</t>
+  </si>
+  <si>
+    <t>const lodash = require("lodash");</t>
+  </si>
+  <si>
+    <t>Packagek használata</t>
+  </si>
+  <si>
+    <t>package.json fájl</t>
+  </si>
+  <si>
+    <t>package.json</t>
+  </si>
+  <si>
+    <t>Az alkalmazásod gyökerében kell a fájlt létrehoznod kézzel, vagy ezzel a paranccsal:
+﻿npm  init  -y
+Az -y kapcsoló azt jelenti, hogy minden kérdést elfogadsz, enélkül válaszolni kell néhányra.</t>
+  </si>
+  <si>
+    <t>Szinkronban tartja a telepített npm package verziókat.
+A Node.js alkalmazásod gyökerébe kell elhelyezned és szépen felsorolni benne hogy milyen csomagok kellenek az alkalmazáshoz. Amikor változik, csak mindenki nyom egy npm install-t és máris szinkronban vannak a csomagok.</t>
+  </si>
+  <si>
+    <t>Verziók</t>
+  </si>
+  <si>
+    <t>Azt, hogy egy csomagnak melyik verziójára van szükséged, egy számmal kell megadnod, ami három részből áll:
+﻿[major version].﻿﻿[minor version].[patch]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csomag neve
+verziószáma
+rövid leírás
+ha Githubon van, akkor annak beállításai (típus, url)
+Szerző
+Licenc
+Függőség (milyen egyéb csomag/szoftver kell hozzá)
+</t>
+  </si>
+  <si>
+    <t>major version</t>
+  </si>
+  <si>
+    <t>minor version</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>npm jelölések</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>﻿npm  remove  lodash</t>
+  </si>
+  <si>
+    <t>A remove utasítással lehet a csomagokat eltávolítani, és itt is megy a --save flag, azaz ha benne volt a csomag a package.json -ban, akkor onnan is eltávolítja:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program főverziója, ez általában az előző verziókkal visszafelé nem kompatibilis és komoly fejlesztéseket tartalmaz. Például amikor kiadnak egy új szoftvert vagy csomagot, akkor azt az ﻿1.0.0 verzióval szokták. Amikor pedig komony fejlesztések történnek, akkor léptetik a major, vagy főverziót, és lesz belőle ﻿2.0.0., 3.0.0</t>
+  </si>
+  <si>
+    <t>ez egy kisebb lépés, például kisebb fejlesztéseket tartalmaz. Fontos, hogy általában a kompatibilitást nem töri meg. Tehát ha te egy alkalmazást készítettél az ﻿1.3.4 verzióhoz, az valószínűleg futni fog az ﻿1.5.2 verzión is.</t>
+  </si>
+  <si>
+    <t>hibajavítás, a program működését érdemben nem befolyásolja.</t>
+  </si>
+  <si>
+    <t>az npm-nél lehet tenni egy jelet a verziószám elé, ami azt jelenti, hogy milyen frissítéseket engedsz meg a csomagoknál.</t>
+  </si>
+  <si>
+    <t>~: ez a tilde (altGr + 1), azt jelenti, hogy csak a patch-et engeded meg. Ha így adod meg a csomagot: ﻿"lodash":  " 2.4.1"﻿, akkor ha kijön egy ﻿2.4.7﻿ verzió, akkor frissülni fog, de ha a csomag a ﻿2.5.1 verzióra lép, akkor már nem. Magyarul, csak az utolsó szám változhat.
+^: ez a caret(altGr + 3 + space), azt jelenti, hogy a minor verziót lehet léptetni. Tehát a kisebb fejlesztések is jöhetnek. Ha így adod meg a csomagot: ﻿"lodash": "2.4.1"﻿, akkor ha kijön egy ﻿2.9.1 verió, akkor frissülni fog, de ha a csomag a ﻿3.0.1 verzióra lép, akkor már nem. Magyarul, a második és a harmadik szám is változhat.</t>
   </si>
 </sst>
 </file>
@@ -2439,20 +2527,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3152,6 +3240,494 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD87432E-A911-440C-94A4-5F5B5CF92783}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.109375" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C54" s="20"/>
+    </row>
+    <row r="55" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C53:C54"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{8EFCE396-C050-45EE-A58A-D177165446E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01868413-D70B-4C24-843C-8215A52F7768}">
   <dimension ref="A1:B11"/>
@@ -3431,24 +4007,24 @@
       <c r="A27" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -3644,14 +4220,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -3996,8 +4572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350190BB-23B1-450E-A8E4-5073E81203DD}">
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4009,12 +4585,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -5250,7 +5826,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="232.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
         <v>359</v>
       </c>
@@ -5485,489 +6061,119 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD87432E-A911-440C-94A4-5F5B5CF92783}">
-  <dimension ref="A1:C61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8F9747-A2EE-4BE5-A71A-80F69BEAC41E}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.109375" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="35.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="41" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>484</v>
+    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>482</v>
+      <c r="A2" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="C54" s="19"/>
-    </row>
-    <row r="55" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>583</v>
+      <c r="A9" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C53:C54"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{8EFCE396-C050-45EE-A58A-D177165446E1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F0A17F-3FE8-4F77-8D97-681A2D54A933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D609E4-4088-475B-9098-774AA7D15B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13668" yWindow="2952" windowWidth="18240" windowHeight="12672" firstSheet="5" activeTab="8" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="12960" yWindow="3396" windowWidth="18240" windowHeight="12672" firstSheet="6" activeTab="10" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="JavaScript" sheetId="7" r:id="rId8"/>
     <sheet name="NPM &amp; json" sheetId="10" r:id="rId9"/>
     <sheet name="DOM" sheetId="9" r:id="rId10"/>
+    <sheet name="Hálózati alapismeretek" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="753">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -2409,12 +2410,737 @@
     <t>~: ez a tilde (altGr + 1), azt jelenti, hogy csak a patch-et engeded meg. Ha így adod meg a csomagot: ﻿"lodash":  " 2.4.1"﻿, akkor ha kijön egy ﻿2.4.7﻿ verzió, akkor frissülni fog, de ha a csomag a ﻿2.5.1 verzióra lép, akkor már nem. Magyarul, csak az utolsó szám változhat.
 ^: ez a caret(altGr + 3 + space), azt jelenti, hogy a minor verziót lehet léptetni. Tehát a kisebb fejlesztések is jöhetnek. Ha így adod meg a csomagot: ﻿"lodash": "2.4.1"﻿, akkor ha kijön egy ﻿2.9.1 verió, akkor frissülni fog, de ha a csomag a ﻿3.0.1 verzióra lép, akkor már nem. Magyarul, a második és a harmadik szám is változhat.</t>
   </si>
+  <si>
+    <t>devDependencies:{}</t>
+  </si>
+  <si>
+    <t>A program fejlesztéséhez szükséges programok listája, melyek később a program futtatásához nem lesznek szükségesek</t>
+  </si>
+  <si>
+    <t>node -v</t>
+  </si>
+  <si>
+    <t>Node.js verziószámának lekérése</t>
+  </si>
+  <si>
+    <t>node globális telepítése</t>
+  </si>
+  <si>
+    <t>npm i -g választott node</t>
+  </si>
+  <si>
+    <t>Számítógépes hálózatok, internethasználat</t>
+  </si>
+  <si>
+    <t>A számítógépek-hálózatok alatt az egymással kapocslatban lévő önálló számítógép rendszerét értjük. Másik megfogalmazásban: számítógép hálózat autonóm számítógépek összekapcsolt rendszere.</t>
+  </si>
+  <si>
+    <t>A hálózatok biztosítják, hogy emberek és eszközök kapcsolódjanak össze, függetlenül attól, hogy a világ mely pontján vannak.</t>
+  </si>
+  <si>
+    <t>Minden hálózat elsődleges célja, hogy biztosítja az információáramlást.</t>
+  </si>
+  <si>
+    <t>Az internetet a "hálózatok hálózatjának" tartják.</t>
+  </si>
+  <si>
+    <t>Számítógépes hálózatok célja</t>
+  </si>
+  <si>
+    <t>Számítógépes hálózatok összetevői</t>
+  </si>
+  <si>
+    <t>Egyenrangú (peer-to-peer) hálózatok</t>
+  </si>
+  <si>
+    <t>Ugyanaz az alkalmazás viselkedhet párhuzamosan ügyfélként és kiszolgálóként is</t>
+  </si>
+  <si>
+    <t>"Peer" = veled egyenrangú felhasználó</t>
+  </si>
+  <si>
+    <t>A legegyszerűbb egyenrangú hálózat két számítógépet tartalmaz, melyek közvetlenül kapcsolódnak egymáshoz.</t>
+  </si>
+  <si>
+    <t>A kliens-szerver architektúra ellenéte.</t>
+  </si>
+  <si>
+    <t>Mindenki egyenlő.</t>
+  </si>
+  <si>
+    <t>Minden résztvevő peer egyszerre kliens és szerver.</t>
+  </si>
+  <si>
+    <t>Nincs központi vezérlés, központi adatbázis.</t>
+  </si>
+  <si>
+    <t>Senkinek nincs globális képe a hálózatról.</t>
+  </si>
+  <si>
+    <t>Bármilyen megosztott erőforrás elérhető bárki által.</t>
+  </si>
+  <si>
+    <t>Akkor férhetsz mások erőforrásaihoz, ha megsztod a sajátjaidat.</t>
+  </si>
+  <si>
+    <t>A peer-ek függetlenek egymástól.</t>
+  </si>
+  <si>
+    <t>A peer-ek és a kapcsolatok alapvetően megbízhatatlanok.</t>
+  </si>
+  <si>
+    <t>Előnyei</t>
+  </si>
+  <si>
+    <t>Hátrányai</t>
+  </si>
+  <si>
+    <t>Kliens-szerver modell</t>
+  </si>
+  <si>
+    <t>A hálózatban működő alkalmazások legtöbbje az ügyfél-kiszolgáló-alkalmazások közé tartozik.</t>
+  </si>
+  <si>
+    <t>FTP, böngészők, levelezőprogramok.</t>
+  </si>
+  <si>
+    <t>Az ügyfél oldali és a kiszolgáló oldali komponens.</t>
+  </si>
+  <si>
+    <t>ügyfél: kérés - kiszolgáló: válasz - ügyfél: kérés - kiszolgáló: válasz stb...</t>
+  </si>
+  <si>
+    <t>A böngésző például úgy ér el egy weblapot, hogy egy egységes erőforráslokátorral (URL-lel) vagy webcímmel azonosított fájlt kér egy távoli webkiszolgálótól.</t>
+  </si>
+  <si>
+    <t>A kiszolgáló a válasz után azonnal bontja a kapcsolatot.</t>
+  </si>
+  <si>
+    <t>FTP és SSH során a kommunikáció végéig tart a kapcsolat</t>
+  </si>
+  <si>
+    <t>Hálózatok kiterjedése</t>
+  </si>
+  <si>
+    <t>SOHO - Small office  hálózat</t>
+  </si>
+  <si>
+    <t>LAN (Local Area Network)</t>
+  </si>
+  <si>
+    <t>MAN (Metropolitan Area Network</t>
+  </si>
+  <si>
+    <t>WAN</t>
+  </si>
+  <si>
+    <t>-Gyakori be- és kilépés</t>
+  </si>
+  <si>
+    <t>-Könnyen konfigurálható</t>
+  </si>
+  <si>
+    <t>-Egyszerű, nem összetett</t>
+  </si>
+  <si>
+    <t>-Alacsony költségű (nincs dedikált kiszolgáló)</t>
+  </si>
+  <si>
+    <t>-Egyszerű feladatok elvégzésére tökéletes</t>
+  </si>
+  <si>
+    <t>-Nincs központosított adminisztráció</t>
+  </si>
+  <si>
+    <t>-Nem biztonságos</t>
+  </si>
+  <si>
+    <t>-Csökkenhet a teljesítmény</t>
+  </si>
+  <si>
+    <t>-Kisméretű irodákban az otthoni irodákban és az otthonokban telepített hálózatok</t>
+  </si>
+  <si>
+    <t>-Erőforrások megosztása</t>
+  </si>
+  <si>
+    <t>-Általában egyetlen kapcsolattal rendelkeznek az Internet felé</t>
+  </si>
+  <si>
+    <t>-Földrajzilag korlátozott területen működik (intézményen, gyáron belül).</t>
+  </si>
+  <si>
+    <t>-Nagy sávszélességű átviteli közeget használ.</t>
+  </si>
+  <si>
+    <t>-A helyi rendszergazda végzi a felügyeletét.</t>
+  </si>
+  <si>
+    <t>-Nonstop hozzáférést biztosít a helyi erőforrásokhoz.</t>
+  </si>
+  <si>
+    <t>-Fizikailag egymáshoz közel elhelyezkedő eszközöket köz össze</t>
+  </si>
+  <si>
+    <t>-Lényegében lokális hálózatok nagyobb változata, és általában hasolnó technológiára épül.</t>
+  </si>
+  <si>
+    <t>-Azért soroljuk mégis külön kategóroába, mert kidolgoztak számukra egy szabványt: DQDB (Distributed Queue Dual Bus).</t>
+  </si>
+  <si>
+    <t>-Nagy földrajzi területeket fed le.</t>
+  </si>
+  <si>
+    <t>-Hozzáférés viszonylag lassú.</t>
+  </si>
+  <si>
+    <t>-Nonstop és időszakos csatlakozás.</t>
+  </si>
+  <si>
+    <t>-Globális elhelyezkedésű eszközöket köt össze.</t>
+  </si>
+  <si>
+    <t>-Részei a hosztok (host) és az őket összekapcsoló kommunikációs alhálózat (communication subnet) vagy röviden alhálózat.</t>
+  </si>
+  <si>
+    <t>-Az alhálózat feladata az özenetek továbbítása a hosztok között.</t>
+  </si>
+  <si>
+    <t>-Az alhálózat részei az átviteli vonalak (más néven áramkörök, csatornák, trönkök) és a kapcsolóelemek.</t>
+  </si>
+  <si>
+    <t>-A kapcsolóelemek olyan speciális számítógépek, amelyeket két vagy több átviteli vonal összekapcsolására használnak</t>
+  </si>
+  <si>
+    <t>Hálózati topológiák</t>
+  </si>
+  <si>
+    <t>Ahogy a hálózat nő, egyre bonyolultabb lesz nyomon követni a hálózati összetevők helyét és a hálózati kapcsolódásukat.</t>
+  </si>
+  <si>
+    <t>A vezetékes hálózatokban az összes hálózati állomás összekapcsolásához sok kábelre és hálózati eszközre van szükség.</t>
+  </si>
+  <si>
+    <t>Amikor a hálózatot telepítik, fizikai topológiai térkép készül, hogy rögzítse, hol és hogyan csatlakoznak az egyes állomások a hálózathoz.</t>
+  </si>
+  <si>
+    <t>A logika topológiai térképen az alapján csoportosítjük az állomásokat, ahogyan használják a hálózatot, tekintet nélkül a fizikai elhelyezkedésükre.</t>
+  </si>
+  <si>
+    <t>Fizikai topológia</t>
+  </si>
+  <si>
+    <t>Logikai topológia</t>
+  </si>
+  <si>
+    <t>Hálózati topológia</t>
+  </si>
+  <si>
+    <t>Protokoll</t>
+  </si>
+  <si>
+    <t>A protokollok egy adott kommunikáció során alkalmazott szabályok és megállapodások összege.</t>
+  </si>
+  <si>
+    <t>Definiálják az üzenetküldés és a szállítás részleteit.</t>
+  </si>
+  <si>
+    <t>Időzítés</t>
+  </si>
+  <si>
+    <t>-Üzenetformátum</t>
+  </si>
+  <si>
+    <t>-Üzenetméret</t>
+  </si>
+  <si>
+    <t>-Időzítés</t>
+  </si>
+  <si>
+    <t>-Beágyazás</t>
+  </si>
+  <si>
+    <t>-Kódolás</t>
+  </si>
+  <si>
+    <t>-Szabányos üzenetminta</t>
+  </si>
+  <si>
+    <t>Üzenetkódolás</t>
+  </si>
+  <si>
+    <t>-A hálózaton át küldött üzenetet először a küldő állomás bitekké konvertálja.</t>
+  </si>
+  <si>
+    <t>-Minden bitet hangmintává, fényhullámmá vagy elektromos impulzussá kódol, annak függvényében, hogy milyen hálózati közegen fogja a biteket továbbítani.</t>
+  </si>
+  <si>
+    <t>-A célállomás fogadja z üzenetet, értelmezéséhez dekódolja a jeleket.</t>
+  </si>
+  <si>
+    <t>Üzenetformázás</t>
+  </si>
+  <si>
+    <t>-Adatfolyam-vezérlés:
+Mennyi információt lehet küldeni és milyen gyorsan.</t>
+  </si>
+  <si>
+    <t>-Hozzáférési mód: 
+A hozzáférési mód meghatározza, hogy mikor küldhet valaki üzenetet.</t>
+  </si>
+  <si>
+    <t>-Válaszidő túllépése:
+Ha nem érkezik válasz elfogadható időn belül, akkor feltételezi, hogy már nem jön válasz, és ennek megfelelően reagál.</t>
+  </si>
+  <si>
+    <t>Üzenet sémák</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Állomások</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: minden számítógép amely csatlakozik a hálózathoz és közvetlenül részt vesz a hálózati kommunikációban.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Megosztott perifériák</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: nem közvetlenül, hanem az állomásokon keresztül kapcsolódnak a hálózathoz.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hálózati készülékek</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: az állomások összekapcsolására használják őket</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hálózati átviteli közegek</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: az állomások összekapcsolására használják őket</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Erőforrás megosztás</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: az eszközök, programok, adatok a felhasználók fizikai helyétől függetlenül bárki számára elérhetőek legyenek.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nagyobb megbízhatóság</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: alternatív erőforrások alkalmazása (pl.: fájlok több gépen való tárolása, egyszerre több CPU alkalmazása).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Takarékosság</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A kis számítógépek sokkal jobb ár/teljesítmény aránnyal rendelkeznek, mint a nagyobbak.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skálázhatóság</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: annak a biztosítása, hogy a rendszer teljesítményét a terhelés növekedésével fokozatosan növelni lehessen újabb szerverek, kliensgépek hozzáadásával.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kommunikáció</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: hozzáférés távoli információhoz.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unicast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Az egy-az-egyhez üzenetsémára az egyedi kifejezést használjuk, ami jelzi, hogy csak egyetlen címzettje van az üzenetnek.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multicast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Csoportos küldés, több címzett.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Anycast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Csoportos küldés, több címzett, de ha az egyik megkapja a többihez már nem jut el.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Broadcast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A hálózaton egy időben az összes állomásnak meg kell kapnia az üzenetet.</t>
+    </r>
+  </si>
+  <si>
+    <t>Az Ethernet</t>
+  </si>
+  <si>
+    <t>Ethernet protokoll</t>
+  </si>
+  <si>
+    <t>-A vezetékes helyi hálózatban a leggyakrabban használt protokollkészlet az Ethernet.</t>
+  </si>
+  <si>
+    <t>-Meghatározza az üzenet formátumát, az üzenet méretét, az időzítést, a kódolást és az üzenetsémákat.</t>
+  </si>
+  <si>
+    <t>-A kereteket a Protokoll Adat Egységnek (PDUs - Protocol Data Units) is nevezik.</t>
+  </si>
+  <si>
+    <t>Ethernet hálózatok hierarchikus felépítése
+A hierarchikus tervezésnek három alaprétege van:</t>
+  </si>
+  <si>
+    <t>-Hozzáférési réteg: 
+A helyi Ethernet hálózaton az állomásoknak biztosít kapcsolódást</t>
+  </si>
+  <si>
+    <t>-Központi réteg:
+Nagy sebességű kapcsolatot teremt az elosztási réteg eszközei között.</t>
+  </si>
+  <si>
+    <t>-Elosztási réteg:
+Kisebb helyi hálózatokat kapcsol össze.</t>
+  </si>
+  <si>
+    <t>Az Internet számítógépes hálózatok világméretű összessége, melyek az információk cseréjéhez egységes szabványokat használva, együttműködnek egymással.</t>
+  </si>
+  <si>
+    <t>Az Internet, a hálózatok hálózata, amely kapcsolatot teremt a világ minden országának felhasználói között.</t>
+  </si>
+  <si>
+    <t>Az Internet</t>
+  </si>
+  <si>
+    <t>ISP (Internet Service Provider)</t>
+  </si>
+  <si>
+    <t>Ha csatlakozni szeretnénk az Internethez, valamilyen ISP segítségével tehetjük meg.</t>
+  </si>
+  <si>
+    <t>Az ISP egy vállalat, mely kapcsolatot és támogatást biztosít az Internet eléréséhez.</t>
+  </si>
+  <si>
+    <t>Nyújthatnak egyéb szolgáltatásokat is, úgymint az elektronikus levelezés és webes tárhelyszolgáltatás.</t>
+  </si>
+  <si>
+    <t>Az internetszolgáltatók méreteikben az egészen kicsitől a nagyon nagyig terjedhetnek.</t>
+  </si>
+  <si>
+    <t>TCP/IP</t>
+  </si>
+  <si>
+    <t>Az Internet hivatkozási modellje. Két legjelentősebb protokolljáról kapta a nevét.</t>
+  </si>
+  <si>
+    <t>Lehetővé teszi tetszőlegesen sok hálózat zökkenőmentes összekapcsolását.</t>
+  </si>
+  <si>
+    <t>A TCP/IP a világ bármely két pontján (vagy azon kívül) levő számítógépek között biztosít adatkommunikációt.</t>
+  </si>
+  <si>
+    <t>Az Amerikai Védelmi Minisztérium definiálta, mert egy olyan hálózatot kívánt létrehozni, amely minden körülmények között - még egy atomháború esetén is - működőképes marad.</t>
+  </si>
+  <si>
+    <t>Négy réteget tartalmaz: az alkalmazási réteget, a szállítási réteget, az Internet réteget és a hálózati réteget.</t>
+  </si>
+  <si>
+    <t>Hálózati réteg</t>
+  </si>
+  <si>
+    <t>Ebben a rétekben történik meg az egyes csomagok tényleges elszállítása a feladótól a címzettig.</t>
+  </si>
+  <si>
+    <t>Itt elsősorban a hálózat hardveres megvalósításához kötődő szabányokat találjuk</t>
+  </si>
+  <si>
+    <t>Internet réteg</t>
+  </si>
+  <si>
+    <t>A címzés a borítékon.</t>
+  </si>
+  <si>
+    <t>Ebben a rétegben kap címet mind a feladó, mind a címzett.</t>
+  </si>
+  <si>
+    <t>eEz a réteg felelős azért, hogy a csomag tudja, merre kell mennie, amíg célba nem jut.</t>
+  </si>
+  <si>
+    <t>Internet Protocol (IP)</t>
+  </si>
+  <si>
+    <t>Szállítási réteg</t>
+  </si>
+  <si>
+    <t>Ez a réteg kapja meg az elszállítandó adatokat és állítja össze belőlük a csomagokat.</t>
+  </si>
+  <si>
+    <t>A szolgáltatás minőségi kérdéseivel foglalkozik, vagyis a megbízhatósággal, az adatfolyam-vezérléssel és a hibajavítással.</t>
+  </si>
+  <si>
+    <t>Transmission Control Protocol (TCP)</t>
+  </si>
+  <si>
+    <t>Alkalmazás réteg</t>
+  </si>
+  <si>
+    <t>Itt mindazon szabványokat találjuk meg, melyek az egyes konkrét alkalmazásokból, illetve alkalmazásokba érkező adatfolyamok előfeldolgozásához szükségesek, vagyis a megjelenítést, a kódolást és a párbeszédszabályozást.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2466,6 +3192,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2475,7 +3210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2483,12 +3218,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2541,6 +3285,27 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2685,6 +3450,363 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5228576</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>159453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Kép 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8C92CC-8FE9-4898-973C-8A2BB97955B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="17929860"/>
+          <a:ext cx="5190476" cy="4533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>79994</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2682240</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4578A9A8-240E-4BEE-A0D0-CF4E654DAF01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7974314" y="8419148"/>
+          <a:ext cx="2602246" cy="1288732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5484721</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2921601</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Kép 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E4D12F-3169-4733-87B2-357554166B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5484721" y="17929861"/>
+          <a:ext cx="5232140" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5371429</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>37638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Kép 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569EBC62-D708-4C96-8EBA-4D970D598F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22669500"/>
+          <a:ext cx="5371429" cy="3695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6800000</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>102606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Kép 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855C8606-3E35-4AC2-A2AB-C78E5E81F61E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26258520"/>
+          <a:ext cx="6800000" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6243816</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>41427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Kép 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B034F8A7-C524-467B-B124-0D201C196005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="53340" y="32042100"/>
+          <a:ext cx="6190476" cy="3866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>11974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6752381</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>58092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Kép 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFDC3A0-A138-4495-955F-F4893CE2ACE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="40321774"/>
+          <a:ext cx="6752381" cy="5597832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7771428</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>124494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Kép 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870145BE-20CE-47AF-A3C4-3A022DA78DAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="46013914"/>
+          <a:ext cx="7771428" cy="5523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2991,8 +4113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC350798-7711-4A1C-A883-6ABC74B33182}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3245,7 +4367,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3728,12 +4850,711 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DC77A1-EADA-4759-AC14-926B264333CB}">
+  <dimension ref="A1:B225"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A218" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="113.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="113.6640625" style="8"/>
+    <col min="2" max="16384" width="113.6640625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="25"/>
+      <c r="B36" s="21" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="B50" s="21"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="25"/>
+      <c r="B53" s="21" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="25"/>
+      <c r="B58" s="21" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="25"/>
+      <c r="B60" s="21" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="10" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="10" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="10" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="10" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="26" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A124" s="24" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="B125" s="21"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="10" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="10" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="25"/>
+      <c r="B131" s="21" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B133" s="10" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="10" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="26" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="25"/>
+      <c r="B147" s="21"/>
+    </row>
+    <row r="148" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B149" s="10" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B150" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A152" s="24" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="B158" s="21"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="10" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="25"/>
+      <c r="B161" s="21" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B163" s="10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B164" s="10" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A184" s="24" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A188" s="24" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="8" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A194" s="24" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="10" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B201" s="10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="10" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="10" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="10" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="10" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="10" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="10" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="10" t="s">
+        <v>741</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01868413-D70B-4C24-843C-8215A52F7768}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3832,8 +5653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB668233-3DBF-4B7F-9F7C-E8D2A76AFBBB}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4209,7 +6030,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4290,7 +6111,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4398,7 +6219,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4505,7 +6326,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4573,7 +6394,7 @@
   <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6062,10 +7883,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8F9747-A2EE-4BE5-A71A-80F69BEAC41E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6162,15 +7983,39 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D609E4-4088-475B-9098-774AA7D15B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25CEB1C-FFD0-4AA4-B1BB-A823818A58BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="3396" windowWidth="18240" windowHeight="12672" firstSheet="6" activeTab="10" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="11592" yWindow="3084" windowWidth="18240" windowHeight="12672" firstSheet="7" activeTab="8" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="NPM &amp; json" sheetId="10" r:id="rId9"/>
     <sheet name="DOM" sheetId="9" r:id="rId10"/>
     <sheet name="Hálózati alapismeretek" sheetId="11" r:id="rId11"/>
+    <sheet name="DELET, POST és PUT" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="775">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -3134,6 +3135,115 @@
   </si>
   <si>
     <t>Itt mindazon szabványokat találjuk meg, melyek az egyes konkrét alkalmazásokból, illetve alkalmazásokba érkező adatfolyamok előfeldolgozásához szükségesek, vagyis a megjelenítést, a kódolást és a párbeszédszabályozást.</t>
+  </si>
+  <si>
+    <t>Create: POST
+Read: GET
+Update: PUT
+Delete: DELETE</t>
+  </si>
+  <si>
+    <t>json-server</t>
+  </si>
+  <si>
+    <t>A json-server egy olyan node.js csomag, amivel egy perc alatt tudsz készíteni egy szervert, ami JSON válaszokat küld neked a kérésekre. Tökéletes választás, ha szeretnéd tesztelni az alkalmazásodban a kliens-szerver kommunikációt.</t>
+  </si>
+  <si>
+    <t>npm init -y</t>
+  </si>
+  <si>
+    <t>generáltasd le a package.json fájlt.</t>
+  </si>
+  <si>
+    <t>npm install -g json-server</t>
+  </si>
+  <si>
+    <t>a json-server telepítése globálisan javasolt, mivel így tudod indítani a parancssorból is és elérhető lesz az összes projektedben.</t>
+  </si>
+  <si>
+    <t>json-server --watch fájl elérése</t>
+  </si>
+  <si>
+    <t>figyeli a JSON fájlt a szerver, ha módosul. Ezenkívül elindul és lehet neki kéréseket küldeni. Ki fogja írni, hogy melyik porton fut, alapból a 3000 lesz, de ezt meg is változtathatod.</t>
+  </si>
+  <si>
+    <t>json adatbázis készítés</t>
+  </si>
+  <si>
+    <t>{
+    "users": [
+        {"id": 1, "name": "Big Tom", "email": "bigtom@gmail.com"},
+        {"id": 2, "name": "Big Dick", "email": "dsfdsf@gmail.com"},
+    ],
+    "comments": [
+        {"id": 1, "body": "comment comment", "userId": 1}
+    ]
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">egyen mindegyik objektumban egy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>﻿id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tulajdonság és lehetőleg 1 -el kezdődjön.</t>
+    </r>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>A kliens - szerver modell arról szól, hogy küld a kliens egy kérést a szervernek, az pedig válaszol rá. A kérés a ﻿Request﻿, a válasz a ﻿Response﻿.</t>
+  </si>
+  <si>
+    <t>GET Request</t>
+  </si>
+  <si>
+    <t>Egy GET kérés így néz ki, a böngésző ezt küldi a szerver felé:
+﻿GET  /images/logo.gif  HTTP/1.1</t>
+  </si>
+  <si>
+    <t>GET﻿: metódus, azaz hogy hogyan szeretné a kliens megkapni az adatokat a válaszban.
+﻿/images/logo.gif: erőforrás, annak a címe amit kér, ez például egy .gif kép.
+﻿HTTP/1.1: verzió, a HTTP szabvány melyik verziójával történik a kommunikáció.</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>a kérés része az első sor után következő header sorok. Ezek további adatokat tartalmaznak a kérésről és mindig ﻿HEADER: VALUEformában vannak megadva.</t>
+  </si>
+  <si>
+    <t>GET Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ﻿HTTP/1.1  200  OK﻿: státusz, a válasz első sora. A státuszkód (jelent esetben 200) jelzi, hogy mi lett a kérés eredménye. A 2xx, azaz a 2 -essel kezdődő sikeres kérést jelent.
+    ﻿HTTP/1.1  404  Not  Found﻿: itt például nem volt sikeres a kérés, mert a kért erőforrás nem létezik. Ilyenkor kiegészülhet a válasz státusza egy szöveggel is, ami jelen esetben: ﻿Not  Found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  User-Agent﻿: a kliens által használt böngésző típusa.
+  Accept-Charset﻿: a böngésző milyen karakterkódolással tudja fogadni az adatokat.
+  Accept-Language﻿: a válasz nyelve milyen legyen.
+  Cache-Control﻿: azt határozza meg, hogy a kliens és szerver közti útvonalon kötelezően használjanak-e cache-elérést, vagy sem.</t>
   </si>
 </sst>
 </file>
@@ -3232,7 +3342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -3277,15 +3387,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3307,6 +3408,16 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -4779,7 +4890,7 @@
       <c r="B53" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="27" t="s">
         <v>571</v>
       </c>
     </row>
@@ -4790,7 +4901,7 @@
       <c r="B54" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="C54" s="20"/>
+      <c r="C54" s="27"/>
     </row>
     <row r="55" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
@@ -4854,7 +4965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DC77A1-EADA-4759-AC14-926B264333CB}">
   <dimension ref="A1:B225"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A218" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A227" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
@@ -4865,7 +4976,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>615</v>
       </c>
     </row>
@@ -4890,7 +5001,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>620</v>
       </c>
     </row>
@@ -4920,7 +5031,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>621</v>
       </c>
     </row>
@@ -4945,7 +5056,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="21" t="s">
         <v>622</v>
       </c>
     </row>
@@ -5000,16 +5111,16 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="18"/>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>650</v>
       </c>
     </row>
@@ -5032,8 +5143,8 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="25"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="18" t="s">
         <v>654</v>
       </c>
     </row>
@@ -5056,7 +5167,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="21" t="s">
         <v>637</v>
       </c>
     </row>
@@ -5096,10 +5207,10 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="18"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
@@ -5115,8 +5226,8 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="25"/>
-      <c r="B53" s="21" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="18" t="s">
         <v>660</v>
       </c>
     </row>
@@ -5124,7 +5235,7 @@
       <c r="A54" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="19" t="s">
         <v>661</v>
       </c>
     </row>
@@ -5144,8 +5255,8 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="25"/>
-      <c r="B58" s="21" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="18" t="s">
         <v>665</v>
       </c>
     </row>
@@ -5158,8 +5269,8 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="25"/>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="22"/>
+      <c r="B60" s="18" t="s">
         <v>667</v>
       </c>
     </row>
@@ -5232,28 +5343,28 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="20" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="23" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="24" t="s">
+      <c r="A124" s="21" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="B125" s="21"/>
+      <c r="B125" s="18"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
@@ -5284,8 +5395,8 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="25"/>
-      <c r="B131" s="21" t="s">
+      <c r="A131" s="22"/>
+      <c r="B131" s="18" t="s">
         <v>693</v>
       </c>
     </row>
@@ -5308,13 +5419,13 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="26" t="s">
+      <c r="A135" s="23" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="25"/>
-      <c r="B147" s="21"/>
+      <c r="A147" s="22"/>
+      <c r="B147" s="18"/>
     </row>
     <row r="148" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
@@ -5335,7 +5446,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A152" s="24" t="s">
+      <c r="A152" s="21" t="s">
         <v>702</v>
       </c>
     </row>
@@ -5360,10 +5471,10 @@
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="25" t="s">
+      <c r="A158" s="22" t="s">
         <v>716</v>
       </c>
-      <c r="B158" s="21"/>
+      <c r="B158" s="18"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
@@ -5379,8 +5490,8 @@
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="25"/>
-      <c r="B161" s="21" t="s">
+      <c r="A161" s="22"/>
+      <c r="B161" s="18" t="s">
         <v>720</v>
       </c>
     </row>
@@ -5403,7 +5514,7 @@
       </c>
     </row>
     <row r="184" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A184" s="24" t="s">
+      <c r="A184" s="21" t="s">
         <v>727</v>
       </c>
     </row>
@@ -5418,7 +5529,7 @@
       </c>
     </row>
     <row r="188" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A188" s="24" t="s">
+      <c r="A188" s="21" t="s">
         <v>728</v>
       </c>
     </row>
@@ -5443,7 +5554,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A194" s="24" t="s">
+      <c r="A194" s="21" t="s">
         <v>733</v>
       </c>
     </row>
@@ -5546,6 +5657,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCFD60-DE44-43C9-8840-BD496C075B3B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5828,24 +5963,24 @@
       <c r="A27" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -6041,14 +6176,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -6406,12 +6541,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7883,21 +8018,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8F9747-A2EE-4BE5-A71A-80F69BEAC41E}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="57.109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="41" style="13" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="13" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>584</v>
       </c>
@@ -7921,7 +8056,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>590</v>
       </c>
@@ -7929,7 +8064,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>591</v>
       </c>
@@ -7948,7 +8083,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>597</v>
       </c>
@@ -7956,7 +8091,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>598</v>
       </c>
@@ -7972,7 +8107,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>600</v>
       </c>
@@ -7991,7 +8126,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>601</v>
       </c>
@@ -8018,7 +8153,89 @@
         <v>613</v>
       </c>
     </row>
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>773</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25CEB1C-FFD0-4AA4-B1BB-A823818A58BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328B6635-00D6-4A7C-A9CB-160B9F1F003C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11592" yWindow="3084" windowWidth="18240" windowHeight="12672" firstSheet="7" activeTab="8" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="18372" yWindow="3216" windowWidth="18240" windowHeight="12672" firstSheet="7" activeTab="10" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="788">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -3244,6 +3244,45 @@
   Accept-Charset﻿: a böngésző milyen karakterkódolással tudja fogadni az adatokat.
   Accept-Language﻿: a válasz nyelve milyen legyen.
   Cache-Control﻿: azt határozza meg, hogy a kliens és szerver közti útvonalon kötelezően használjanak-e cache-elérést, vagy sem.</t>
+  </si>
+  <si>
+    <t>Összeköttetés-alapú</t>
+  </si>
+  <si>
+    <t>Megbízható</t>
+  </si>
+  <si>
+    <t>A kimenő üzeneteket szegmensekre bontja</t>
+  </si>
+  <si>
+    <t>A célállomásnál újra összeállítja az üzeneteket</t>
+  </si>
+  <si>
+    <t>Mindent újraküld, amit a vevő nem tudott venni</t>
+  </si>
+  <si>
+    <t>A bejövő szegmensekből visszaállítja az üzeneteket</t>
+  </si>
+  <si>
+    <t>Összeköttetés-mentes</t>
+  </si>
+  <si>
+    <t>Nem biztosítja szoftveresen a szegmensek megérkezését (nem megbízható)</t>
+  </si>
+  <si>
+    <t>Valós idejű adatküldésnél előnyös (streaming)</t>
+  </si>
+  <si>
+    <t>Kisebb helyigénnyel tárolja az adatokat</t>
+  </si>
+  <si>
+    <t>Nagyobb teljesítmény</t>
+  </si>
+  <si>
+    <t>UDP (User Datagram Protocol)</t>
+  </si>
+  <si>
+    <t>TCP (Transmission Control Protocol)</t>
   </si>
 </sst>
 </file>
@@ -3408,6 +3447,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3417,7 +3457,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -4890,7 +4929,7 @@
       <c r="B53" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="28" t="s">
         <v>571</v>
       </c>
     </row>
@@ -4901,7 +4940,7 @@
       <c r="B54" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="C54" s="27"/>
+      <c r="C54" s="28"/>
     </row>
     <row r="55" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
@@ -4963,10 +5002,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DC77A1-EADA-4759-AC14-926B264333CB}">
-  <dimension ref="A1:B225"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A227" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A232" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="113.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5651,6 +5690,76 @@
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="10" t="s">
         <v>741</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A262" s="21" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="8" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="8" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="8" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A270" s="21" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="8" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="8" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="8" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="8" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="8" t="s">
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -5963,24 +6072,24 @@
       <c r="A27" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -6176,14 +6285,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -6541,12 +6650,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -8020,7 +8129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8F9747-A2EE-4BE5-A71A-80F69BEAC41E}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -8165,7 +8274,7 @@
       <c r="A16" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>757</v>
       </c>
     </row>

--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herczog.adam\Desktop\Adanos93-main\Adanos93\!Tanulnivaló\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E45C337-9CD3-48C3-9AA5-85165E586693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0362498-6888-413B-93F3-590A065A7BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14985" yWindow="1920" windowWidth="25950" windowHeight="11385" firstSheet="7" activeTab="11" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="7236" yWindow="2196" windowWidth="23352" windowHeight="12696" firstSheet="7" activeTab="8" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="934">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -3159,9 +3159,6 @@
     <t>a json-server telepítése globálisan javasolt, mivel így tudod indítani a parancssorból is és elérhető lesz az összes projektedben.</t>
   </si>
   <si>
-    <t>json-server --watch fájl elérése</t>
-  </si>
-  <si>
     <t>figyeli a JSON fájlt a szerver, ha módosul. Ezenkívül elindul és lehet neki kéréseket küldeni. Ki fogja írni, hogy melyik porton fut, alapból a 3000 lesz, de ezt meg is változtathatod.</t>
   </si>
   <si>
@@ -3228,9 +3225,6 @@
     <t>Header</t>
   </si>
   <si>
-    <t>a kérés része az első sor után következő header sorok. Ezek további adatokat tartalmaznak a kérésről és mindig ﻿HEADER: VALUEformában vannak megadva.</t>
-  </si>
-  <si>
     <t>GET Response</t>
   </si>
   <si>
@@ -3612,6 +3606,173 @@
   </si>
   <si>
     <t>az utolsó oktatt (pl.: 57) azonosítja az állomást</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Azt jelenti, hogy JavaScript Object Notation. Egy szabványos adat leíró formátum, amivel egyszerűen lehet az adatokat küldeni alkalmazások között vagy az interneten keresztül.
+Tehát arra való, hogy adatot küldözgethess a szervernek, onnan is tudj fogadni dolgokat, sőt akár más programok is megértik.</t>
+  </si>
+  <si>
+    <t>csak objektum vagy tömb lehet az alapja ([]{}),
+objektum esetén a kulcsokat és a string típusú értékeket is idézőjelek közé kell tenni ("") ,
+az érték csak string, number, boolean, JSON object, JSON array vagy null típusú lehet.
+ha muszáj idézőjeleket használni az értékekben, azt eszképelni kell (\) .</t>
+  </si>
+  <si>
+    <t>﻿JSON.parse</t>
+  </si>
+  <si>
+    <t>A ﻿parse metódussal tudod a JSON stringet újra objektummá alakítani.
+Tehát a JSON az egy string. Ha szeretnéd úgy használni a benne lévő adatokat, mint tömb vagy objektum elemeket, akkor vissza kell alakítani változóvá, hogy újra objektum legyen.</t>
+  </si>
+  <si>
+    <t>﻿JSON.stringify</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ﻿stringify metódussal pedig az objektumokat vagy tömböket lehet JSON-izálni.
+Ekkor készít belőlük egy JSON stringet a JS, ezt pedig küldhetjük a szervernek vagy másik alkalmazásnak is.</t>
+  </si>
+  <si>
+    <t>Mi is az az aszinkron művelet?</t>
+  </si>
+  <si>
+    <t>A JavaScript egy ún. non-blocking nyelv, mely azt jelenti, hogy a lassabb műveleteket másik szálon futtatja, így a következő utasítás akkor is elindul és végrehajtódik, ha a lassabb művelet még nem fejeződött be. Mivel előre nem tudhatjuk, hogy az így párhuzamosan futtatott aszinkron művelet mikor ér véget, ezért azt sem tudhatjuk, hogy annak eredménye mikor áll rendelkezésre.</t>
+  </si>
+  <si>
+    <t>Callback függvény</t>
+  </si>
+  <si>
+    <t>Az aszinkron művelet eredményét a fő szálban nem használhatjuk, de átadhatunk egy olyan függvényt az aszinkron műveletnek, melyet akkor fog meghívni, amikor befejezte a végrehajtást, és visszatérhet a fő szálba. Ezt a függvényt hívjuk callback függvénynek.</t>
+  </si>
+  <si>
+    <t>Tulajdonképpen a ﻿button.addEventListener﻿﻿(′click′  buttonClickHandler) utasításban a ﻿buttonClickHandler egy callback függvény, mely azután hajtódik végre, hogy a JavaScript kódunk már teljesen lefutott.</t>
+  </si>
+  <si>
+    <t>setTimeout()</t>
+  </si>
+  <si>
+    <t>Függvény késleltetése</t>
+  </si>
+  <si>
+    <t>Promise</t>
+  </si>
+  <si>
+    <t>Promise állapotok</t>
+  </si>
+  <si>
+    <t>fulfilled: vagyis teljesített, ha az aszinkron művelet sikeresen lefutott,
+rejected: ha az aszinkron művelet sikertelen volt,
+pending: ha a művelet még fut,
+settled: ha az aszinkron hívás már megtörtént, függetlenül a sikerességétől</t>
+  </si>
+  <si>
+    <t>A ﻿Promise egy aszinkron hívást körbeölelő objektum, amely a művelet aktuális állapotát hordozza magában. Minden ﻿Promise egyetlen egyszer futhat le, és a futás eredménye csak sikeres vagy sikertelen lehet. Az eredménytől függően képes a megfelelő ﻿callback﻿ metódusokat meghívni.
+A specifikáció a ﻿Promise objektumoktól egyetlen metódust követel meg, a ﻿then( )-t. Ez a függvény két ﻿callback paramétert vár melyeket attól függően hív meg, hogy milyen eredménnyel fog járni az aszinkron művelet.</t>
+  </si>
+  <si>
+    <t>const myPromise = new Promise( (resolve, reject) =&gt; {
+    setTimeout( () =&gt; {
+        resolve({Kulcs: "Ezzel együtt megjelenik"});
+    }, 3000);
+});
+myPromise.then(
+    data =&gt; console.log(data),
+    err =&gt; console.error(err)
+);</t>
+  </si>
+  <si>
+    <t>A ﻿Promise﻿-nak két paramétert adtunk. Az egyik a ﻿resolve﻿, a másik a ﻿reject﻿. Mindkettő egy-egy függvény. A ﻿resolve﻿-ot akkor hívjuk meg, ha megfelelően futott le a folyamat, a ﻿reject﻿-et pedig akkor, ha valamilyen hiba történt. Ha bármelyik függvény meghívásra kerül, a ﻿Promise﻿ megszűnik létezni. Egy ﻿Promise﻿-ra csak az egyiket lehet meghívni. Mindkettő függvény paraméterezhető is ha szükség van rá.</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>egy ﻿boolean﻿, azaz hogy van-e találatunk vagy nincs. Azaz megnézzük, hogy a tömbünkben van-e olyan objektum, ahol a kulcs egyenlő a megadott értékkel.</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>Hibakezelésre van</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promise.all()﻿ </t>
+  </si>
+  <si>
+    <t>new Promise()</t>
+  </si>
+  <si>
+    <t>Akkor aktiválódik, amikor a bele foglalt többi Promise lefut</t>
+  </si>
+  <si>
+    <t>https://babeljs.io/docs/en/learn/#ecmascript-2015-features-promises</t>
+  </si>
+  <si>
+    <t>Fetch</t>
+  </si>
+  <si>
+    <t>Futtatáshoz szükséges PowerShellben a Scriptek engedélyezése: 
+Set-ExecutionPolicy -Scope CurrentUser -ExecutionPolicy Unrestricted
+Visszaállítás: 
+Set-ExecutionPolicy -Scope CurrentUser -ExecutionPolicy Restricted</t>
+  </si>
+  <si>
+    <t>a kérés része az első sor után következő header sorok. Ezek további adatokat tartalmaznak a kérésről és mindig ﻿HEADER: VALUE formában vannak megadva.</t>
+  </si>
+  <si>
+    <t>json-server --watch fájl elérési útvonala</t>
+  </si>
+  <si>
+    <t>let fetchInit = {
+  method: "GET",
+	headers: new Headers(),
+	mode: "cors",
+	cache: "default"
+};
+fetch("http://localhost:3000/users", fetchInit).then(
+	data =&gt; data.json(),
+	err =&gt; console.error(err)
+).then(
+	users =&gt; console.log(users)
+);
+Firefox nem szereti</t>
+  </si>
+  <si>
+    <t>A ﻿Fetch  API a még callback függvényt használó ﻿XMLHttpRequest kiváltására jött létre. Mind Google, mind Mozilla bácsi támogatja már a használatát. Különválasztották a kérést és a választ, valamint egyszerűbb a szintaxis, és könnyebb egyéni header-öket beállítani.
+A gyakorlatban: elkérünk egy JSON formátumú adatot, és belerakjuk egy változóba.
+https://developer.mozilla.org/en-US/docs/Web/API/Fetch_API</t>
+  </si>
+  <si>
+    <t>npm i bootstrap</t>
+  </si>
+  <si>
+    <t>bootrap letöltése</t>
+  </si>
+  <si>
+    <t>A DELETE metódus</t>
+  </si>
+  <si>
+    <t>Ahogy a neve is mutatja, a DELETE metódus a HTTP szabványban az erőforrások törlésére van. Ha ilyen metódussal küldesz egy kérést a szervernek, akkor tudni fogja, hogy törölni szeretnél valamilyen adatot.</t>
+  </si>
+  <si>
+    <t>Biztonság</t>
+  </si>
+  <si>
+    <t>Az adatok törlésénél körültekintően kell eljárnod. Az a minimum, hogy felteszel egy biztonsági kérdést, hogy tényleg törölni akarja-e az erőforrást a program kezelője?</t>
+  </si>
+  <si>
+    <t>A ﻿confirm( ) metódus ﻿true﻿ értékkel tér vissza, ha az okét választották, egyébként ﻿false﻿ a visszatérési érték. Ezt vizsgálom egy ﻿if kifejezéssel. Azért nincs ﻿else﻿ ága az ﻿if﻿-nek, mivel ha arra kattintottak, hogy mégsem, akkor nem kell csinálni semmit.</t>
+  </si>
+  <si>
+    <t>Live server ignore</t>
+  </si>
+  <si>
+    <t>https://github.com/ritwickdey/vscode-live-server/blob/master/docs/settings.md</t>
+  </si>
+  <si>
+    <t>liveServer.settings.ignoreFiles</t>
   </si>
 </sst>
 </file>
@@ -3719,7 +3880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3784,18 +3945,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3808,6 +3957,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -3959,6 +4121,251 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10241" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453FC10C-CD2C-4B50-9072-CAFD49EB00D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6598920" y="22311360"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10242" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1DB123-C117-4C49-BE3B-B93FD2D01AA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6598920" y="21945600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10243" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66884279-69CE-409D-9FCD-10A1293B9EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6598920" y="21945600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10244" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F065A5F5-FAEA-46F5-8756-C070BC535975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6598920" y="21945600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10245" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178EBDC6-954A-476C-91A1-87216E3C2B6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6598920" y="22311360"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4662,14 +5069,14 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -4677,7 +5084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4685,7 +5092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4693,7 +5100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4701,7 +5108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4709,7 +5116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4717,7 +5124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4725,7 +5132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -4733,7 +5140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -4741,7 +5148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -4749,7 +5156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -4757,7 +5164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -4765,7 +5172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -4773,7 +5180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -4781,7 +5188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -4789,7 +5196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -4797,7 +5204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -4805,7 +5212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -4813,7 +5220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -4821,7 +5228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -4829,7 +5236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -4837,7 +5244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -4845,7 +5252,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -4853,7 +5260,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -4861,7 +5268,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -4869,7 +5276,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -4877,7 +5284,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>107</v>
       </c>
@@ -4885,7 +5292,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>108</v>
       </c>
@@ -4893,7 +5300,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -4911,19 +5318,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD87432E-A911-440C-94A4-5F5B5CF92783}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="66.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.140625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="37.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.109375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>465</v>
       </c>
@@ -4934,7 +5341,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>467</v>
       </c>
@@ -4942,7 +5349,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>470</v>
       </c>
@@ -4950,7 +5357,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>471</v>
       </c>
@@ -4958,7 +5365,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>472</v>
       </c>
@@ -4966,7 +5373,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>474</v>
       </c>
@@ -4977,7 +5384,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>479</v>
       </c>
@@ -4985,7 +5392,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>480</v>
       </c>
@@ -4993,7 +5400,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>473</v>
       </c>
@@ -5001,7 +5408,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>485</v>
       </c>
@@ -5009,7 +5416,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>487</v>
       </c>
@@ -5020,7 +5427,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>490</v>
       </c>
@@ -5028,7 +5435,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>492</v>
       </c>
@@ -5039,7 +5446,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>495</v>
       </c>
@@ -5050,7 +5457,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>498</v>
       </c>
@@ -5058,7 +5465,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>503</v>
       </c>
@@ -5069,7 +5476,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>502</v>
       </c>
@@ -5080,7 +5487,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>544</v>
       </c>
@@ -5088,7 +5495,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>506</v>
       </c>
@@ -5096,7 +5503,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>508</v>
       </c>
@@ -5104,7 +5511,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>510</v>
       </c>
@@ -5112,7 +5519,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>511</v>
       </c>
@@ -5120,7 +5527,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>514</v>
       </c>
@@ -5128,7 +5535,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>515</v>
       </c>
@@ -5136,7 +5543,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>516</v>
       </c>
@@ -5144,7 +5551,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>517</v>
       </c>
@@ -5152,12 +5559,12 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>523</v>
       </c>
@@ -5165,7 +5572,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>524</v>
       </c>
@@ -5176,7 +5583,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>525</v>
       </c>
@@ -5184,7 +5591,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>530</v>
       </c>
@@ -5192,7 +5599,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>534</v>
       </c>
@@ -5203,7 +5610,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>535</v>
       </c>
@@ -5214,7 +5621,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>538</v>
       </c>
@@ -5225,7 +5632,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>541</v>
       </c>
@@ -5233,7 +5640,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>545</v>
       </c>
@@ -5244,7 +5651,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>547</v>
       </c>
@@ -5252,7 +5659,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>549</v>
       </c>
@@ -5260,7 +5667,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>551</v>
       </c>
@@ -5268,7 +5675,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>554</v>
       </c>
@@ -5279,7 +5686,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>556</v>
       </c>
@@ -5287,7 +5694,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>558</v>
       </c>
@@ -5298,7 +5705,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>563</v>
       </c>
@@ -5309,7 +5716,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>565</v>
       </c>
@@ -5317,27 +5724,27 @@
         <v>566</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>567</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="31" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>568</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C54" s="26"/>
-    </row>
-    <row r="55" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="C54" s="31"/>
+    </row>
+    <row r="55" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>572</v>
       </c>
@@ -5345,7 +5752,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>574</v>
       </c>
@@ -5353,7 +5760,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>576</v>
       </c>
@@ -5361,7 +5768,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>578</v>
       </c>
@@ -5372,7 +5779,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>581</v>
       </c>
@@ -5397,21 +5804,50 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCFD60-DE44-43C9-8840-BD496C075B3B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="1" max="16384" width="60.5546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -5423,158 +5859,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DC77A1-EADA-4759-AC14-926B264333CB}">
   <dimension ref="A1:B324"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A302" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A302" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A325" sqref="A325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="113.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="113.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="6"/>
-    <col min="2" max="16384" width="113.7109375" style="8"/>
+    <col min="1" max="1" width="113.6640625" style="6"/>
+    <col min="2" max="16384" width="113.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>633</v>
       </c>
       <c r="B31" s="16"/>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
         <v>634</v>
       </c>
@@ -5582,7 +6018,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>635</v>
       </c>
@@ -5590,23 +6026,23 @@
         <v>651</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="16" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>636</v>
       </c>
@@ -5614,63 +6050,63 @@
         <v>655</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="22" t="s">
         <v>645</v>
       </c>
       <c r="B50" s="16"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>646</v>
       </c>
@@ -5678,18 +6114,18 @@
         <v>658</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20"/>
       <c r="B53" s="16" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>647</v>
       </c>
@@ -5697,28 +6133,28 @@
         <v>661</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="20"/>
       <c r="B58" s="16" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>648</v>
       </c>
@@ -5726,13 +6162,13 @@
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20"/>
       <c r="B60" s="16" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>649</v>
       </c>
@@ -5740,67 +6176,67 @@
         <v>667</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
         <v>680</v>
       </c>
@@ -5808,23 +6244,23 @@
         <v>681</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="21" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="19" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="20" t="s">
         <v>684</v>
       </c>
       <c r="B125" s="16"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>685</v>
       </c>
@@ -5832,33 +6268,33 @@
         <v>687</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="20"/>
       <c r="B131" s="16" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>693</v>
       </c>
@@ -5866,26 +6302,26 @@
         <v>694</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="21" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="20"/>
       <c r="B147" s="16"/>
     </row>
-    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>686</v>
       </c>
@@ -5893,48 +6329,48 @@
         <v>699</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A152" s="19" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="20" t="s">
         <v>715</v>
       </c>
       <c r="B158" s="16"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>716</v>
       </c>
@@ -5942,18 +6378,18 @@
         <v>717</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="20"/>
       <c r="B161" s="16" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>720</v>
       </c>
@@ -5961,447 +6397,447 @@
         <v>721</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A184" s="19" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A188" s="19" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A194" s="19" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B200" s="8" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B208" s="8" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="8" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="8" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="8" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="8" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="8" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="8" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="8" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="8" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A262" s="19" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="6" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="6" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="6" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="6" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="6" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="6" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="6" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="s">
+    <row r="270" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A270" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="6" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="6" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="6" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A270" s="19" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="6" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="6" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="6" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="6" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="6" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="6" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="6" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="6" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A278" s="19" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A279" s="6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A280" s="6" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="279" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A279" s="6" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="6" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="6" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="6" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="6" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="6" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="6" t="s">
+    <row r="284" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A284" s="6" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="6" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="6" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="s">
+    <row r="287" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A287" s="19" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="6" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A287" s="19" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="6" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="6" t="s">
+    <row r="290" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A290" s="6" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="6" t="s">
+    <row r="292" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A292" s="19" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="6" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="6" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A292" s="19" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="6" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="6" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="6" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="6" t="s">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="6" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="6" t="s">
+    <row r="298" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A298" s="19" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="6" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="6" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A298" s="19" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="6" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="6" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="6" t="s">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="6" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="s">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="6" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="6" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="6" t="s">
+    <row r="305" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A305" s="6" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="6" t="s">
+    <row r="306" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A306" s="6" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A305" s="6" t="s">
+    <row r="307" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A307" s="6" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A306" s="6" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="6" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A307" s="6" t="s">
+    <row r="309" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A309" s="6" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="6" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="6" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A309" s="6" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="6" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="6" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="26" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="6" t="s">
+      <c r="B313" s="27"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="6" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="30" t="s">
+      <c r="B314" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="B313" s="31"/>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="s">
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B315" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="B314" s="8" t="s">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B316" s="8" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B315" s="8" t="s">
+    <row r="317" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A317" s="6" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="8" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="26" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A317" s="6" t="s">
+      <c r="B318" s="27"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="6" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="30" t="s">
+      <c r="B319" s="8" t="s">
         <v>884</v>
       </c>
-      <c r="B318" s="31"/>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="6" t="s">
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B320" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="B319" s="8" t="s">
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="6" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B320" s="8" t="s">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="6" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="6" t="s">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="6" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="6" t="s">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="6" t="s">
         <v>889</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="6" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="6" t="s">
-        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -6419,259 +6855,259 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="102.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="102.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="63.109375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="17" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>814</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B23" s="11" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="25" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="26" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+    <row r="29" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B29" s="11" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="30" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B31" s="11" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>836</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B34" s="11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="B34" s="11" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>839</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>843</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -6687,13 +7123,13 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -6701,7 +7137,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -6709,7 +7145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -6717,7 +7153,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -6725,7 +7161,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>301</v>
       </c>
@@ -6733,7 +7169,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -6741,7 +7177,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -6749,7 +7185,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -6757,7 +7193,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -6765,7 +7201,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -6787,15 +7223,15 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="74.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>65</v>
       </c>
@@ -6803,7 +7239,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
@@ -6811,7 +7247,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>67</v>
       </c>
@@ -6819,7 +7255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
@@ -6827,7 +7263,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -6835,7 +7271,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>95</v>
       </c>
@@ -6843,7 +7279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>100</v>
       </c>
@@ -6851,7 +7287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>101</v>
       </c>
@@ -6859,7 +7295,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>103</v>
       </c>
@@ -6867,7 +7303,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>111</v>
       </c>
@@ -6875,7 +7311,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>113</v>
       </c>
@@ -6883,7 +7319,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>115</v>
       </c>
@@ -6891,7 +7327,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>117</v>
       </c>
@@ -6899,7 +7335,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>119</v>
       </c>
@@ -6907,7 +7343,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>121</v>
       </c>
@@ -6915,7 +7351,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>131</v>
       </c>
@@ -6923,7 +7359,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>75</v>
       </c>
@@ -6931,7 +7367,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>123</v>
       </c>
@@ -6939,7 +7375,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>125</v>
       </c>
@@ -6947,7 +7383,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>127</v>
       </c>
@@ -6955,60 +7391,60 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="24" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>144</v>
       </c>
@@ -7016,7 +7452,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>146</v>
       </c>
@@ -7024,18 +7460,18 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>151</v>
       </c>
@@ -7043,7 +7479,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>153</v>
       </c>
@@ -7051,15 +7487,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>155</v>
       </c>
@@ -7067,7 +7503,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>159</v>
       </c>
@@ -7075,7 +7511,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>161</v>
       </c>
@@ -7083,23 +7519,23 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>169</v>
       </c>
@@ -7107,7 +7543,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>171</v>
       </c>
@@ -7115,7 +7551,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>173</v>
       </c>
@@ -7123,7 +7559,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>175</v>
       </c>
@@ -7131,7 +7567,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>177</v>
       </c>
@@ -7164,24 +7600,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>180</v>
       </c>
@@ -7189,7 +7625,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>182</v>
       </c>
@@ -7197,7 +7633,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>183</v>
       </c>
@@ -7205,7 +7641,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>186</v>
       </c>
@@ -7213,7 +7649,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>187</v>
       </c>
@@ -7221,7 +7657,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>190</v>
       </c>
@@ -7245,23 +7681,23 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.44140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>194</v>
       </c>
@@ -7269,7 +7705,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>195</v>
       </c>
@@ -7277,7 +7713,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>197</v>
       </c>
@@ -7285,12 +7721,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>200</v>
       </c>
@@ -7298,12 +7734,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>203</v>
       </c>
@@ -7311,7 +7747,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>204</v>
       </c>
@@ -7319,7 +7755,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>208</v>
       </c>
@@ -7327,12 +7763,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>211</v>
       </c>
@@ -7353,13 +7789,13 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -7367,7 +7803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -7375,7 +7811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -7383,7 +7819,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -7391,7 +7827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -7399,7 +7835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -7407,7 +7843,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -7415,7 +7851,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -7423,7 +7859,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -7431,7 +7867,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -7439,7 +7875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -7460,14 +7896,14 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="22.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>436</v>
       </c>
@@ -7475,7 +7911,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>438</v>
       </c>
@@ -7483,7 +7919,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>440</v>
       </c>
@@ -7491,7 +7927,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>442</v>
       </c>
@@ -7499,7 +7935,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>444</v>
       </c>
@@ -7507,7 +7943,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>446</v>
       </c>
@@ -7528,23 +7964,23 @@
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="30.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>213</v>
       </c>
@@ -7552,12 +7988,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>217</v>
       </c>
@@ -7565,7 +8001,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>218</v>
       </c>
@@ -7573,7 +8009,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>220</v>
       </c>
@@ -7581,7 +8017,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>222</v>
       </c>
@@ -7589,7 +8025,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>225</v>
       </c>
@@ -7597,7 +8033,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>227</v>
       </c>
@@ -7605,7 +8041,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>229</v>
       </c>
@@ -7613,12 +8049,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>232</v>
       </c>
@@ -7626,7 +8062,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>234</v>
       </c>
@@ -7634,7 +8070,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>127</v>
       </c>
@@ -7642,7 +8078,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>237</v>
       </c>
@@ -7650,7 +8086,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>239</v>
       </c>
@@ -7658,7 +8094,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>241</v>
       </c>
@@ -7666,7 +8102,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>243</v>
       </c>
@@ -7674,7 +8110,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>244</v>
       </c>
@@ -7682,7 +8118,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>247</v>
       </c>
@@ -7690,7 +8126,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>249</v>
       </c>
@@ -7698,7 +8134,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>251</v>
       </c>
@@ -7706,7 +8142,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>253</v>
       </c>
@@ -7714,7 +8150,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>255</v>
       </c>
@@ -7722,7 +8158,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>257</v>
       </c>
@@ -7730,7 +8166,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>259</v>
       </c>
@@ -7738,7 +8174,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>261</v>
       </c>
@@ -7746,7 +8182,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>264</v>
       </c>
@@ -7754,7 +8190,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>263</v>
       </c>
@@ -7762,7 +8198,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>265</v>
       </c>
@@ -7770,7 +8206,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>269</v>
       </c>
@@ -7778,7 +8214,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>270</v>
       </c>
@@ -7786,10 +8222,10 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>273</v>
       </c>
@@ -7797,7 +8233,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>275</v>
       </c>
@@ -7805,7 +8241,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>277</v>
       </c>
@@ -7813,7 +8249,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>279</v>
       </c>
@@ -7821,7 +8257,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>281</v>
       </c>
@@ -7829,7 +8265,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>399</v>
       </c>
@@ -7837,17 +8273,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>401</v>
       </c>
       <c r="B45" s="13"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="13"/>
     </row>
-    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>402</v>
       </c>
@@ -7855,7 +8291,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>404</v>
       </c>
@@ -7863,11 +8299,11 @@
         <v>405</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="13"/>
     </row>
-    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>406</v>
       </c>
@@ -7875,11 +8311,11 @@
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="13"/>
     </row>
-    <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>408</v>
       </c>
@@ -7887,11 +8323,11 @@
         <v>409</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="13"/>
     </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>410</v>
       </c>
@@ -7899,11 +8335,11 @@
         <v>411</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>412</v>
       </c>
@@ -7911,7 +8347,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>414</v>
       </c>
@@ -7919,7 +8355,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>416</v>
       </c>
@@ -7927,7 +8363,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>418</v>
       </c>
@@ -7935,7 +8371,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>420</v>
       </c>
@@ -7943,7 +8379,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>422</v>
       </c>
@@ -7951,11 +8387,11 @@
         <v>423</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="13"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>424</v>
       </c>
@@ -7963,11 +8399,11 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="13"/>
     </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>426</v>
       </c>
@@ -7975,7 +8411,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>428</v>
       </c>
@@ -7983,7 +8419,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>430</v>
       </c>
@@ -7991,7 +8427,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>432</v>
       </c>
@@ -7999,7 +8435,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>434</v>
       </c>
@@ -8007,7 +8443,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>287</v>
       </c>
@@ -8015,7 +8451,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>283</v>
       </c>
@@ -8023,12 +8459,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>288</v>
       </c>
@@ -8036,15 +8472,15 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>290</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>292</v>
       </c>
@@ -8052,7 +8488,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B78" s="9" t="s">
         <v>294</v>
       </c>
@@ -8060,7 +8496,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
         <v>296</v>
       </c>
@@ -8068,12 +8504,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B80" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>299</v>
       </c>
@@ -8081,7 +8517,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>302</v>
       </c>
@@ -8092,7 +8528,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B84" s="9" t="s">
         <v>305</v>
       </c>
@@ -8100,7 +8536,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B85" s="9" t="s">
         <v>307</v>
       </c>
@@ -8108,7 +8544,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" s="9" t="s">
         <v>309</v>
       </c>
@@ -8116,12 +8552,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B87" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B88" s="9" t="s">
         <v>312</v>
       </c>
@@ -8129,7 +8565,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B89" s="9" t="s">
         <v>314</v>
       </c>
@@ -8137,7 +8573,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>316</v>
       </c>
@@ -8145,7 +8581,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>318</v>
       </c>
@@ -8153,7 +8589,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>320</v>
       </c>
@@ -8161,7 +8597,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>322</v>
       </c>
@@ -8169,7 +8605,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>324</v>
       </c>
@@ -8177,7 +8613,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>325</v>
       </c>
@@ -8185,7 +8621,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>327</v>
       </c>
@@ -8193,7 +8629,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>329</v>
       </c>
@@ -8201,7 +8637,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>331</v>
       </c>
@@ -8209,7 +8645,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>333</v>
       </c>
@@ -8217,7 +8653,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>336</v>
       </c>
@@ -8225,7 +8661,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>338</v>
       </c>
@@ -8233,7 +8669,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B105" s="9" t="s">
         <v>340</v>
       </c>
@@ -8241,7 +8677,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>341</v>
       </c>
@@ -8249,7 +8685,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B107" s="9" t="s">
         <v>342</v>
       </c>
@@ -8257,7 +8693,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B108" s="9" t="s">
         <v>344</v>
       </c>
@@ -8265,7 +8701,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>346</v>
       </c>
@@ -8273,7 +8709,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>349</v>
       </c>
@@ -8281,7 +8717,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>351</v>
       </c>
@@ -8289,7 +8725,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>353</v>
       </c>
@@ -8297,7 +8733,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>355</v>
       </c>
@@ -8305,7 +8741,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>357</v>
       </c>
@@ -8313,7 +8749,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>359</v>
       </c>
@@ -8324,7 +8760,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>361</v>
       </c>
@@ -8332,7 +8768,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>363</v>
       </c>
@@ -8340,7 +8776,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>365</v>
       </c>
@@ -8348,7 +8784,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>368</v>
       </c>
@@ -8356,7 +8792,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>370</v>
       </c>
@@ -8364,7 +8800,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>372</v>
       </c>
@@ -8372,7 +8808,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>374</v>
       </c>
@@ -8380,7 +8816,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>376</v>
       </c>
@@ -8388,7 +8824,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>379</v>
       </c>
@@ -8396,7 +8832,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>378</v>
       </c>
@@ -8404,7 +8840,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>380</v>
       </c>
@@ -8412,7 +8848,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>381</v>
       </c>
@@ -8420,7 +8856,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>386</v>
       </c>
@@ -8431,7 +8867,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>234</v>
       </c>
@@ -8442,7 +8878,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>392</v>
       </c>
@@ -8450,7 +8886,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>393</v>
       </c>
@@ -8461,7 +8897,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>394</v>
       </c>
@@ -8472,7 +8908,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>287</v>
       </c>
@@ -8480,7 +8916,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>283</v>
       </c>
@@ -8488,12 +8924,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>288</v>
       </c>
@@ -8501,7 +8937,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>290</v>
       </c>
@@ -8509,7 +8945,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>292</v>
       </c>
@@ -8517,7 +8953,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B149" s="9" t="s">
         <v>294</v>
       </c>
@@ -8525,7 +8961,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B150" s="9" t="s">
         <v>296</v>
       </c>
@@ -8533,12 +8969,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B151" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>299</v>
       </c>
@@ -8546,7 +8982,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>302</v>
       </c>
@@ -8557,7 +8993,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B155" s="9" t="s">
         <v>305</v>
       </c>
@@ -8565,7 +9001,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B156" s="9" t="s">
         <v>307</v>
       </c>
@@ -8573,7 +9009,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B157" s="9" t="s">
         <v>309</v>
       </c>
@@ -8581,12 +9017,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B158" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B159" s="9" t="s">
         <v>312</v>
       </c>
@@ -8594,7 +9030,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B160" s="9" t="s">
         <v>314</v>
       </c>
@@ -8602,7 +9038,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B161" s="9" t="s">
         <v>316</v>
       </c>
@@ -8610,7 +9046,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>318</v>
       </c>
@@ -8618,7 +9054,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>320</v>
       </c>
@@ -8626,7 +9062,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>322</v>
       </c>
@@ -8634,7 +9070,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>324</v>
       </c>
@@ -8642,7 +9078,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>325</v>
       </c>
@@ -8650,7 +9086,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>327</v>
       </c>
@@ -8658,7 +9094,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>329</v>
       </c>
@@ -8666,7 +9102,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>331</v>
       </c>
@@ -8674,7 +9110,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>333</v>
       </c>
@@ -8682,7 +9118,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>336</v>
       </c>
@@ -8690,7 +9126,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>338</v>
       </c>
@@ -8698,7 +9134,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B176" s="9" t="s">
         <v>340</v>
       </c>
@@ -8706,7 +9142,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B177" s="9" t="s">
         <v>341</v>
       </c>
@@ -8714,7 +9150,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B178" s="9" t="s">
         <v>342</v>
       </c>
@@ -8722,7 +9158,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B179" s="9" t="s">
         <v>344</v>
       </c>
@@ -8730,7 +9166,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>346</v>
       </c>
@@ -8738,7 +9174,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>349</v>
       </c>
@@ -8746,7 +9182,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>351</v>
       </c>
@@ -8754,7 +9190,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>353</v>
       </c>
@@ -8762,7 +9198,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>355</v>
       </c>
@@ -8770,7 +9206,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>357</v>
       </c>
@@ -8778,7 +9214,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="232.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="232.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>359</v>
       </c>
@@ -8789,7 +9225,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>361</v>
       </c>
@@ -8797,7 +9233,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>363</v>
       </c>
@@ -8805,7 +9241,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>365</v>
       </c>
@@ -8813,7 +9249,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>368</v>
       </c>
@@ -8821,7 +9257,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>370</v>
       </c>
@@ -8829,7 +9265,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>372</v>
       </c>
@@ -8837,7 +9273,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>374</v>
       </c>
@@ -8845,7 +9281,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>376</v>
       </c>
@@ -8853,7 +9289,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>379</v>
       </c>
@@ -8861,7 +9297,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>378</v>
       </c>
@@ -8869,7 +9305,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>380</v>
       </c>
@@ -8877,7 +9313,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>381</v>
       </c>
@@ -8885,7 +9321,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>386</v>
       </c>
@@ -8896,7 +9332,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>234</v>
       </c>
@@ -8907,7 +9343,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>392</v>
       </c>
@@ -8915,7 +9351,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>393</v>
       </c>
@@ -8929,7 +9365,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>394</v>
       </c>
@@ -8940,7 +9376,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>449</v>
       </c>
@@ -8951,7 +9387,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>450</v>
       </c>
@@ -8959,7 +9395,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>454</v>
       </c>
@@ -8970,7 +9406,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>457</v>
       </c>
@@ -8981,7 +9417,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>460</v>
       </c>
@@ -8992,7 +9428,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>463</v>
       </c>
@@ -9014,21 +9450,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8F9747-A2EE-4BE5-A71A-80F69BEAC41E}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="11"/>
+    <col min="1" max="1" width="26.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>584</v>
       </c>
@@ -9036,7 +9472,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>586</v>
       </c>
@@ -9044,7 +9480,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>589</v>
       </c>
@@ -9052,7 +9488,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>590</v>
       </c>
@@ -9060,7 +9496,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>591</v>
       </c>
@@ -9071,7 +9507,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>594</v>
       </c>
@@ -9079,7 +9515,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>597</v>
       </c>
@@ -9087,7 +9523,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>598</v>
       </c>
@@ -9095,7 +9531,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>599</v>
       </c>
@@ -9103,7 +9539,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>600</v>
       </c>
@@ -9114,7 +9550,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>609</v>
       </c>
@@ -9122,7 +9558,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>601</v>
       </c>
@@ -9133,7 +9569,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>611</v>
       </c>
@@ -9141,7 +9577,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>614</v>
       </c>
@@ -9149,7 +9585,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>753</v>
       </c>
@@ -9157,7 +9593,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>755</v>
       </c>
@@ -9165,7 +9601,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>757</v>
       </c>
@@ -9173,65 +9609,200 @@
         <v>758</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="B19" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="B19" s="11" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="B20" s="11" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="C21" s="11" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="B22" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B23" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>771</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>772</v>
+    </row>
+    <row r="25" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>912</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>913</v>
+      </c>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>925</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C35" r:id="rId1" location="ecmascript-2015-features-promises" xr:uid="{BBA86228-A469-4445-9AB7-56FDA65452F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0362498-6888-413B-93F3-590A065A7BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F10616B-C8BC-4350-96BC-9206747B1979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7236" yWindow="2196" windowWidth="23352" windowHeight="12696" firstSheet="7" activeTab="8" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="13956" yWindow="3444" windowWidth="23352" windowHeight="12696" firstSheet="5" activeTab="11" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="1019">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -3774,12 +3774,276 @@
   <si>
     <t>liveServer.settings.ignoreFiles</t>
   </si>
+  <si>
+    <t>Alhálózati maszk (Subnet Mask)</t>
+  </si>
+  <si>
+    <t>Minden IP cím mellett van egy alhálózati maszk, mely jelöli, hogy az IP cím mely része a hálózat, és mely része a hosz azonosító.</t>
+  </si>
+  <si>
+    <t>Az alhálózati maszkot összehasonlítjuk az IP címmel, balról jobbra, bitről bitre.</t>
+  </si>
+  <si>
+    <t>Az egyesek az alhálózati maszkban a hálózati részt jelentik, a nullák jelentik az állomás részt.</t>
+  </si>
+  <si>
+    <t>Otthoni hálózatban a 255.0.0.0 (8bit), 255.255.0.0 (16 bit) és 255.255.255.0 (24 bit) a leggyakoribb maszk.</t>
+  </si>
+  <si>
+    <t>Példa:
+IP: 192.168.18.57, maszk: 255.255.255.0
+IP címek: 1-254
+192.168.18.0 a hálózati cím
+192.168.18.255 broadcast cím
+Subneteléssel feloszható a hálózat alhálózatokra
+127.0.0.1/255.0.0.0 loopback</t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>Hálózati címfordítás (Network Address Translation)</t>
+  </si>
+  <si>
+    <t>Segítségével egy belső privát hálózat gépeinek IP címeit teljesen elrejthetjük a külső hálózat nyilvánossága elött.</t>
+  </si>
+  <si>
+    <t>A gépek úgy kerülnek kapcsolatba az Internet publikus hálózatával, hogy ún. átjáró (gateway) gépen, a NAT-oló gépen keresztül kapcsolódnak.</t>
+  </si>
+  <si>
+    <t>A továbbítás során kicseréli a belső hálózat IP címet a saját, publkus IP címére. A külső hálózatból érkező válasz üzenetcsomagoknál ennek az ellenkezőjét teszi, azaz visszacseréli a célállomás IP címét, a belső hálózati IP címre, és a csomagot a belső hálózatra továbbítja.</t>
+  </si>
+  <si>
+    <t>DNS táblák</t>
+  </si>
+  <si>
+    <t>A tartomány olyan számítógépek csoportja, amelyek földrajzi helyük vagy üzleti funkciójuk szerint összetartoznak.</t>
+  </si>
+  <si>
+    <t>A tartományok az Internet címzési problémáját hivatottak megoldani.</t>
+  </si>
+  <si>
+    <t>.hu - Magyarország</t>
+  </si>
+  <si>
+    <t>.us - Egyesült Államok</t>
+  </si>
+  <si>
+    <t>.edu - oktatási helyek</t>
+  </si>
+  <si>
+    <t>.com - kereskedelmi helyek</t>
+  </si>
+  <si>
+    <t>.gov - kormányzati helyek</t>
+  </si>
+  <si>
+    <t>.org - nonprofit helyek</t>
+  </si>
+  <si>
+    <t>.net - hálózati szolgáltatók</t>
+  </si>
+  <si>
+    <t>DNS Szerver</t>
+  </si>
+  <si>
+    <t>Olyan hálózati készülék, amely a tartományneveket kezeli, és az ügyfélprogramok kérésére megadja a tartománynevekhez tartozó IP-címeket.</t>
+  </si>
+  <si>
+    <t>A DNS-rendszer hiearchikusan rendezett DNS-kiszolgálókból áll.</t>
+  </si>
+  <si>
+    <t>Ha a helyi DNS-kiszolgáló ismeri az adott tartománynévhez tartozó IP-címet, akkor az kérésre elküldi az ügyfélnek.</t>
+  </si>
+  <si>
+    <t>Ha nem ismeri az IP-címet, akkor továbbítja a kérést a hierarchiában közvetlenül fölötte álló DNS-kiszolgálónak.</t>
+  </si>
+  <si>
+    <t>SSL/TLS</t>
+  </si>
+  <si>
+    <t>Transport Layer Security (TLS)</t>
+  </si>
+  <si>
+    <t>Elődje a Secure Sockets Layer (SSL)</t>
+  </si>
+  <si>
+    <t>Titkosítási protokollok</t>
+  </si>
+  <si>
+    <t>Az Interneten keresztüli kommunikációhoz biztosítanak védelmet.</t>
+  </si>
+  <si>
+    <t>Pl: https is ezt használja (banki szféra, online vásárlás, stb…)</t>
+  </si>
+  <si>
+    <t>A kliens szerver kapcsolódás egy handshake procedúrán keresztül történik. Ezalatt a kliens és a szerver bizonyos parapéterek összehangolásával biztonságos kapcsolatot létesít egymás között.</t>
+  </si>
+  <si>
+    <t>Hálózati Kártya</t>
+  </si>
+  <si>
+    <t>A hálózati kártyák (NIC) nyomtatott áramoköri lapok, amelyek a számítógépek alaplapján vagy perifériáján levő busz csatlakozójába illeszthetőek.</t>
+  </si>
+  <si>
+    <t>Feladatuk a számítógép és a hálózat átviteli közek összekapcsolása.</t>
+  </si>
+  <si>
+    <t>1. rétegbeli eszköznek tekinthető</t>
+  </si>
+  <si>
+    <t>A világ minden hálózati kártyája egyedi azonosítóval, az ún közegelérési (Media Access Acontrol, MAC) címmel rendelkezik.</t>
+  </si>
+  <si>
+    <t>Repeater (jelismétlő)</t>
+  </si>
+  <si>
+    <t>Nagy távolságok esetény jelismétlőkkel erősítik a jeleket, hogy azok ne haljanak el.</t>
+  </si>
+  <si>
+    <t>Feladata a hálózati jelek bit szintű erősítése és újbóli időzítése.</t>
+  </si>
+  <si>
+    <t>Lehetnek kétportosak, de a mai ismétlők már modulárisan bővíthetőek vagy többportosak.</t>
+  </si>
+  <si>
+    <t>HUB: multiport repeater (többportos ismétlő)</t>
+  </si>
+  <si>
+    <t>1. réteg</t>
+  </si>
+  <si>
+    <t>HUB</t>
+  </si>
+  <si>
+    <t>A hubokat tipikusan helyi hálózatokban használják számítógépek és más eszközök összekötésére.</t>
+  </si>
+  <si>
+    <t>Egyes hubokat passzív eszközöknek neveznek, mert pusztán többfelé osztják a jelet.</t>
+  </si>
+  <si>
+    <t>A passzív HUBok a beérkező csomagokat válogatás nélkül minden az adott HUBra csatlakozó hálózati eszköznek továbbítják.</t>
+  </si>
+  <si>
+    <t>A legmodernebb hubok aktívak, vagyis az áramforrásból kapott energiával felerősítik a hálózati jeleket.</t>
+  </si>
+  <si>
+    <t>Bridge (Híd)</t>
+  </si>
+  <si>
+    <t>A Bridge feladata a forgalom optimális továbbítása a LAN-on.</t>
+  </si>
+  <si>
+    <t>Minden hálózati eszköz rendelkezik egy egyedi MAC-címmel, a híd ez alapján dönti el, hogy továbbítja -e az adatot.</t>
+  </si>
+  <si>
+    <t>2. réteg</t>
+  </si>
+  <si>
+    <t>Switch (kapcsoló)</t>
+  </si>
+  <si>
+    <t>Első látásra gyakran HUBnak látszik.</t>
+  </si>
+  <si>
+    <t>Olyan eszköz, amely hubként biztosít kapcsolatot, és hídként szabályozza a forgalmat minden portján.</t>
+  </si>
+  <si>
+    <t>A kapcsoló a MAC-címek alapján dönt a kapcsolás irányáról.</t>
+  </si>
+  <si>
+    <t>Router (forgalomirányító)</t>
+  </si>
+  <si>
+    <t>Feladata a bejövő csomagok megvizsgálása, a legjobb hálózati útvonal kiválasztása.</t>
+  </si>
+  <si>
+    <t>Csomagok átkapcsolása a megfelelő kimenő portra.</t>
+  </si>
+  <si>
+    <t>A nagyméretű hálózatok legfontosabb forgalomirányító eszközei.</t>
+  </si>
+  <si>
+    <t>Az útválasztás 3. rétegbeli információ - a hálózati cím - alapján végzik.</t>
+  </si>
+  <si>
+    <t>Különböző 2. rétegbeli technológiák - például LAN és WAN - összekapcsolása is képesek.</t>
+  </si>
+  <si>
+    <t>Gateway (átjáró)</t>
+  </si>
+  <si>
+    <t>Különöző protokollokat használó hálózatokat összekapcsoló eszköz.</t>
+  </si>
+  <si>
+    <t>A Gateway feladatát egy router is el tudja látni.</t>
+  </si>
+  <si>
+    <t>ipconfig</t>
+  </si>
+  <si>
+    <t>Megkapjuk az egyes interfészeinknek az IP-címeit, DNS szervercímeket, stb…</t>
+  </si>
+  <si>
+    <t>Az ipconfig /all parancs segítségével részletesebb adatok nyerhetőek ki.</t>
+  </si>
+  <si>
+    <t>A cache-ben lévő DNS szerverek lekérdezhetőkek az ipconfig / displaydns paranccsal</t>
+  </si>
+  <si>
+    <t>A tábla pedig kiüríthető az ipconfig /fkushdns</t>
+  </si>
+  <si>
+    <t>ping</t>
+  </si>
+  <si>
+    <t>Parancs: ping server</t>
+  </si>
+  <si>
+    <t>Távoli számítógép elérhetőségének ellenörzése
+  bytes: A küldött csomagok mérete
+  time: mennyi idő után érkezett válasz
+  ttl: Time To Live (TTL) az adatcsomagok élethossza.</t>
+  </si>
+  <si>
+    <t>Tracert, pathping</t>
+  </si>
+  <si>
+    <t>Útvonal keresése</t>
+  </si>
+  <si>
+    <t>Maximum 30 ugrás</t>
+  </si>
+  <si>
+    <t>nslookup</t>
+  </si>
+  <si>
+    <t>Az nsloopup parancs segítségével indíthatunk manuálisan DNS kérést egy adott web-szerverre vonatkozóan.</t>
+  </si>
+  <si>
+    <t>Pl.: nslookup www.google.com</t>
+  </si>
+  <si>
+    <t>A válasz első része tartalmazza a kiszolgáló nevét és IP-címét</t>
+  </si>
+  <si>
+    <t>A válasz második felében egy nem mérvadó (non-authoritative) választ kaptunk, ami annyit jelent, hogy a válasz valamely DNS szerver cache-éből került ki.</t>
+  </si>
+  <si>
+    <t>Először futtassunk paraméter nélkül az  nslookup parancsot, majd utána adjuk meg a szerver nevét.</t>
+  </si>
+  <si>
+    <t>netstat</t>
+  </si>
+  <si>
+    <t>Megjeleníti a hálózati kapcsolatokat (kimenő és bejövő kapcsolatokat egyaránt), az irányítótáblákat, és más egyéb hálózati statisztikákat.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3840,6 +4104,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3880,7 +4153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3957,6 +4230,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3969,7 +4243,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -5065,8 +5341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC350798-7711-4A1C-A883-6ABC74B33182}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5318,8 +5594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD87432E-A911-440C-94A4-5F5B5CF92783}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5731,7 +6007,7 @@
       <c r="B53" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="32" t="s">
         <v>571</v>
       </c>
     </row>
@@ -5742,7 +6018,7 @@
       <c r="B54" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C54" s="31"/>
+      <c r="C54" s="32"/>
     </row>
     <row r="55" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
@@ -5857,10 +6133,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DC77A1-EADA-4759-AC14-926B264333CB}">
-  <dimension ref="A1:B324"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A302" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A325" sqref="A325"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A248" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A276" sqref="A276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="113.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6612,11 +6888,6 @@
         <v>782</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="6" t="s">
-        <v>782</v>
-      </c>
-    </row>
     <row r="278" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A278" s="19" t="s">
         <v>845</v>
@@ -6767,8 +7038,8 @@
         <v>874</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="6" t="s">
+    <row r="312" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A312" s="19" t="s">
         <v>875</v>
       </c>
     </row>
@@ -6838,6 +7109,439 @@
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>889</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A326" s="19" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="6" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="6" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="6" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A331" s="6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A333" s="19" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="6" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A336" s="6" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A337" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A339" s="19" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="6" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B342" s="8" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B343" s="8" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B344" s="8" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B345" s="8" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B346" s="8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B347" s="8" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A349" s="19" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A350" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="6" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A355" s="19" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="6" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="6" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="6" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="6" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A361" s="6" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A363" s="19" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A364" s="6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="6" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="6" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="6" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A369" s="19" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="6" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="6" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="6" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="6" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A376" s="19" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="6" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="6" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="6" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="6" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A383" s="19" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="6" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="6" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="6" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A388" s="19" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="6" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" s="6" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="6" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A394" s="33" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" s="6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="6" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A401" s="19" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" s="6" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" s="6" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A405" s="19" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" s="6" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" s="6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A411" s="19" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" s="6" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A413" s="6" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A415" s="19" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" s="6" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A419" s="19" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" s="6" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" s="6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A423" s="6" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A426" s="19" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A427" s="6" t="s">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -6851,7 +7555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCD10CD-0ABB-42BF-A426-40CB65A0772D}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -7219,8 +7923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB668233-3DBF-4B7F-9F7C-E8D2A76AFBBB}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7395,24 +8099,24 @@
       <c r="A27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
@@ -7608,14 +8312,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -7960,8 +8664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350190BB-23B1-450E-A8E4-5073E81203DD}">
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7973,12 +8677,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -9452,8 +10156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8F9747-A2EE-4BE5-A71A-80F69BEAC41E}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9749,7 +10453,7 @@
       <c r="B35" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="28" t="s">
         <v>917</v>
       </c>
     </row>

--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F10616B-C8BC-4350-96BC-9206747B1979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087D5ABA-D787-4C94-88B3-4DA2C2FC26EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13956" yWindow="3444" windowWidth="23352" windowHeight="12696" firstSheet="5" activeTab="11" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="4944" yWindow="3480" windowWidth="23352" windowHeight="12696" firstSheet="6" activeTab="12" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="1025">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -4037,6 +4037,24 @@
   </si>
   <si>
     <t>Megjeleníti a hálózati kapcsolatokat (kimenő és bejövő kapcsolatokat egyaránt), az irányítótáblákat, és más egyéb hálózati statisztikákat.</t>
+  </si>
+  <si>
+    <t>Hogyan nevezzük az objektumok változóit?</t>
+  </si>
+  <si>
+    <t>tulajdonság</t>
+  </si>
+  <si>
+    <t>Melyik elem NEM kisbetű-nagybetű érzékeny?</t>
+  </si>
+  <si>
+    <t>JavaScript-utasítások</t>
+  </si>
+  <si>
+    <t>addEventListener</t>
+  </si>
+  <si>
+    <t>appendChild</t>
   </si>
 </sst>
 </file>
@@ -4231,6 +4249,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4242,9 +4263,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5594,8 +5612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD87432E-A911-440C-94A4-5F5B5CF92783}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6007,7 +6025,7 @@
       <c r="B53" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="33" t="s">
         <v>571</v>
       </c>
     </row>
@@ -6018,7 +6036,7 @@
       <c r="B54" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C54" s="32"/>
+      <c r="C54" s="33"/>
     </row>
     <row r="55" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
@@ -6135,7 +6153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DC77A1-EADA-4759-AC14-926B264333CB}">
   <dimension ref="A1:B427"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A248" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A359" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A276" sqref="A276"/>
     </sheetView>
   </sheetViews>
@@ -7405,7 +7423,7 @@
       </c>
     </row>
     <row r="394" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A394" s="33" t="s">
+      <c r="A394" s="29" t="s">
         <v>991</v>
       </c>
     </row>
@@ -7553,17 +7571,19 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCD10CD-0ABB-42BF-A426-40CB65A0772D}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="102.5546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="63.109375" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="11"/>
+    <col min="3" max="3" width="38.109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -7774,7 +7794,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>834</v>
       </c>
@@ -7782,7 +7802,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>836</v>
       </c>
@@ -7790,7 +7810,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>837</v>
       </c>
@@ -7798,7 +7818,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>840</v>
       </c>
@@ -7806,12 +7826,67 @@
         <v>841</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>842</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>843</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -8099,24 +8174,24 @@
       <c r="A27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
@@ -8312,14 +8387,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -8664,8 +8739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350190BB-23B1-450E-A8E4-5073E81203DD}">
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8677,12 +8752,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">

--- a/!Tanulnivaló/HTML5 tagek.xlsx
+++ b/!Tanulnivaló/HTML5 tagek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programozás\GitHub\Adanos93\Adanos93\!Tanulnivaló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087D5ABA-D787-4C94-88B3-4DA2C2FC26EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B531024D-9D6C-4A5C-82C4-BB5EF99B9071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="3480" windowWidth="23352" windowHeight="12696" firstSheet="6" activeTab="12" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
+    <workbookView xWindow="20088" yWindow="1704" windowWidth="23352" windowHeight="14448" firstSheet="6" activeTab="12" xr2:uid="{5C31E593-A007-47DF-92AE-4ADC597150FD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML5" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="DOM" sheetId="9" r:id="rId10"/>
     <sheet name="DELET, POST és PUT" sheetId="12" r:id="rId11"/>
     <sheet name="Hálózati alapismeretek" sheetId="11" r:id="rId12"/>
-    <sheet name="Extra" sheetId="13" r:id="rId13"/>
+    <sheet name="Windows" sheetId="14" r:id="rId13"/>
+    <sheet name="Extra" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1193">
   <si>
     <t>&lt;head&gt;</t>
   </si>
@@ -4056,12 +4057,531 @@
   <si>
     <t>appendChild</t>
   </si>
+  <si>
+    <t>Neumann elvek</t>
+  </si>
+  <si>
+    <t>Teljesen elektronikus működés</t>
+  </si>
+  <si>
+    <t>Kettes számrendszer használata</t>
+  </si>
+  <si>
+    <t>Balső memória használata</t>
+  </si>
+  <si>
+    <t>Tárolt program elve</t>
+  </si>
+  <si>
+    <t>Soros utasítás-végrehajtás</t>
+  </si>
+  <si>
+    <t>Univerzális felhasználhatóság (Turing gép)</t>
+  </si>
+  <si>
+    <t>Szerkezet: öt funcionális (ALU, CU, Memória, I/O)</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Feladata:</t>
+  </si>
+  <si>
+    <t>A futtatott program utasításainak értelmezése és végrehajtása</t>
+  </si>
+  <si>
+    <t>Az utasításokkal kapcsolatos matematikai műveletek elvégzése</t>
+  </si>
+  <si>
+    <t>Főbb részei:</t>
+  </si>
+  <si>
+    <t>CU - vezérlő egység: gondoskodik az időzített működésről</t>
+  </si>
+  <si>
+    <t>ALU - aritmetikai és logikai egység: a tényleges műveletvégzésért felelős</t>
+  </si>
+  <si>
+    <t>Regiszterek, cache</t>
+  </si>
+  <si>
+    <t>Alaplap</t>
+  </si>
+  <si>
+    <t>A csatlakozó eszközök un. Buszok segítségével tartják a kapcsolatot az alplappal.</t>
+  </si>
+  <si>
+    <t>Ezek a cím, adat és vezérlő buszok.</t>
+  </si>
+  <si>
+    <t>Háttértár - HDD</t>
+  </si>
+  <si>
+    <t>Egy fizikai winchestert több részre, úgynevezett partícióra oszthatunk, és valójában ezek kapnak betűjelet</t>
+  </si>
+  <si>
+    <t>Cache memória (gyorsítótár): kiegyenlíti a winchester és a RAM közötti sebességkülönbséget. (8 - 128 MB)</t>
+  </si>
+  <si>
+    <t>Olvasási és írási sebesség: 50-150 MB/sec</t>
+  </si>
+  <si>
+    <t>Háttértár - SSD</t>
+  </si>
+  <si>
+    <t>Félvezetős memóriát használó adattároló eszköz.</t>
+  </si>
+  <si>
+    <t>Nem tartalmaz mozgó alkatrészeket.</t>
+  </si>
+  <si>
+    <t>Hangtalan, kevés hőt termel, nincsenek a mechanikából adódó késleltetések.</t>
+  </si>
+  <si>
+    <t>Alacsony fogyasztás.</t>
+  </si>
+  <si>
+    <t>Akár több GB/s írási olvasási sebesség.</t>
+  </si>
+  <si>
+    <t>Memóriahierarchia - Regiszterek</t>
+  </si>
+  <si>
+    <t>A processzor belső tárolói. (10-1000)</t>
+  </si>
+  <si>
+    <t>Azok az adatok tárolódnak benne, amelyek éppen feldolgozás alatt állnak a processzorban.</t>
+  </si>
+  <si>
+    <t>Mérete: …, 32bit, 64bit</t>
+  </si>
+  <si>
+    <t>Elérési idő: ~0,4ns</t>
+  </si>
+  <si>
+    <t>Memóriahierarchia - Cache</t>
+  </si>
+  <si>
+    <t>Processzor átmeneti gyorsítótára</t>
+  </si>
+  <si>
+    <t>A gyakran használni kívánt adatokat átmenetileg tároljuk.</t>
+  </si>
+  <si>
+    <t>Többszintű:
+L1 (64KB, 1,5ns)
+L2 (256KB, 5ns)
+L3 (24MB, 20ns)</t>
+  </si>
+  <si>
+    <t>Memóriahierarchia - RAM</t>
+  </si>
+  <si>
+    <t>Írható olvasható memória.</t>
+  </si>
+  <si>
+    <t>A RAM tárolja a CPU által végrehajtandó, futó programokat és a feldolgozásra váró adatokat.</t>
+  </si>
+  <si>
+    <t>Állandó energiaellátást igényel.</t>
+  </si>
+  <si>
+    <t>Mérete több GB</t>
+  </si>
+  <si>
+    <t>Elérési idő: ~ 100ns</t>
+  </si>
+  <si>
+    <t>Memóriahierarchia - Virtuális memória</t>
+  </si>
+  <si>
+    <t>Merevlemez egy elkülönített része (vagy SSD)</t>
+  </si>
+  <si>
+    <t>Akkor van rá szükség, ha elfogyott a RAM, de szükség van még memóriára.</t>
+  </si>
+  <si>
+    <t>Mérete általában a fizikai méretének függvényében automatikusan kerül beállításra</t>
+  </si>
+  <si>
+    <t>Elérési idő: ~4ms</t>
+  </si>
+  <si>
+    <t>Memóriakezelés</t>
+  </si>
+  <si>
+    <t>Perifériakezelés</t>
+  </si>
+  <si>
+    <t>Állománykezelés</t>
+  </si>
+  <si>
+    <t>Hibakezelés</t>
+  </si>
+  <si>
+    <t>Védelem</t>
+  </si>
+  <si>
+    <t>Naplózás</t>
+  </si>
+  <si>
+    <t>Shell (héj)</t>
+  </si>
+  <si>
+    <t>Kernel (mag)</t>
+  </si>
+  <si>
+    <t>Felhasználói felület biztosítása</t>
+  </si>
+  <si>
+    <t>Alkalmazások futásának kezelése</t>
+  </si>
+  <si>
+    <t>API (alkalmazói programozási interfész):</t>
+  </si>
+  <si>
+    <t>Illesztési felület a rendszermag és az alkalmazási alrendszer között.</t>
+  </si>
+  <si>
+    <t>API segítségével lehetséges egy programrendszer szolgáltatásait használni anélkül, hogy annak belső működését ismernénk</t>
+  </si>
+  <si>
+    <t>Az API-t rendszerhéj és a szervizprogramok is használják.</t>
+  </si>
+  <si>
+    <t>Utility-k (Szervizprogramok)</t>
+  </si>
+  <si>
+    <t>Adminisztratív</t>
+  </si>
+  <si>
+    <t>Információs</t>
+  </si>
+  <si>
+    <t>Üzemeltetési feladatokat végeznek</t>
+  </si>
+  <si>
+    <t>Szolgáltatások</t>
+  </si>
+  <si>
+    <t>Általában egy háttérben futó alkalmazás, folyamat.</t>
+  </si>
+  <si>
+    <t>Általában nincs külön kinevezett felhasználói felületük.</t>
+  </si>
+  <si>
+    <t>Többnyire egy adott funkciót teljesítenek alacsony szinten.</t>
+  </si>
+  <si>
+    <t>Futtatása: WIN + R, services.msc</t>
+  </si>
+  <si>
+    <t>Taskmanager</t>
+  </si>
+  <si>
+    <t>Fájlok</t>
+  </si>
+  <si>
+    <t>A fájlformátum azon eljárásnak meghatározása, hogy egy számítógépes adat miképpen tárolható fizikai adathordozón, és hogyan jeleníthetó meg egységes módon.</t>
+  </si>
+  <si>
+    <t>A különböző információk részére különböző formátumok léteznek.</t>
+  </si>
+  <si>
+    <t>A programok a fájlokat mint adatfolyamokat használják.</t>
+  </si>
+  <si>
+    <t>Fájltársítások</t>
+  </si>
+  <si>
+    <t>A fájlformátum azon eljárásnak meghatározása, hogy egy számítógépes adat miképpen tárolható fizikai adathordozón, és hogyan jeleníthető meg egységes módon.</t>
+  </si>
+  <si>
+    <t>Parancssorosan: assoc</t>
+  </si>
+  <si>
+    <t>Grafikusan: Gépházból</t>
+  </si>
+  <si>
+    <t>A registry tárolja a társításokat</t>
+  </si>
+  <si>
+    <t>A fájlkiterjesztés (extension), segíti az operációs rendszer és a felhasználói programokat abban, hogy azonosítsa az állomány típusát.</t>
+  </si>
+  <si>
+    <t>Registry</t>
+  </si>
+  <si>
+    <t>Rendszerleíró adatbázis</t>
+  </si>
+  <si>
+    <t>Helyettesíti a rendszerek legtöbb .ini állományát, valamint az MS-DOS konfigurációs fájljait, mint például az AUTOEXEC.BAT és CONFIG.SYS fájlokat.</t>
+  </si>
+  <si>
+    <t>Öt gyökérkulcsot tartalmaz.</t>
+  </si>
+  <si>
+    <t>Az alkulcsok (röviden kulcsok) újabb alkulcsokat is tartalmazhatnak.</t>
+  </si>
+  <si>
+    <t>A Windows telepítésekor létrejött kezdeti konfigurációjának leírása, és változások</t>
+  </si>
+  <si>
+    <t>A telepített programok listája</t>
+  </si>
+  <si>
+    <t>Fájlkiterjesztésekhez társított alkalmazások</t>
+  </si>
+  <si>
+    <t>Automatikusan induló programok listája</t>
+  </si>
+  <si>
+    <t>A felhasználói profilok</t>
+  </si>
+  <si>
+    <t>Hardverösszetevők</t>
+  </si>
+  <si>
+    <t>A használt portok</t>
+  </si>
+  <si>
+    <t>A fájltípusokhoz társított ikonok, a felbukkanó üzenetek szövege, az akutális asztal témja és rendszerstílusok, stb…</t>
+  </si>
+  <si>
+    <t>A hive (kaptár) egy kulcs minden alkulácsnak és bejegyzésének összessége, struktúrája.</t>
+  </si>
+  <si>
+    <t>A registry a lemezen különféle hive-fájlok formájában van tárolva</t>
+  </si>
+  <si>
+    <t>A registry nem case-sensitive.</t>
+  </si>
+  <si>
+    <t>HKEY_CLASSES_ROOT-HKCR: Az itt tárolt információk határozzák meg, hogy egy adott kiterjesztésű fájét mivel nyisson meg a Windows.</t>
+  </si>
+  <si>
+    <t>HKEY_CURRENT-USER-KHCU: A bejelentkezett felhasználó adatait tárolja.</t>
+  </si>
+  <si>
+    <t>HKEY_LOCAL_MACHINE - HKLM: A számítógéppel kapcsolatos összes hardver és szoftver konfigurációs adatokat tartalmazza.</t>
+  </si>
+  <si>
+    <t>HKEY_USERS - HKU: minden egyes felhasználói profilhoz tartoik egy alkulcs, a HKCU ennek alkulcsa.</t>
+  </si>
+  <si>
+    <t>HKEY_CURRENT_CONFIG - HKCC: csupán egy link az aktuális hardverprofilra.</t>
+  </si>
+  <si>
+    <t>DLL</t>
+  </si>
+  <si>
+    <t>A DLL (Dynamic Link Library, "dinamikus csatolású/hivatkozású könyvtár").</t>
+  </si>
+  <si>
+    <t>A DLL-ek főként különböző függvényeket tartalmaznak.</t>
+  </si>
+  <si>
+    <t>Lényege, hogy több program is használhatja ugyanazokat az eljárásokat, így memóriát és lemezterületet takarítva meg. (Pl.: Print)</t>
+  </si>
+  <si>
+    <t>Egy-egy alkalmazáshoz általában több DLL is tartozik.</t>
+  </si>
+  <si>
+    <t>A cmd.exe a %Systemroot%\System32 könyvtárban található</t>
+  </si>
+  <si>
+    <t>A WIN + R, cmd parancs futtatásával indítható vagy</t>
+  </si>
+  <si>
+    <t>Felhasználói jogokkal: WIN +x, p</t>
+  </si>
+  <si>
+    <t>Adminisztrátorként: WIN + x, n</t>
+  </si>
+  <si>
+    <t>Paranccsor</t>
+  </si>
+  <si>
+    <t>A parancssor jellegzetes eleme a prompt. A prompt jele &gt;. A prompt további információkat is tartalmazhat, mint példáult az aktuális könyvtárat, dátumot, felhasználót.</t>
+  </si>
+  <si>
+    <t>A villógó kurzor jelzi, hogy a parancssor interaktív üzemmódban van a rendszer parancsok fogadására készen áll</t>
+  </si>
+  <si>
+    <t>Az ablak címsorára jobb gombbal kattintva, a tulajdonságokat kiválasztva lehetőségünk van a színeket, betűtípust, ablakméretet és minden egyebet testre szabni.</t>
+  </si>
+  <si>
+    <t>ALT + ENTER: Teljes képernyő</t>
+  </si>
+  <si>
+    <t>TAB: Automatikus fájl/mappanév kiegészítés</t>
+  </si>
+  <si>
+    <t>RIGHT CLICK: Beillesztés</t>
+  </si>
+  <si>
+    <t>ARROW UP: Előző parancs</t>
+  </si>
+  <si>
+    <t>ARROW DOWN: következő parancs</t>
+  </si>
+  <si>
+    <t>CRTL + C Parancs megszakítása</t>
+  </si>
+  <si>
+    <t>SELECT RIGHT CLICK: A kijelölt rész beillesztése a prompt után</t>
+  </si>
+  <si>
+    <t>F7: Parancselőzmények</t>
+  </si>
+  <si>
+    <t>parancsnév [kapcsolók] [paraméterek]</t>
+  </si>
+  <si>
+    <t>pl.: copy /y file1</t>
+  </si>
+  <si>
+    <t>help: Az összes belső parancs kilistázása</t>
+  </si>
+  <si>
+    <t>help command vagy command /?: Súgó megjelenítése az adott parancsról.</t>
+  </si>
+  <si>
+    <t>exit: Kilépés</t>
+  </si>
+  <si>
+    <t>cd/chdir: Aktuális útvonal kiíratása</t>
+  </si>
+  <si>
+    <t>cd..: Ugraás egy mappával fejlebb</t>
+  </si>
+  <si>
+    <t>cd\: Kilépés a gyökérkönyvtárba</t>
+  </si>
+  <si>
+    <t>cd path: Ugrás az adott elérési útvonalra.</t>
+  </si>
+  <si>
+    <t>d: : Másik lemezre váltás</t>
+  </si>
+  <si>
+    <t>dir: Könyvtár tartalmának kilistázása</t>
+  </si>
+  <si>
+    <t>md/mkdir: Könyvtár létrehozása</t>
+  </si>
+  <si>
+    <t>rd/rmdir: Könyvtár törlése</t>
+  </si>
+  <si>
+    <t>copy: Fájlok másolása</t>
+  </si>
+  <si>
+    <t>copy con: Fájl létrehozása</t>
+  </si>
+  <si>
+    <t>type: Fájl tartamának kiírattatása</t>
+  </si>
+  <si>
+    <t>move: Fájl vagy könyvtár mozgatása</t>
+  </si>
+  <si>
+    <t>xcopy: Fájl vagy könyvtár másolása (/e vagy /s kapcsolóval)</t>
+  </si>
+  <si>
+    <t>ren/rename: Fájlok, könyvátrak átnevezése</t>
+  </si>
+  <si>
+    <t>del: Fájlok, könyvtárak törlése</t>
+  </si>
+  <si>
+    <t>Parancssor- Helyettesítő karakterek</t>
+  </si>
+  <si>
+    <t>?: Egy (bármilyen) karakter behelyettesítése. 
+Pl.: dir email.htm?
+Kilistáz minden email nevű fájlt, aminek a kiterjesztése htm-el kezdődik</t>
+  </si>
+  <si>
+    <t>*: Tetszőleges számú karakter behelyettesítése
+Pl.: dir *.html
+Kilistáz minden html kiterjesztésű fájlt</t>
+  </si>
+  <si>
+    <t>&gt;: Parancs kimenetének fájlba írása
+Pl.: dir &gt; list.txt
+A list.txt-bebeleírja az aktuális könyvtár tartalmát.</t>
+  </si>
+  <si>
+    <t>&gt;&gt;: Parancs kimenetének tartalmát hozzáfűzi a fájlhoz.
+Pl.: dir &gt;&gt; list.txt
+A list.txt fájl végére beleírja az aktuális könyvtár tartalmát.</t>
+  </si>
+  <si>
+    <t>Futtatható állományok - .com</t>
+  </si>
+  <si>
+    <t>Az angol command szóból ered az elnevezése.</t>
+  </si>
+  <si>
+    <t>Bináris fájl.</t>
+  </si>
+  <si>
+    <t>A com fájlok voltak a DOS első futtatható állományai.</t>
+  </si>
+  <si>
+    <t>Egyszerű felépítésűek, maximum 64 KB méretűek.</t>
+  </si>
+  <si>
+    <t>A .com fájlokban a programról semmi kísérőinformáció nem található, a fájl csak magát az egyetlen programszegmenst tartalmazza.</t>
+  </si>
+  <si>
+    <t>Futtatható állományok - .exe</t>
+  </si>
+  <si>
+    <t>Az executable (végrehajtható) szóból származik.</t>
+  </si>
+  <si>
+    <t>A Microsoft DOS és Windows operációs rendszerein futtatható állományok, speciális. Magas szintű programnyelven íródnak, majd gépi kóddá fordítják őket, tehát egyszerű szövegszerkesztővel nem szerkeszthetőek.</t>
+  </si>
+  <si>
+    <t>Az .exe fájlok elején mindig található egy fejléc, azaz egy információs tömb, amely nélkülözhetetlen a program elindításához. (pl.: a DLL-ek használata)</t>
+  </si>
+  <si>
+    <t>Futtatható állományok - .bat</t>
+  </si>
+  <si>
+    <t>Kötegelt (batch) állomány.</t>
+  </si>
+  <si>
+    <t>Egy egyszerű szövegszerkesztővel szerkeszthető állomány, ami CLI parancsokat tartalmaz, melyek egymás után végrehajtódnak az értelmező segítségével.</t>
+  </si>
+  <si>
+    <t>A többször használatos, hosszabb utasítások ismételt begépelésétől megkímélhetjük magunkat</t>
+  </si>
+  <si>
+    <t>Futtatható állományok - .cmd</t>
+  </si>
+  <si>
+    <t>A .cmd kiterjesztés a Windows-al, illetve a 32 bites rendszerektől kezdve használatos.</t>
+  </si>
+  <si>
+    <t>Ezen felül az egyetlen eltérés, hogy a cmd file az ERRORLABEL környezeti változó értékét sikeres végrehajtás esetén is megváltoztatja, míg a .bat csak hiba esetén.</t>
+  </si>
+  <si>
+    <t>Sorrendben:
+COM
+EXE
+BAT
+CMD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4131,6 +4651,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4171,7 +4701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4263,6 +4793,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5060,6 +5596,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90493</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>375697</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>126936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1407AD-E46B-4171-8889-26D0293F9E3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4235773" y="190500"/>
+          <a:ext cx="4910544" cy="2298636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>251514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>143618</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Kép 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDA05AC-E09D-43A0-A761-ED23E8C2E72E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4892040" y="3893874"/>
+          <a:ext cx="2688698" cy="1578509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>162759</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>332195</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>208533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Kép 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3178B6AC-9137-42CD-A0E8-7F4FCE193FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4803339" y="7223760"/>
+          <a:ext cx="3575576" cy="3081273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
@@ -7570,10 +8243,874 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DD1F96-19A0-4B83-BC82-82386AE38BA8}">
+  <dimension ref="A1:B194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="73.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="34" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A20" s="34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A24" s="34" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A29" s="34" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A36" s="34" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A42" s="34" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A47" s="34" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A54" s="34" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A60" s="34" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A68" s="34" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A72" s="34" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A77" s="34" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A82" s="34" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A90" s="34" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A95" s="34" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A102" s="34" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A124" s="34" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A130" s="34" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A166" s="34" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A172" s="34" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A179" s="34" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A185" s="34" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A190" s="34" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCD10CD-0ABB-42BF-A426-40CB65A0772D}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="B43" sqref="B43:C43"/>
     </sheetView>
   </sheetViews>
